--- a/Achievement_Hunting/achievement_hunting.xlsx
+++ b/Achievement_Hunting/achievement_hunting.xlsx
@@ -142,12 +142,12 @@
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="Achievements Earned"/>
     <tableColumn id="3" name="Achievements Total"/>
-    <tableColumn id="4" name="TA Earned"/>
-    <tableColumn id="5" name="TA Total"/>
+    <tableColumn id="4" name="TS Earned"/>
+    <tableColumn id="5" name="TS Total"/>
     <tableColumn id="6" name="GS Earned"/>
     <tableColumn id="7" name="GS Total"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark7" showFirstColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -466,12 +466,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>TA Earned</t>
+          <t>TS Earned</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>TA Total</t>
+          <t>TS Total</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -7027,7 +7027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7048,12 +7048,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>TA Ratio</t>
+          <t>TS Ratio</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>GS Ratio</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TA-Ratio</t>
         </is>
       </c>
     </row>
@@ -7074,6 +7079,10 @@
         <f>'Game Data'!F2/'Game Data'!G2</f>
         <v/>
       </c>
+      <c r="E2">
+        <f>'Game Data'!E2/'Game Data'!G2</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -7092,6 +7101,10 @@
         <f>'Game Data'!F3/'Game Data'!G3</f>
         <v/>
       </c>
+      <c r="E3">
+        <f>'Game Data'!E3/'Game Data'!G3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -7110,6 +7123,10 @@
         <f>'Game Data'!F4/'Game Data'!G4</f>
         <v/>
       </c>
+      <c r="E4">
+        <f>'Game Data'!E4/'Game Data'!G4</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -7128,6 +7145,10 @@
         <f>'Game Data'!F5/'Game Data'!G5</f>
         <v/>
       </c>
+      <c r="E5">
+        <f>'Game Data'!E5/'Game Data'!G5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -7146,6 +7167,10 @@
         <f>'Game Data'!F6/'Game Data'!G6</f>
         <v/>
       </c>
+      <c r="E6">
+        <f>'Game Data'!E6/'Game Data'!G6</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -7164,6 +7189,10 @@
         <f>'Game Data'!F7/'Game Data'!G7</f>
         <v/>
       </c>
+      <c r="E7">
+        <f>'Game Data'!E7/'Game Data'!G7</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -7182,6 +7211,10 @@
         <f>'Game Data'!F8/'Game Data'!G8</f>
         <v/>
       </c>
+      <c r="E8">
+        <f>'Game Data'!E8/'Game Data'!G8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -7200,6 +7233,10 @@
         <f>'Game Data'!F9/'Game Data'!G9</f>
         <v/>
       </c>
+      <c r="E9">
+        <f>'Game Data'!E9/'Game Data'!G9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -7218,6 +7255,10 @@
         <f>'Game Data'!F10/'Game Data'!G10</f>
         <v/>
       </c>
+      <c r="E10">
+        <f>'Game Data'!E10/'Game Data'!G10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -7236,6 +7277,10 @@
         <f>'Game Data'!F11/'Game Data'!G11</f>
         <v/>
       </c>
+      <c r="E11">
+        <f>'Game Data'!E11/'Game Data'!G11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -7254,6 +7299,10 @@
         <f>'Game Data'!F12/'Game Data'!G12</f>
         <v/>
       </c>
+      <c r="E12">
+        <f>'Game Data'!E12/'Game Data'!G12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -7272,6 +7321,10 @@
         <f>'Game Data'!F13/'Game Data'!G13</f>
         <v/>
       </c>
+      <c r="E13">
+        <f>'Game Data'!E13/'Game Data'!G13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -7290,6 +7343,10 @@
         <f>'Game Data'!F14/'Game Data'!G14</f>
         <v/>
       </c>
+      <c r="E14">
+        <f>'Game Data'!E14/'Game Data'!G14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -7308,6 +7365,10 @@
         <f>'Game Data'!F15/'Game Data'!G15</f>
         <v/>
       </c>
+      <c r="E15">
+        <f>'Game Data'!E15/'Game Data'!G15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -7326,6 +7387,10 @@
         <f>'Game Data'!F16/'Game Data'!G16</f>
         <v/>
       </c>
+      <c r="E16">
+        <f>'Game Data'!E16/'Game Data'!G16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -7344,6 +7409,10 @@
         <f>'Game Data'!F17/'Game Data'!G17</f>
         <v/>
       </c>
+      <c r="E17">
+        <f>'Game Data'!E17/'Game Data'!G17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -7362,6 +7431,10 @@
         <f>'Game Data'!F18/'Game Data'!G18</f>
         <v/>
       </c>
+      <c r="E18">
+        <f>'Game Data'!E18/'Game Data'!G18</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -7380,6 +7453,10 @@
         <f>'Game Data'!F19/'Game Data'!G19</f>
         <v/>
       </c>
+      <c r="E19">
+        <f>'Game Data'!E19/'Game Data'!G19</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -7398,6 +7475,10 @@
         <f>'Game Data'!F20/'Game Data'!G20</f>
         <v/>
       </c>
+      <c r="E20">
+        <f>'Game Data'!E20/'Game Data'!G20</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -7416,6 +7497,10 @@
         <f>'Game Data'!F21/'Game Data'!G21</f>
         <v/>
       </c>
+      <c r="E21">
+        <f>'Game Data'!E21/'Game Data'!G21</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -7434,6 +7519,10 @@
         <f>'Game Data'!F22/'Game Data'!G22</f>
         <v/>
       </c>
+      <c r="E22">
+        <f>'Game Data'!E22/'Game Data'!G22</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -7452,6 +7541,10 @@
         <f>'Game Data'!F23/'Game Data'!G23</f>
         <v/>
       </c>
+      <c r="E23">
+        <f>'Game Data'!E23/'Game Data'!G23</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -7470,6 +7563,10 @@
         <f>'Game Data'!F24/'Game Data'!G24</f>
         <v/>
       </c>
+      <c r="E24">
+        <f>'Game Data'!E24/'Game Data'!G24</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -7488,6 +7585,10 @@
         <f>'Game Data'!F25/'Game Data'!G25</f>
         <v/>
       </c>
+      <c r="E25">
+        <f>'Game Data'!E25/'Game Data'!G25</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -7506,6 +7607,10 @@
         <f>'Game Data'!F26/'Game Data'!G26</f>
         <v/>
       </c>
+      <c r="E26">
+        <f>'Game Data'!E26/'Game Data'!G26</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -7524,6 +7629,10 @@
         <f>'Game Data'!F27/'Game Data'!G27</f>
         <v/>
       </c>
+      <c r="E27">
+        <f>'Game Data'!E27/'Game Data'!G27</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -7542,6 +7651,10 @@
         <f>'Game Data'!F28/'Game Data'!G28</f>
         <v/>
       </c>
+      <c r="E28">
+        <f>'Game Data'!E28/'Game Data'!G28</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -7560,6 +7673,10 @@
         <f>'Game Data'!F29/'Game Data'!G29</f>
         <v/>
       </c>
+      <c r="E29">
+        <f>'Game Data'!E29/'Game Data'!G29</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -7578,6 +7695,10 @@
         <f>'Game Data'!F30/'Game Data'!G30</f>
         <v/>
       </c>
+      <c r="E30">
+        <f>'Game Data'!E30/'Game Data'!G30</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -7596,6 +7717,10 @@
         <f>'Game Data'!F31/'Game Data'!G31</f>
         <v/>
       </c>
+      <c r="E31">
+        <f>'Game Data'!E31/'Game Data'!G31</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -7614,6 +7739,10 @@
         <f>'Game Data'!F32/'Game Data'!G32</f>
         <v/>
       </c>
+      <c r="E32">
+        <f>'Game Data'!E32/'Game Data'!G32</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -7632,6 +7761,10 @@
         <f>'Game Data'!F33/'Game Data'!G33</f>
         <v/>
       </c>
+      <c r="E33">
+        <f>'Game Data'!E33/'Game Data'!G33</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -7650,6 +7783,10 @@
         <f>'Game Data'!F34/'Game Data'!G34</f>
         <v/>
       </c>
+      <c r="E34">
+        <f>'Game Data'!E34/'Game Data'!G34</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -7668,6 +7805,10 @@
         <f>'Game Data'!F35/'Game Data'!G35</f>
         <v/>
       </c>
+      <c r="E35">
+        <f>'Game Data'!E35/'Game Data'!G35</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -7686,6 +7827,10 @@
         <f>'Game Data'!F36/'Game Data'!G36</f>
         <v/>
       </c>
+      <c r="E36">
+        <f>'Game Data'!E36/'Game Data'!G36</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -7704,6 +7849,10 @@
         <f>'Game Data'!F37/'Game Data'!G37</f>
         <v/>
       </c>
+      <c r="E37">
+        <f>'Game Data'!E37/'Game Data'!G37</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -7722,6 +7871,10 @@
         <f>'Game Data'!F38/'Game Data'!G38</f>
         <v/>
       </c>
+      <c r="E38">
+        <f>'Game Data'!E38/'Game Data'!G38</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -7740,6 +7893,10 @@
         <f>'Game Data'!F39/'Game Data'!G39</f>
         <v/>
       </c>
+      <c r="E39">
+        <f>'Game Data'!E39/'Game Data'!G39</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -7758,6 +7915,10 @@
         <f>'Game Data'!F40/'Game Data'!G40</f>
         <v/>
       </c>
+      <c r="E40">
+        <f>'Game Data'!E40/'Game Data'!G40</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -7776,6 +7937,10 @@
         <f>'Game Data'!F41/'Game Data'!G41</f>
         <v/>
       </c>
+      <c r="E41">
+        <f>'Game Data'!E41/'Game Data'!G41</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -7794,6 +7959,10 @@
         <f>'Game Data'!F42/'Game Data'!G42</f>
         <v/>
       </c>
+      <c r="E42">
+        <f>'Game Data'!E42/'Game Data'!G42</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -7812,6 +7981,10 @@
         <f>'Game Data'!F43/'Game Data'!G43</f>
         <v/>
       </c>
+      <c r="E43">
+        <f>'Game Data'!E43/'Game Data'!G43</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -7830,6 +8003,10 @@
         <f>'Game Data'!F44/'Game Data'!G44</f>
         <v/>
       </c>
+      <c r="E44">
+        <f>'Game Data'!E44/'Game Data'!G44</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -7848,6 +8025,10 @@
         <f>'Game Data'!F45/'Game Data'!G45</f>
         <v/>
       </c>
+      <c r="E45">
+        <f>'Game Data'!E45/'Game Data'!G45</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -7866,6 +8047,10 @@
         <f>'Game Data'!F46/'Game Data'!G46</f>
         <v/>
       </c>
+      <c r="E46">
+        <f>'Game Data'!E46/'Game Data'!G46</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -7884,6 +8069,10 @@
         <f>'Game Data'!F47/'Game Data'!G47</f>
         <v/>
       </c>
+      <c r="E47">
+        <f>'Game Data'!E47/'Game Data'!G47</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -7902,6 +8091,10 @@
         <f>'Game Data'!F48/'Game Data'!G48</f>
         <v/>
       </c>
+      <c r="E48">
+        <f>'Game Data'!E48/'Game Data'!G48</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -7920,6 +8113,10 @@
         <f>'Game Data'!F49/'Game Data'!G49</f>
         <v/>
       </c>
+      <c r="E49">
+        <f>'Game Data'!E49/'Game Data'!G49</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -7938,6 +8135,10 @@
         <f>'Game Data'!F50/'Game Data'!G50</f>
         <v/>
       </c>
+      <c r="E50">
+        <f>'Game Data'!E50/'Game Data'!G50</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -7956,6 +8157,10 @@
         <f>'Game Data'!F51/'Game Data'!G51</f>
         <v/>
       </c>
+      <c r="E51">
+        <f>'Game Data'!E51/'Game Data'!G51</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -7974,6 +8179,10 @@
         <f>'Game Data'!F52/'Game Data'!G52</f>
         <v/>
       </c>
+      <c r="E52">
+        <f>'Game Data'!E52/'Game Data'!G52</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -7992,6 +8201,10 @@
         <f>'Game Data'!F53/'Game Data'!G53</f>
         <v/>
       </c>
+      <c r="E53">
+        <f>'Game Data'!E53/'Game Data'!G53</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -8010,6 +8223,10 @@
         <f>'Game Data'!F54/'Game Data'!G54</f>
         <v/>
       </c>
+      <c r="E54">
+        <f>'Game Data'!E54/'Game Data'!G54</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -8028,6 +8245,10 @@
         <f>'Game Data'!F55/'Game Data'!G55</f>
         <v/>
       </c>
+      <c r="E55">
+        <f>'Game Data'!E55/'Game Data'!G55</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -8046,6 +8267,10 @@
         <f>'Game Data'!F56/'Game Data'!G56</f>
         <v/>
       </c>
+      <c r="E56">
+        <f>'Game Data'!E56/'Game Data'!G56</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -8064,6 +8289,10 @@
         <f>'Game Data'!F57/'Game Data'!G57</f>
         <v/>
       </c>
+      <c r="E57">
+        <f>'Game Data'!E57/'Game Data'!G57</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -8082,6 +8311,10 @@
         <f>'Game Data'!F58/'Game Data'!G58</f>
         <v/>
       </c>
+      <c r="E58">
+        <f>'Game Data'!E58/'Game Data'!G58</f>
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -8100,6 +8333,10 @@
         <f>'Game Data'!F59/'Game Data'!G59</f>
         <v/>
       </c>
+      <c r="E59">
+        <f>'Game Data'!E59/'Game Data'!G59</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -8118,6 +8355,10 @@
         <f>'Game Data'!F60/'Game Data'!G60</f>
         <v/>
       </c>
+      <c r="E60">
+        <f>'Game Data'!E60/'Game Data'!G60</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -8136,6 +8377,10 @@
         <f>'Game Data'!F61/'Game Data'!G61</f>
         <v/>
       </c>
+      <c r="E61">
+        <f>'Game Data'!E61/'Game Data'!G61</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -8154,6 +8399,10 @@
         <f>'Game Data'!F62/'Game Data'!G62</f>
         <v/>
       </c>
+      <c r="E62">
+        <f>'Game Data'!E62/'Game Data'!G62</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -8172,6 +8421,10 @@
         <f>'Game Data'!F63/'Game Data'!G63</f>
         <v/>
       </c>
+      <c r="E63">
+        <f>'Game Data'!E63/'Game Data'!G63</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -8190,6 +8443,10 @@
         <f>'Game Data'!F64/'Game Data'!G64</f>
         <v/>
       </c>
+      <c r="E64">
+        <f>'Game Data'!E64/'Game Data'!G64</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -8208,6 +8465,10 @@
         <f>'Game Data'!F65/'Game Data'!G65</f>
         <v/>
       </c>
+      <c r="E65">
+        <f>'Game Data'!E65/'Game Data'!G65</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -8226,6 +8487,10 @@
         <f>'Game Data'!F66/'Game Data'!G66</f>
         <v/>
       </c>
+      <c r="E66">
+        <f>'Game Data'!E66/'Game Data'!G66</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -8244,6 +8509,10 @@
         <f>'Game Data'!F67/'Game Data'!G67</f>
         <v/>
       </c>
+      <c r="E67">
+        <f>'Game Data'!E67/'Game Data'!G67</f>
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -8262,6 +8531,10 @@
         <f>'Game Data'!F68/'Game Data'!G68</f>
         <v/>
       </c>
+      <c r="E68">
+        <f>'Game Data'!E68/'Game Data'!G68</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -8280,6 +8553,10 @@
         <f>'Game Data'!F69/'Game Data'!G69</f>
         <v/>
       </c>
+      <c r="E69">
+        <f>'Game Data'!E69/'Game Data'!G69</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -8298,6 +8575,10 @@
         <f>'Game Data'!F70/'Game Data'!G70</f>
         <v/>
       </c>
+      <c r="E70">
+        <f>'Game Data'!E70/'Game Data'!G70</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -8316,6 +8597,10 @@
         <f>'Game Data'!F71/'Game Data'!G71</f>
         <v/>
       </c>
+      <c r="E71">
+        <f>'Game Data'!E71/'Game Data'!G71</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -8334,6 +8619,10 @@
         <f>'Game Data'!F72/'Game Data'!G72</f>
         <v/>
       </c>
+      <c r="E72">
+        <f>'Game Data'!E72/'Game Data'!G72</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -8352,6 +8641,10 @@
         <f>'Game Data'!F73/'Game Data'!G73</f>
         <v/>
       </c>
+      <c r="E73">
+        <f>'Game Data'!E73/'Game Data'!G73</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -8370,6 +8663,10 @@
         <f>'Game Data'!F74/'Game Data'!G74</f>
         <v/>
       </c>
+      <c r="E74">
+        <f>'Game Data'!E74/'Game Data'!G74</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -8388,6 +8685,10 @@
         <f>'Game Data'!F75/'Game Data'!G75</f>
         <v/>
       </c>
+      <c r="E75">
+        <f>'Game Data'!E75/'Game Data'!G75</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -8406,6 +8707,10 @@
         <f>'Game Data'!F76/'Game Data'!G76</f>
         <v/>
       </c>
+      <c r="E76">
+        <f>'Game Data'!E76/'Game Data'!G76</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -8424,6 +8729,10 @@
         <f>'Game Data'!F77/'Game Data'!G77</f>
         <v/>
       </c>
+      <c r="E77">
+        <f>'Game Data'!E77/'Game Data'!G77</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -8442,6 +8751,10 @@
         <f>'Game Data'!F78/'Game Data'!G78</f>
         <v/>
       </c>
+      <c r="E78">
+        <f>'Game Data'!E78/'Game Data'!G78</f>
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -8460,6 +8773,10 @@
         <f>'Game Data'!F79/'Game Data'!G79</f>
         <v/>
       </c>
+      <c r="E79">
+        <f>'Game Data'!E79/'Game Data'!G79</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -8478,6 +8795,10 @@
         <f>'Game Data'!F80/'Game Data'!G80</f>
         <v/>
       </c>
+      <c r="E80">
+        <f>'Game Data'!E80/'Game Data'!G80</f>
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -8496,6 +8817,10 @@
         <f>'Game Data'!F81/'Game Data'!G81</f>
         <v/>
       </c>
+      <c r="E81">
+        <f>'Game Data'!E81/'Game Data'!G81</f>
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -8514,6 +8839,10 @@
         <f>'Game Data'!F82/'Game Data'!G82</f>
         <v/>
       </c>
+      <c r="E82">
+        <f>'Game Data'!E82/'Game Data'!G82</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -8532,6 +8861,10 @@
         <f>'Game Data'!F83/'Game Data'!G83</f>
         <v/>
       </c>
+      <c r="E83">
+        <f>'Game Data'!E83/'Game Data'!G83</f>
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -8550,6 +8883,10 @@
         <f>'Game Data'!F84/'Game Data'!G84</f>
         <v/>
       </c>
+      <c r="E84">
+        <f>'Game Data'!E84/'Game Data'!G84</f>
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -8568,6 +8905,10 @@
         <f>'Game Data'!F85/'Game Data'!G85</f>
         <v/>
       </c>
+      <c r="E85">
+        <f>'Game Data'!E85/'Game Data'!G85</f>
+        <v/>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -8586,6 +8927,10 @@
         <f>'Game Data'!F86/'Game Data'!G86</f>
         <v/>
       </c>
+      <c r="E86">
+        <f>'Game Data'!E86/'Game Data'!G86</f>
+        <v/>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -8604,6 +8949,10 @@
         <f>'Game Data'!F87/'Game Data'!G87</f>
         <v/>
       </c>
+      <c r="E87">
+        <f>'Game Data'!E87/'Game Data'!G87</f>
+        <v/>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -8622,6 +8971,10 @@
         <f>'Game Data'!F88/'Game Data'!G88</f>
         <v/>
       </c>
+      <c r="E88">
+        <f>'Game Data'!E88/'Game Data'!G88</f>
+        <v/>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -8640,6 +8993,10 @@
         <f>'Game Data'!F89/'Game Data'!G89</f>
         <v/>
       </c>
+      <c r="E89">
+        <f>'Game Data'!E89/'Game Data'!G89</f>
+        <v/>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -8658,6 +9015,10 @@
         <f>'Game Data'!F90/'Game Data'!G90</f>
         <v/>
       </c>
+      <c r="E90">
+        <f>'Game Data'!E90/'Game Data'!G90</f>
+        <v/>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -8676,6 +9037,10 @@
         <f>'Game Data'!F91/'Game Data'!G91</f>
         <v/>
       </c>
+      <c r="E91">
+        <f>'Game Data'!E91/'Game Data'!G91</f>
+        <v/>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -8694,6 +9059,10 @@
         <f>'Game Data'!F92/'Game Data'!G92</f>
         <v/>
       </c>
+      <c r="E92">
+        <f>'Game Data'!E92/'Game Data'!G92</f>
+        <v/>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -8712,6 +9081,10 @@
         <f>'Game Data'!F93/'Game Data'!G93</f>
         <v/>
       </c>
+      <c r="E93">
+        <f>'Game Data'!E93/'Game Data'!G93</f>
+        <v/>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -8730,6 +9103,10 @@
         <f>'Game Data'!F94/'Game Data'!G94</f>
         <v/>
       </c>
+      <c r="E94">
+        <f>'Game Data'!E94/'Game Data'!G94</f>
+        <v/>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -8748,6 +9125,10 @@
         <f>'Game Data'!F95/'Game Data'!G95</f>
         <v/>
       </c>
+      <c r="E95">
+        <f>'Game Data'!E95/'Game Data'!G95</f>
+        <v/>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -8766,6 +9147,10 @@
         <f>'Game Data'!F96/'Game Data'!G96</f>
         <v/>
       </c>
+      <c r="E96">
+        <f>'Game Data'!E96/'Game Data'!G96</f>
+        <v/>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -8784,6 +9169,10 @@
         <f>'Game Data'!F97/'Game Data'!G97</f>
         <v/>
       </c>
+      <c r="E97">
+        <f>'Game Data'!E97/'Game Data'!G97</f>
+        <v/>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -8802,6 +9191,10 @@
         <f>'Game Data'!F98/'Game Data'!G98</f>
         <v/>
       </c>
+      <c r="E98">
+        <f>'Game Data'!E98/'Game Data'!G98</f>
+        <v/>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -8820,6 +9213,10 @@
         <f>'Game Data'!F99/'Game Data'!G99</f>
         <v/>
       </c>
+      <c r="E99">
+        <f>'Game Data'!E99/'Game Data'!G99</f>
+        <v/>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -8838,6 +9235,10 @@
         <f>'Game Data'!F100/'Game Data'!G100</f>
         <v/>
       </c>
+      <c r="E100">
+        <f>'Game Data'!E100/'Game Data'!G100</f>
+        <v/>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -8856,6 +9257,10 @@
         <f>'Game Data'!F101/'Game Data'!G101</f>
         <v/>
       </c>
+      <c r="E101">
+        <f>'Game Data'!E101/'Game Data'!G101</f>
+        <v/>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -8874,6 +9279,10 @@
         <f>'Game Data'!F102/'Game Data'!G102</f>
         <v/>
       </c>
+      <c r="E102">
+        <f>'Game Data'!E102/'Game Data'!G102</f>
+        <v/>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -8892,6 +9301,10 @@
         <f>'Game Data'!F103/'Game Data'!G103</f>
         <v/>
       </c>
+      <c r="E103">
+        <f>'Game Data'!E103/'Game Data'!G103</f>
+        <v/>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -8910,6 +9323,10 @@
         <f>'Game Data'!F104/'Game Data'!G104</f>
         <v/>
       </c>
+      <c r="E104">
+        <f>'Game Data'!E104/'Game Data'!G104</f>
+        <v/>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -8928,6 +9345,10 @@
         <f>'Game Data'!F105/'Game Data'!G105</f>
         <v/>
       </c>
+      <c r="E105">
+        <f>'Game Data'!E105/'Game Data'!G105</f>
+        <v/>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -8946,6 +9367,10 @@
         <f>'Game Data'!F106/'Game Data'!G106</f>
         <v/>
       </c>
+      <c r="E106">
+        <f>'Game Data'!E106/'Game Data'!G106</f>
+        <v/>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -8964,6 +9389,10 @@
         <f>'Game Data'!F107/'Game Data'!G107</f>
         <v/>
       </c>
+      <c r="E107">
+        <f>'Game Data'!E107/'Game Data'!G107</f>
+        <v/>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -8982,6 +9411,10 @@
         <f>'Game Data'!F108/'Game Data'!G108</f>
         <v/>
       </c>
+      <c r="E108">
+        <f>'Game Data'!E108/'Game Data'!G108</f>
+        <v/>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -9000,6 +9433,10 @@
         <f>'Game Data'!F109/'Game Data'!G109</f>
         <v/>
       </c>
+      <c r="E109">
+        <f>'Game Data'!E109/'Game Data'!G109</f>
+        <v/>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -9018,6 +9455,10 @@
         <f>'Game Data'!F110/'Game Data'!G110</f>
         <v/>
       </c>
+      <c r="E110">
+        <f>'Game Data'!E110/'Game Data'!G110</f>
+        <v/>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -9036,6 +9477,10 @@
         <f>'Game Data'!F111/'Game Data'!G111</f>
         <v/>
       </c>
+      <c r="E111">
+        <f>'Game Data'!E111/'Game Data'!G111</f>
+        <v/>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -9054,6 +9499,10 @@
         <f>'Game Data'!F112/'Game Data'!G112</f>
         <v/>
       </c>
+      <c r="E112">
+        <f>'Game Data'!E112/'Game Data'!G112</f>
+        <v/>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -9072,6 +9521,10 @@
         <f>'Game Data'!F113/'Game Data'!G113</f>
         <v/>
       </c>
+      <c r="E113">
+        <f>'Game Data'!E113/'Game Data'!G113</f>
+        <v/>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -9090,6 +9543,10 @@
         <f>'Game Data'!F114/'Game Data'!G114</f>
         <v/>
       </c>
+      <c r="E114">
+        <f>'Game Data'!E114/'Game Data'!G114</f>
+        <v/>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -9108,6 +9565,10 @@
         <f>'Game Data'!F115/'Game Data'!G115</f>
         <v/>
       </c>
+      <c r="E115">
+        <f>'Game Data'!E115/'Game Data'!G115</f>
+        <v/>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -9126,6 +9587,10 @@
         <f>'Game Data'!F116/'Game Data'!G116</f>
         <v/>
       </c>
+      <c r="E116">
+        <f>'Game Data'!E116/'Game Data'!G116</f>
+        <v/>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -9144,6 +9609,10 @@
         <f>'Game Data'!F117/'Game Data'!G117</f>
         <v/>
       </c>
+      <c r="E117">
+        <f>'Game Data'!E117/'Game Data'!G117</f>
+        <v/>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -9162,6 +9631,10 @@
         <f>'Game Data'!F118/'Game Data'!G118</f>
         <v/>
       </c>
+      <c r="E118">
+        <f>'Game Data'!E118/'Game Data'!G118</f>
+        <v/>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -9180,6 +9653,10 @@
         <f>'Game Data'!F119/'Game Data'!G119</f>
         <v/>
       </c>
+      <c r="E119">
+        <f>'Game Data'!E119/'Game Data'!G119</f>
+        <v/>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -9198,6 +9675,10 @@
         <f>'Game Data'!F120/'Game Data'!G120</f>
         <v/>
       </c>
+      <c r="E120">
+        <f>'Game Data'!E120/'Game Data'!G120</f>
+        <v/>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -9216,6 +9697,10 @@
         <f>'Game Data'!F121/'Game Data'!G121</f>
         <v/>
       </c>
+      <c r="E121">
+        <f>'Game Data'!E121/'Game Data'!G121</f>
+        <v/>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -9234,6 +9719,10 @@
         <f>'Game Data'!F122/'Game Data'!G122</f>
         <v/>
       </c>
+      <c r="E122">
+        <f>'Game Data'!E122/'Game Data'!G122</f>
+        <v/>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -9252,6 +9741,10 @@
         <f>'Game Data'!F123/'Game Data'!G123</f>
         <v/>
       </c>
+      <c r="E123">
+        <f>'Game Data'!E123/'Game Data'!G123</f>
+        <v/>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -9270,6 +9763,10 @@
         <f>'Game Data'!F124/'Game Data'!G124</f>
         <v/>
       </c>
+      <c r="E124">
+        <f>'Game Data'!E124/'Game Data'!G124</f>
+        <v/>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -9288,6 +9785,10 @@
         <f>'Game Data'!F125/'Game Data'!G125</f>
         <v/>
       </c>
+      <c r="E125">
+        <f>'Game Data'!E125/'Game Data'!G125</f>
+        <v/>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -9306,6 +9807,10 @@
         <f>'Game Data'!F126/'Game Data'!G126</f>
         <v/>
       </c>
+      <c r="E126">
+        <f>'Game Data'!E126/'Game Data'!G126</f>
+        <v/>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -9324,6 +9829,10 @@
         <f>'Game Data'!F127/'Game Data'!G127</f>
         <v/>
       </c>
+      <c r="E127">
+        <f>'Game Data'!E127/'Game Data'!G127</f>
+        <v/>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -9342,6 +9851,10 @@
         <f>'Game Data'!F128/'Game Data'!G128</f>
         <v/>
       </c>
+      <c r="E128">
+        <f>'Game Data'!E128/'Game Data'!G128</f>
+        <v/>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -9360,6 +9873,10 @@
         <f>'Game Data'!F129/'Game Data'!G129</f>
         <v/>
       </c>
+      <c r="E129">
+        <f>'Game Data'!E129/'Game Data'!G129</f>
+        <v/>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -9378,6 +9895,10 @@
         <f>'Game Data'!F130/'Game Data'!G130</f>
         <v/>
       </c>
+      <c r="E130">
+        <f>'Game Data'!E130/'Game Data'!G130</f>
+        <v/>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -9396,6 +9917,10 @@
         <f>'Game Data'!F131/'Game Data'!G131</f>
         <v/>
       </c>
+      <c r="E131">
+        <f>'Game Data'!E131/'Game Data'!G131</f>
+        <v/>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -9414,6 +9939,10 @@
         <f>'Game Data'!F132/'Game Data'!G132</f>
         <v/>
       </c>
+      <c r="E132">
+        <f>'Game Data'!E132/'Game Data'!G132</f>
+        <v/>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
@@ -9432,6 +9961,10 @@
         <f>'Game Data'!F133/'Game Data'!G133</f>
         <v/>
       </c>
+      <c r="E133">
+        <f>'Game Data'!E133/'Game Data'!G133</f>
+        <v/>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
@@ -9450,6 +9983,10 @@
         <f>'Game Data'!F134/'Game Data'!G134</f>
         <v/>
       </c>
+      <c r="E134">
+        <f>'Game Data'!E134/'Game Data'!G134</f>
+        <v/>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
@@ -9468,6 +10005,10 @@
         <f>'Game Data'!F135/'Game Data'!G135</f>
         <v/>
       </c>
+      <c r="E135">
+        <f>'Game Data'!E135/'Game Data'!G135</f>
+        <v/>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -9486,6 +10027,10 @@
         <f>'Game Data'!F136/'Game Data'!G136</f>
         <v/>
       </c>
+      <c r="E136">
+        <f>'Game Data'!E136/'Game Data'!G136</f>
+        <v/>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
@@ -9504,6 +10049,10 @@
         <f>'Game Data'!F137/'Game Data'!G137</f>
         <v/>
       </c>
+      <c r="E137">
+        <f>'Game Data'!E137/'Game Data'!G137</f>
+        <v/>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -9522,6 +10071,10 @@
         <f>'Game Data'!F138/'Game Data'!G138</f>
         <v/>
       </c>
+      <c r="E138">
+        <f>'Game Data'!E138/'Game Data'!G138</f>
+        <v/>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
@@ -9540,6 +10093,10 @@
         <f>'Game Data'!F139/'Game Data'!G139</f>
         <v/>
       </c>
+      <c r="E139">
+        <f>'Game Data'!E139/'Game Data'!G139</f>
+        <v/>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
@@ -9558,6 +10115,10 @@
         <f>'Game Data'!F140/'Game Data'!G140</f>
         <v/>
       </c>
+      <c r="E140">
+        <f>'Game Data'!E140/'Game Data'!G140</f>
+        <v/>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -9576,6 +10137,10 @@
         <f>'Game Data'!F141/'Game Data'!G141</f>
         <v/>
       </c>
+      <c r="E141">
+        <f>'Game Data'!E141/'Game Data'!G141</f>
+        <v/>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
@@ -9594,6 +10159,10 @@
         <f>'Game Data'!F142/'Game Data'!G142</f>
         <v/>
       </c>
+      <c r="E142">
+        <f>'Game Data'!E142/'Game Data'!G142</f>
+        <v/>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
@@ -9612,6 +10181,10 @@
         <f>'Game Data'!F143/'Game Data'!G143</f>
         <v/>
       </c>
+      <c r="E143">
+        <f>'Game Data'!E143/'Game Data'!G143</f>
+        <v/>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
@@ -9630,6 +10203,10 @@
         <f>'Game Data'!F144/'Game Data'!G144</f>
         <v/>
       </c>
+      <c r="E144">
+        <f>'Game Data'!E144/'Game Data'!G144</f>
+        <v/>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
@@ -9648,6 +10225,10 @@
         <f>'Game Data'!F145/'Game Data'!G145</f>
         <v/>
       </c>
+      <c r="E145">
+        <f>'Game Data'!E145/'Game Data'!G145</f>
+        <v/>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
@@ -9666,6 +10247,10 @@
         <f>'Game Data'!F146/'Game Data'!G146</f>
         <v/>
       </c>
+      <c r="E146">
+        <f>'Game Data'!E146/'Game Data'!G146</f>
+        <v/>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -9684,6 +10269,10 @@
         <f>'Game Data'!F147/'Game Data'!G147</f>
         <v/>
       </c>
+      <c r="E147">
+        <f>'Game Data'!E147/'Game Data'!G147</f>
+        <v/>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
@@ -9702,6 +10291,10 @@
         <f>'Game Data'!F148/'Game Data'!G148</f>
         <v/>
       </c>
+      <c r="E148">
+        <f>'Game Data'!E148/'Game Data'!G148</f>
+        <v/>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
@@ -9720,6 +10313,10 @@
         <f>'Game Data'!F149/'Game Data'!G149</f>
         <v/>
       </c>
+      <c r="E149">
+        <f>'Game Data'!E149/'Game Data'!G149</f>
+        <v/>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -9738,6 +10335,10 @@
         <f>'Game Data'!F150/'Game Data'!G150</f>
         <v/>
       </c>
+      <c r="E150">
+        <f>'Game Data'!E150/'Game Data'!G150</f>
+        <v/>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
@@ -9756,6 +10357,10 @@
         <f>'Game Data'!F151/'Game Data'!G151</f>
         <v/>
       </c>
+      <c r="E151">
+        <f>'Game Data'!E151/'Game Data'!G151</f>
+        <v/>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
@@ -9774,6 +10379,10 @@
         <f>'Game Data'!F152/'Game Data'!G152</f>
         <v/>
       </c>
+      <c r="E152">
+        <f>'Game Data'!E152/'Game Data'!G152</f>
+        <v/>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
@@ -9792,6 +10401,10 @@
         <f>'Game Data'!F153/'Game Data'!G153</f>
         <v/>
       </c>
+      <c r="E153">
+        <f>'Game Data'!E153/'Game Data'!G153</f>
+        <v/>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
@@ -9810,6 +10423,10 @@
         <f>'Game Data'!F154/'Game Data'!G154</f>
         <v/>
       </c>
+      <c r="E154">
+        <f>'Game Data'!E154/'Game Data'!G154</f>
+        <v/>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
@@ -9828,6 +10445,10 @@
         <f>'Game Data'!F155/'Game Data'!G155</f>
         <v/>
       </c>
+      <c r="E155">
+        <f>'Game Data'!E155/'Game Data'!G155</f>
+        <v/>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
@@ -9846,6 +10467,10 @@
         <f>'Game Data'!F156/'Game Data'!G156</f>
         <v/>
       </c>
+      <c r="E156">
+        <f>'Game Data'!E156/'Game Data'!G156</f>
+        <v/>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
@@ -9864,6 +10489,10 @@
         <f>'Game Data'!F157/'Game Data'!G157</f>
         <v/>
       </c>
+      <c r="E157">
+        <f>'Game Data'!E157/'Game Data'!G157</f>
+        <v/>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
@@ -9882,6 +10511,10 @@
         <f>'Game Data'!F158/'Game Data'!G158</f>
         <v/>
       </c>
+      <c r="E158">
+        <f>'Game Data'!E158/'Game Data'!G158</f>
+        <v/>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
@@ -9900,6 +10533,10 @@
         <f>'Game Data'!F159/'Game Data'!G159</f>
         <v/>
       </c>
+      <c r="E159">
+        <f>'Game Data'!E159/'Game Data'!G159</f>
+        <v/>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
@@ -9918,6 +10555,10 @@
         <f>'Game Data'!F160/'Game Data'!G160</f>
         <v/>
       </c>
+      <c r="E160">
+        <f>'Game Data'!E160/'Game Data'!G160</f>
+        <v/>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
@@ -9936,6 +10577,10 @@
         <f>'Game Data'!F161/'Game Data'!G161</f>
         <v/>
       </c>
+      <c r="E161">
+        <f>'Game Data'!E161/'Game Data'!G161</f>
+        <v/>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
@@ -9954,6 +10599,10 @@
         <f>'Game Data'!F162/'Game Data'!G162</f>
         <v/>
       </c>
+      <c r="E162">
+        <f>'Game Data'!E162/'Game Data'!G162</f>
+        <v/>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
@@ -9972,6 +10621,10 @@
         <f>'Game Data'!F163/'Game Data'!G163</f>
         <v/>
       </c>
+      <c r="E163">
+        <f>'Game Data'!E163/'Game Data'!G163</f>
+        <v/>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
@@ -9990,6 +10643,10 @@
         <f>'Game Data'!F164/'Game Data'!G164</f>
         <v/>
       </c>
+      <c r="E164">
+        <f>'Game Data'!E164/'Game Data'!G164</f>
+        <v/>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
@@ -10008,6 +10665,10 @@
         <f>'Game Data'!F165/'Game Data'!G165</f>
         <v/>
       </c>
+      <c r="E165">
+        <f>'Game Data'!E165/'Game Data'!G165</f>
+        <v/>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
@@ -10026,6 +10687,10 @@
         <f>'Game Data'!F166/'Game Data'!G166</f>
         <v/>
       </c>
+      <c r="E166">
+        <f>'Game Data'!E166/'Game Data'!G166</f>
+        <v/>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
@@ -10044,6 +10709,10 @@
         <f>'Game Data'!F167/'Game Data'!G167</f>
         <v/>
       </c>
+      <c r="E167">
+        <f>'Game Data'!E167/'Game Data'!G167</f>
+        <v/>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
@@ -10062,6 +10731,10 @@
         <f>'Game Data'!F168/'Game Data'!G168</f>
         <v/>
       </c>
+      <c r="E168">
+        <f>'Game Data'!E168/'Game Data'!G168</f>
+        <v/>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
@@ -10080,6 +10753,10 @@
         <f>'Game Data'!F169/'Game Data'!G169</f>
         <v/>
       </c>
+      <c r="E169">
+        <f>'Game Data'!E169/'Game Data'!G169</f>
+        <v/>
+      </c>
     </row>
     <row r="170">
       <c r="A170">
@@ -10098,6 +10775,10 @@
         <f>'Game Data'!F170/'Game Data'!G170</f>
         <v/>
       </c>
+      <c r="E170">
+        <f>'Game Data'!E170/'Game Data'!G170</f>
+        <v/>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -10116,6 +10797,10 @@
         <f>'Game Data'!F171/'Game Data'!G171</f>
         <v/>
       </c>
+      <c r="E171">
+        <f>'Game Data'!E171/'Game Data'!G171</f>
+        <v/>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -10134,6 +10819,10 @@
         <f>'Game Data'!F172/'Game Data'!G172</f>
         <v/>
       </c>
+      <c r="E172">
+        <f>'Game Data'!E172/'Game Data'!G172</f>
+        <v/>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -10152,6 +10841,10 @@
         <f>'Game Data'!F173/'Game Data'!G173</f>
         <v/>
       </c>
+      <c r="E173">
+        <f>'Game Data'!E173/'Game Data'!G173</f>
+        <v/>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -10170,6 +10863,10 @@
         <f>'Game Data'!F174/'Game Data'!G174</f>
         <v/>
       </c>
+      <c r="E174">
+        <f>'Game Data'!E174/'Game Data'!G174</f>
+        <v/>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -10188,6 +10885,10 @@
         <f>'Game Data'!F175/'Game Data'!G175</f>
         <v/>
       </c>
+      <c r="E175">
+        <f>'Game Data'!E175/'Game Data'!G175</f>
+        <v/>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -10206,6 +10907,10 @@
         <f>'Game Data'!F176/'Game Data'!G176</f>
         <v/>
       </c>
+      <c r="E176">
+        <f>'Game Data'!E176/'Game Data'!G176</f>
+        <v/>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -10224,6 +10929,10 @@
         <f>'Game Data'!F177/'Game Data'!G177</f>
         <v/>
       </c>
+      <c r="E177">
+        <f>'Game Data'!E177/'Game Data'!G177</f>
+        <v/>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
@@ -10242,6 +10951,10 @@
         <f>'Game Data'!F178/'Game Data'!G178</f>
         <v/>
       </c>
+      <c r="E178">
+        <f>'Game Data'!E178/'Game Data'!G178</f>
+        <v/>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
@@ -10260,6 +10973,10 @@
         <f>'Game Data'!F179/'Game Data'!G179</f>
         <v/>
       </c>
+      <c r="E179">
+        <f>'Game Data'!E179/'Game Data'!G179</f>
+        <v/>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
@@ -10278,6 +10995,10 @@
         <f>'Game Data'!F180/'Game Data'!G180</f>
         <v/>
       </c>
+      <c r="E180">
+        <f>'Game Data'!E180/'Game Data'!G180</f>
+        <v/>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
@@ -10296,6 +11017,10 @@
         <f>'Game Data'!F181/'Game Data'!G181</f>
         <v/>
       </c>
+      <c r="E181">
+        <f>'Game Data'!E181/'Game Data'!G181</f>
+        <v/>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
@@ -10314,6 +11039,10 @@
         <f>'Game Data'!F182/'Game Data'!G182</f>
         <v/>
       </c>
+      <c r="E182">
+        <f>'Game Data'!E182/'Game Data'!G182</f>
+        <v/>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
@@ -10332,6 +11061,10 @@
         <f>'Game Data'!F183/'Game Data'!G183</f>
         <v/>
       </c>
+      <c r="E183">
+        <f>'Game Data'!E183/'Game Data'!G183</f>
+        <v/>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
@@ -10350,6 +11083,10 @@
         <f>'Game Data'!F184/'Game Data'!G184</f>
         <v/>
       </c>
+      <c r="E184">
+        <f>'Game Data'!E184/'Game Data'!G184</f>
+        <v/>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
@@ -10368,6 +11105,10 @@
         <f>'Game Data'!F185/'Game Data'!G185</f>
         <v/>
       </c>
+      <c r="E185">
+        <f>'Game Data'!E185/'Game Data'!G185</f>
+        <v/>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
@@ -10386,6 +11127,10 @@
         <f>'Game Data'!F186/'Game Data'!G186</f>
         <v/>
       </c>
+      <c r="E186">
+        <f>'Game Data'!E186/'Game Data'!G186</f>
+        <v/>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
@@ -10404,6 +11149,10 @@
         <f>'Game Data'!F187/'Game Data'!G187</f>
         <v/>
       </c>
+      <c r="E187">
+        <f>'Game Data'!E187/'Game Data'!G187</f>
+        <v/>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
@@ -10422,6 +11171,10 @@
         <f>'Game Data'!F188/'Game Data'!G188</f>
         <v/>
       </c>
+      <c r="E188">
+        <f>'Game Data'!E188/'Game Data'!G188</f>
+        <v/>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
@@ -10440,6 +11193,10 @@
         <f>'Game Data'!F189/'Game Data'!G189</f>
         <v/>
       </c>
+      <c r="E189">
+        <f>'Game Data'!E189/'Game Data'!G189</f>
+        <v/>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
@@ -10458,6 +11215,10 @@
         <f>'Game Data'!F190/'Game Data'!G190</f>
         <v/>
       </c>
+      <c r="E190">
+        <f>'Game Data'!E190/'Game Data'!G190</f>
+        <v/>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
@@ -10476,6 +11237,10 @@
         <f>'Game Data'!F191/'Game Data'!G191</f>
         <v/>
       </c>
+      <c r="E191">
+        <f>'Game Data'!E191/'Game Data'!G191</f>
+        <v/>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
@@ -10494,6 +11259,10 @@
         <f>'Game Data'!F192/'Game Data'!G192</f>
         <v/>
       </c>
+      <c r="E192">
+        <f>'Game Data'!E192/'Game Data'!G192</f>
+        <v/>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
@@ -10512,6 +11281,10 @@
         <f>'Game Data'!F193/'Game Data'!G193</f>
         <v/>
       </c>
+      <c r="E193">
+        <f>'Game Data'!E193/'Game Data'!G193</f>
+        <v/>
+      </c>
     </row>
     <row r="194">
       <c r="A194">
@@ -10530,6 +11303,10 @@
         <f>'Game Data'!F194/'Game Data'!G194</f>
         <v/>
       </c>
+      <c r="E194">
+        <f>'Game Data'!E194/'Game Data'!G194</f>
+        <v/>
+      </c>
     </row>
     <row r="195">
       <c r="A195">
@@ -10548,6 +11325,10 @@
         <f>'Game Data'!F195/'Game Data'!G195</f>
         <v/>
       </c>
+      <c r="E195">
+        <f>'Game Data'!E195/'Game Data'!G195</f>
+        <v/>
+      </c>
     </row>
     <row r="196">
       <c r="A196">
@@ -10566,6 +11347,10 @@
         <f>'Game Data'!F196/'Game Data'!G196</f>
         <v/>
       </c>
+      <c r="E196">
+        <f>'Game Data'!E196/'Game Data'!G196</f>
+        <v/>
+      </c>
     </row>
     <row r="197">
       <c r="A197">
@@ -10584,6 +11369,10 @@
         <f>'Game Data'!F197/'Game Data'!G197</f>
         <v/>
       </c>
+      <c r="E197">
+        <f>'Game Data'!E197/'Game Data'!G197</f>
+        <v/>
+      </c>
     </row>
     <row r="198">
       <c r="A198">
@@ -10602,6 +11391,10 @@
         <f>'Game Data'!F198/'Game Data'!G198</f>
         <v/>
       </c>
+      <c r="E198">
+        <f>'Game Data'!E198/'Game Data'!G198</f>
+        <v/>
+      </c>
     </row>
     <row r="199">
       <c r="A199">
@@ -10620,6 +11413,10 @@
         <f>'Game Data'!F199/'Game Data'!G199</f>
         <v/>
       </c>
+      <c r="E199">
+        <f>'Game Data'!E199/'Game Data'!G199</f>
+        <v/>
+      </c>
     </row>
     <row r="200">
       <c r="A200">
@@ -10638,6 +11435,10 @@
         <f>'Game Data'!F200/'Game Data'!G200</f>
         <v/>
       </c>
+      <c r="E200">
+        <f>'Game Data'!E200/'Game Data'!G200</f>
+        <v/>
+      </c>
     </row>
     <row r="201">
       <c r="A201">
@@ -10656,6 +11457,10 @@
         <f>'Game Data'!F201/'Game Data'!G201</f>
         <v/>
       </c>
+      <c r="E201">
+        <f>'Game Data'!E201/'Game Data'!G201</f>
+        <v/>
+      </c>
     </row>
     <row r="202">
       <c r="A202">
@@ -10674,6 +11479,10 @@
         <f>'Game Data'!F202/'Game Data'!G202</f>
         <v/>
       </c>
+      <c r="E202">
+        <f>'Game Data'!E202/'Game Data'!G202</f>
+        <v/>
+      </c>
     </row>
     <row r="203">
       <c r="A203">
@@ -10692,6 +11501,10 @@
         <f>'Game Data'!F203/'Game Data'!G203</f>
         <v/>
       </c>
+      <c r="E203">
+        <f>'Game Data'!E203/'Game Data'!G203</f>
+        <v/>
+      </c>
     </row>
     <row r="204">
       <c r="A204">
@@ -10710,6 +11523,10 @@
         <f>'Game Data'!F204/'Game Data'!G204</f>
         <v/>
       </c>
+      <c r="E204">
+        <f>'Game Data'!E204/'Game Data'!G204</f>
+        <v/>
+      </c>
     </row>
     <row r="205">
       <c r="A205">
@@ -10728,6 +11545,10 @@
         <f>'Game Data'!F205/'Game Data'!G205</f>
         <v/>
       </c>
+      <c r="E205">
+        <f>'Game Data'!E205/'Game Data'!G205</f>
+        <v/>
+      </c>
     </row>
     <row r="206">
       <c r="A206">
@@ -10746,6 +11567,10 @@
         <f>'Game Data'!F206/'Game Data'!G206</f>
         <v/>
       </c>
+      <c r="E206">
+        <f>'Game Data'!E206/'Game Data'!G206</f>
+        <v/>
+      </c>
     </row>
     <row r="207">
       <c r="A207">
@@ -10764,6 +11589,10 @@
         <f>'Game Data'!F207/'Game Data'!G207</f>
         <v/>
       </c>
+      <c r="E207">
+        <f>'Game Data'!E207/'Game Data'!G207</f>
+        <v/>
+      </c>
     </row>
     <row r="208">
       <c r="A208">
@@ -10782,6 +11611,10 @@
         <f>'Game Data'!F208/'Game Data'!G208</f>
         <v/>
       </c>
+      <c r="E208">
+        <f>'Game Data'!E208/'Game Data'!G208</f>
+        <v/>
+      </c>
     </row>
     <row r="209">
       <c r="A209">
@@ -10800,6 +11633,10 @@
         <f>'Game Data'!F209/'Game Data'!G209</f>
         <v/>
       </c>
+      <c r="E209">
+        <f>'Game Data'!E209/'Game Data'!G209</f>
+        <v/>
+      </c>
     </row>
     <row r="210">
       <c r="A210">
@@ -10818,6 +11655,10 @@
         <f>'Game Data'!F210/'Game Data'!G210</f>
         <v/>
       </c>
+      <c r="E210">
+        <f>'Game Data'!E210/'Game Data'!G210</f>
+        <v/>
+      </c>
     </row>
     <row r="211">
       <c r="A211">
@@ -10836,6 +11677,10 @@
         <f>'Game Data'!F211/'Game Data'!G211</f>
         <v/>
       </c>
+      <c r="E211">
+        <f>'Game Data'!E211/'Game Data'!G211</f>
+        <v/>
+      </c>
     </row>
     <row r="212">
       <c r="A212">
@@ -10854,6 +11699,10 @@
         <f>'Game Data'!F212/'Game Data'!G212</f>
         <v/>
       </c>
+      <c r="E212">
+        <f>'Game Data'!E212/'Game Data'!G212</f>
+        <v/>
+      </c>
     </row>
     <row r="213">
       <c r="A213">
@@ -10872,6 +11721,10 @@
         <f>'Game Data'!F213/'Game Data'!G213</f>
         <v/>
       </c>
+      <c r="E213">
+        <f>'Game Data'!E213/'Game Data'!G213</f>
+        <v/>
+      </c>
     </row>
     <row r="214">
       <c r="A214">
@@ -10890,6 +11743,10 @@
         <f>'Game Data'!F214/'Game Data'!G214</f>
         <v/>
       </c>
+      <c r="E214">
+        <f>'Game Data'!E214/'Game Data'!G214</f>
+        <v/>
+      </c>
     </row>
     <row r="215">
       <c r="A215">
@@ -10908,6 +11765,10 @@
         <f>'Game Data'!F215/'Game Data'!G215</f>
         <v/>
       </c>
+      <c r="E215">
+        <f>'Game Data'!E215/'Game Data'!G215</f>
+        <v/>
+      </c>
     </row>
     <row r="216">
       <c r="A216">
@@ -10926,6 +11787,10 @@
         <f>'Game Data'!F216/'Game Data'!G216</f>
         <v/>
       </c>
+      <c r="E216">
+        <f>'Game Data'!E216/'Game Data'!G216</f>
+        <v/>
+      </c>
     </row>
     <row r="217">
       <c r="A217">
@@ -10944,6 +11809,10 @@
         <f>'Game Data'!F217/'Game Data'!G217</f>
         <v/>
       </c>
+      <c r="E217">
+        <f>'Game Data'!E217/'Game Data'!G217</f>
+        <v/>
+      </c>
     </row>
     <row r="218">
       <c r="A218">
@@ -10962,6 +11831,10 @@
         <f>'Game Data'!F218/'Game Data'!G218</f>
         <v/>
       </c>
+      <c r="E218">
+        <f>'Game Data'!E218/'Game Data'!G218</f>
+        <v/>
+      </c>
     </row>
     <row r="219">
       <c r="A219">
@@ -10980,6 +11853,10 @@
         <f>'Game Data'!F219/'Game Data'!G219</f>
         <v/>
       </c>
+      <c r="E219">
+        <f>'Game Data'!E219/'Game Data'!G219</f>
+        <v/>
+      </c>
     </row>
     <row r="220">
       <c r="A220">
@@ -10998,6 +11875,10 @@
         <f>'Game Data'!F220/'Game Data'!G220</f>
         <v/>
       </c>
+      <c r="E220">
+        <f>'Game Data'!E220/'Game Data'!G220</f>
+        <v/>
+      </c>
     </row>
     <row r="221">
       <c r="A221">
@@ -11016,6 +11897,10 @@
         <f>'Game Data'!F221/'Game Data'!G221</f>
         <v/>
       </c>
+      <c r="E221">
+        <f>'Game Data'!E221/'Game Data'!G221</f>
+        <v/>
+      </c>
     </row>
     <row r="222">
       <c r="A222">
@@ -11034,6 +11919,10 @@
         <f>'Game Data'!F222/'Game Data'!G222</f>
         <v/>
       </c>
+      <c r="E222">
+        <f>'Game Data'!E222/'Game Data'!G222</f>
+        <v/>
+      </c>
     </row>
     <row r="223">
       <c r="A223">
@@ -11052,6 +11941,10 @@
         <f>'Game Data'!F223/'Game Data'!G223</f>
         <v/>
       </c>
+      <c r="E223">
+        <f>'Game Data'!E223/'Game Data'!G223</f>
+        <v/>
+      </c>
     </row>
     <row r="224">
       <c r="A224">
@@ -11070,6 +11963,10 @@
         <f>'Game Data'!F224/'Game Data'!G224</f>
         <v/>
       </c>
+      <c r="E224">
+        <f>'Game Data'!E224/'Game Data'!G224</f>
+        <v/>
+      </c>
     </row>
     <row r="225">
       <c r="A225">
@@ -11088,6 +11985,10 @@
         <f>'Game Data'!F225/'Game Data'!G225</f>
         <v/>
       </c>
+      <c r="E225">
+        <f>'Game Data'!E225/'Game Data'!G225</f>
+        <v/>
+      </c>
     </row>
     <row r="226">
       <c r="A226">
@@ -11106,6 +12007,10 @@
         <f>'Game Data'!F226/'Game Data'!G226</f>
         <v/>
       </c>
+      <c r="E226">
+        <f>'Game Data'!E226/'Game Data'!G226</f>
+        <v/>
+      </c>
     </row>
     <row r="227">
       <c r="A227">
@@ -11124,6 +12029,10 @@
         <f>'Game Data'!F227/'Game Data'!G227</f>
         <v/>
       </c>
+      <c r="E227">
+        <f>'Game Data'!E227/'Game Data'!G227</f>
+        <v/>
+      </c>
     </row>
     <row r="228">
       <c r="A228">
@@ -11142,6 +12051,10 @@
         <f>'Game Data'!F228/'Game Data'!G228</f>
         <v/>
       </c>
+      <c r="E228">
+        <f>'Game Data'!E228/'Game Data'!G228</f>
+        <v/>
+      </c>
     </row>
     <row r="229">
       <c r="A229">
@@ -11160,6 +12073,10 @@
         <f>'Game Data'!F229/'Game Data'!G229</f>
         <v/>
       </c>
+      <c r="E229">
+        <f>'Game Data'!E229/'Game Data'!G229</f>
+        <v/>
+      </c>
     </row>
     <row r="230">
       <c r="A230">
@@ -11178,6 +12095,10 @@
         <f>'Game Data'!F230/'Game Data'!G230</f>
         <v/>
       </c>
+      <c r="E230">
+        <f>'Game Data'!E230/'Game Data'!G230</f>
+        <v/>
+      </c>
     </row>
     <row r="231">
       <c r="A231">
@@ -11196,6 +12117,10 @@
         <f>'Game Data'!F231/'Game Data'!G231</f>
         <v/>
       </c>
+      <c r="E231">
+        <f>'Game Data'!E231/'Game Data'!G231</f>
+        <v/>
+      </c>
     </row>
     <row r="232">
       <c r="A232">
@@ -11214,6 +12139,10 @@
         <f>'Game Data'!F232/'Game Data'!G232</f>
         <v/>
       </c>
+      <c r="E232">
+        <f>'Game Data'!E232/'Game Data'!G232</f>
+        <v/>
+      </c>
     </row>
     <row r="233">
       <c r="A233">
@@ -11232,6 +12161,10 @@
         <f>'Game Data'!F233/'Game Data'!G233</f>
         <v/>
       </c>
+      <c r="E233">
+        <f>'Game Data'!E233/'Game Data'!G233</f>
+        <v/>
+      </c>
     </row>
     <row r="234">
       <c r="A234">
@@ -11250,6 +12183,10 @@
         <f>'Game Data'!F234/'Game Data'!G234</f>
         <v/>
       </c>
+      <c r="E234">
+        <f>'Game Data'!E234/'Game Data'!G234</f>
+        <v/>
+      </c>
     </row>
     <row r="235">
       <c r="A235">
@@ -11268,6 +12205,10 @@
         <f>'Game Data'!F235/'Game Data'!G235</f>
         <v/>
       </c>
+      <c r="E235">
+        <f>'Game Data'!E235/'Game Data'!G235</f>
+        <v/>
+      </c>
     </row>
     <row r="236">
       <c r="A236">
@@ -11286,6 +12227,10 @@
         <f>'Game Data'!F236/'Game Data'!G236</f>
         <v/>
       </c>
+      <c r="E236">
+        <f>'Game Data'!E236/'Game Data'!G236</f>
+        <v/>
+      </c>
     </row>
     <row r="237">
       <c r="A237">
@@ -11304,6 +12249,10 @@
         <f>'Game Data'!F237/'Game Data'!G237</f>
         <v/>
       </c>
+      <c r="E237">
+        <f>'Game Data'!E237/'Game Data'!G237</f>
+        <v/>
+      </c>
     </row>
     <row r="238">
       <c r="A238">
@@ -11322,6 +12271,10 @@
         <f>'Game Data'!F238/'Game Data'!G238</f>
         <v/>
       </c>
+      <c r="E238">
+        <f>'Game Data'!E238/'Game Data'!G238</f>
+        <v/>
+      </c>
     </row>
     <row r="239">
       <c r="A239">
@@ -11340,6 +12293,10 @@
         <f>'Game Data'!F239/'Game Data'!G239</f>
         <v/>
       </c>
+      <c r="E239">
+        <f>'Game Data'!E239/'Game Data'!G239</f>
+        <v/>
+      </c>
     </row>
     <row r="240">
       <c r="A240">
@@ -11358,6 +12315,10 @@
         <f>'Game Data'!F240/'Game Data'!G240</f>
         <v/>
       </c>
+      <c r="E240">
+        <f>'Game Data'!E240/'Game Data'!G240</f>
+        <v/>
+      </c>
     </row>
     <row r="241">
       <c r="A241">
@@ -11376,6 +12337,10 @@
         <f>'Game Data'!F241/'Game Data'!G241</f>
         <v/>
       </c>
+      <c r="E241">
+        <f>'Game Data'!E241/'Game Data'!G241</f>
+        <v/>
+      </c>
     </row>
     <row r="242">
       <c r="A242">
@@ -11394,6 +12359,10 @@
         <f>'Game Data'!F242/'Game Data'!G242</f>
         <v/>
       </c>
+      <c r="E242">
+        <f>'Game Data'!E242/'Game Data'!G242</f>
+        <v/>
+      </c>
     </row>
     <row r="243">
       <c r="A243">
@@ -11412,6 +12381,10 @@
         <f>'Game Data'!F243/'Game Data'!G243</f>
         <v/>
       </c>
+      <c r="E243">
+        <f>'Game Data'!E243/'Game Data'!G243</f>
+        <v/>
+      </c>
     </row>
     <row r="244">
       <c r="A244">
@@ -11430,6 +12403,10 @@
         <f>'Game Data'!F244/'Game Data'!G244</f>
         <v/>
       </c>
+      <c r="E244">
+        <f>'Game Data'!E244/'Game Data'!G244</f>
+        <v/>
+      </c>
     </row>
     <row r="245">
       <c r="A245">
@@ -11448,6 +12425,10 @@
         <f>'Game Data'!F245/'Game Data'!G245</f>
         <v/>
       </c>
+      <c r="E245">
+        <f>'Game Data'!E245/'Game Data'!G245</f>
+        <v/>
+      </c>
     </row>
     <row r="246">
       <c r="A246">
@@ -11466,6 +12447,10 @@
         <f>'Game Data'!F246/'Game Data'!G246</f>
         <v/>
       </c>
+      <c r="E246">
+        <f>'Game Data'!E246/'Game Data'!G246</f>
+        <v/>
+      </c>
     </row>
     <row r="247">
       <c r="A247">
@@ -11484,6 +12469,10 @@
         <f>'Game Data'!F247/'Game Data'!G247</f>
         <v/>
       </c>
+      <c r="E247">
+        <f>'Game Data'!E247/'Game Data'!G247</f>
+        <v/>
+      </c>
     </row>
     <row r="248">
       <c r="A248">
@@ -11502,6 +12491,10 @@
         <f>'Game Data'!F248/'Game Data'!G248</f>
         <v/>
       </c>
+      <c r="E248">
+        <f>'Game Data'!E248/'Game Data'!G248</f>
+        <v/>
+      </c>
     </row>
     <row r="249">
       <c r="A249">
@@ -11520,6 +12513,10 @@
         <f>'Game Data'!F249/'Game Data'!G249</f>
         <v/>
       </c>
+      <c r="E249">
+        <f>'Game Data'!E249/'Game Data'!G249</f>
+        <v/>
+      </c>
     </row>
     <row r="250">
       <c r="A250">
@@ -11538,6 +12535,10 @@
         <f>'Game Data'!F250/'Game Data'!G250</f>
         <v/>
       </c>
+      <c r="E250">
+        <f>'Game Data'!E250/'Game Data'!G250</f>
+        <v/>
+      </c>
     </row>
     <row r="251">
       <c r="A251">
@@ -11556,6 +12557,10 @@
         <f>'Game Data'!F251/'Game Data'!G251</f>
         <v/>
       </c>
+      <c r="E251">
+        <f>'Game Data'!E251/'Game Data'!G251</f>
+        <v/>
+      </c>
     </row>
     <row r="252">
       <c r="A252">
@@ -11572,6 +12577,10 @@
       </c>
       <c r="D252">
         <f>'Game Data'!F252/'Game Data'!G252</f>
+        <v/>
+      </c>
+      <c r="E252">
+        <f>'Game Data'!E252/'Game Data'!G252</f>
         <v/>
       </c>
     </row>

--- a/Achievement_Hunting/achievement_hunting.xlsx
+++ b/Achievement_Hunting/achievement_hunting.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Game Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Game" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meta Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -7064,5523 +7064,5523 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>'Game Data'!A2</f>
+        <f>'Game'!A2</f>
         <v/>
       </c>
       <c r="B2">
-        <f>'Game Data'!B2/'Game Data'!C2</f>
+        <f>'Game'!B2/'Game'!C2</f>
         <v/>
       </c>
       <c r="C2">
-        <f>'Game Data'!D2/'Game Data'!E2</f>
+        <f>'Game'!D2/'Game'!E2</f>
         <v/>
       </c>
       <c r="D2">
-        <f>'Game Data'!F2/'Game Data'!G2</f>
+        <f>'Game'!F2/'Game'!G2</f>
         <v/>
       </c>
       <c r="E2">
-        <f>'Game Data'!E2/'Game Data'!G2</f>
+        <f>'Game'!E2/'Game'!G2</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <f>'Game Data'!A3</f>
+        <f>'Game'!A3</f>
         <v/>
       </c>
       <c r="B3">
-        <f>'Game Data'!B3/'Game Data'!C3</f>
+        <f>'Game'!B3/'Game'!C3</f>
         <v/>
       </c>
       <c r="C3">
-        <f>'Game Data'!D3/'Game Data'!E3</f>
+        <f>'Game'!D3/'Game'!E3</f>
         <v/>
       </c>
       <c r="D3">
-        <f>'Game Data'!F3/'Game Data'!G3</f>
+        <f>'Game'!F3/'Game'!G3</f>
         <v/>
       </c>
       <c r="E3">
-        <f>'Game Data'!E3/'Game Data'!G3</f>
+        <f>'Game'!E3/'Game'!G3</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <f>'Game Data'!A4</f>
+        <f>'Game'!A4</f>
         <v/>
       </c>
       <c r="B4">
-        <f>'Game Data'!B4/'Game Data'!C4</f>
+        <f>'Game'!B4/'Game'!C4</f>
         <v/>
       </c>
       <c r="C4">
-        <f>'Game Data'!D4/'Game Data'!E4</f>
+        <f>'Game'!D4/'Game'!E4</f>
         <v/>
       </c>
       <c r="D4">
-        <f>'Game Data'!F4/'Game Data'!G4</f>
+        <f>'Game'!F4/'Game'!G4</f>
         <v/>
       </c>
       <c r="E4">
-        <f>'Game Data'!E4/'Game Data'!G4</f>
+        <f>'Game'!E4/'Game'!G4</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <f>'Game Data'!A5</f>
+        <f>'Game'!A5</f>
         <v/>
       </c>
       <c r="B5">
-        <f>'Game Data'!B5/'Game Data'!C5</f>
+        <f>'Game'!B5/'Game'!C5</f>
         <v/>
       </c>
       <c r="C5">
-        <f>'Game Data'!D5/'Game Data'!E5</f>
+        <f>'Game'!D5/'Game'!E5</f>
         <v/>
       </c>
       <c r="D5">
-        <f>'Game Data'!F5/'Game Data'!G5</f>
+        <f>'Game'!F5/'Game'!G5</f>
         <v/>
       </c>
       <c r="E5">
-        <f>'Game Data'!E5/'Game Data'!G5</f>
+        <f>'Game'!E5/'Game'!G5</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <f>'Game Data'!A6</f>
+        <f>'Game'!A6</f>
         <v/>
       </c>
       <c r="B6">
-        <f>'Game Data'!B6/'Game Data'!C6</f>
+        <f>'Game'!B6/'Game'!C6</f>
         <v/>
       </c>
       <c r="C6">
-        <f>'Game Data'!D6/'Game Data'!E6</f>
+        <f>'Game'!D6/'Game'!E6</f>
         <v/>
       </c>
       <c r="D6">
-        <f>'Game Data'!F6/'Game Data'!G6</f>
+        <f>'Game'!F6/'Game'!G6</f>
         <v/>
       </c>
       <c r="E6">
-        <f>'Game Data'!E6/'Game Data'!G6</f>
+        <f>'Game'!E6/'Game'!G6</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <f>'Game Data'!A7</f>
+        <f>'Game'!A7</f>
         <v/>
       </c>
       <c r="B7">
-        <f>'Game Data'!B7/'Game Data'!C7</f>
+        <f>'Game'!B7/'Game'!C7</f>
         <v/>
       </c>
       <c r="C7">
-        <f>'Game Data'!D7/'Game Data'!E7</f>
+        <f>'Game'!D7/'Game'!E7</f>
         <v/>
       </c>
       <c r="D7">
-        <f>'Game Data'!F7/'Game Data'!G7</f>
+        <f>'Game'!F7/'Game'!G7</f>
         <v/>
       </c>
       <c r="E7">
-        <f>'Game Data'!E7/'Game Data'!G7</f>
+        <f>'Game'!E7/'Game'!G7</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <f>'Game Data'!A8</f>
+        <f>'Game'!A8</f>
         <v/>
       </c>
       <c r="B8">
-        <f>'Game Data'!B8/'Game Data'!C8</f>
+        <f>'Game'!B8/'Game'!C8</f>
         <v/>
       </c>
       <c r="C8">
-        <f>'Game Data'!D8/'Game Data'!E8</f>
+        <f>'Game'!D8/'Game'!E8</f>
         <v/>
       </c>
       <c r="D8">
-        <f>'Game Data'!F8/'Game Data'!G8</f>
+        <f>'Game'!F8/'Game'!G8</f>
         <v/>
       </c>
       <c r="E8">
-        <f>'Game Data'!E8/'Game Data'!G8</f>
+        <f>'Game'!E8/'Game'!G8</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <f>'Game Data'!A9</f>
+        <f>'Game'!A9</f>
         <v/>
       </c>
       <c r="B9">
-        <f>'Game Data'!B9/'Game Data'!C9</f>
+        <f>'Game'!B9/'Game'!C9</f>
         <v/>
       </c>
       <c r="C9">
-        <f>'Game Data'!D9/'Game Data'!E9</f>
+        <f>'Game'!D9/'Game'!E9</f>
         <v/>
       </c>
       <c r="D9">
-        <f>'Game Data'!F9/'Game Data'!G9</f>
+        <f>'Game'!F9/'Game'!G9</f>
         <v/>
       </c>
       <c r="E9">
-        <f>'Game Data'!E9/'Game Data'!G9</f>
+        <f>'Game'!E9/'Game'!G9</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <f>'Game Data'!A10</f>
+        <f>'Game'!A10</f>
         <v/>
       </c>
       <c r="B10">
-        <f>'Game Data'!B10/'Game Data'!C10</f>
+        <f>'Game'!B10/'Game'!C10</f>
         <v/>
       </c>
       <c r="C10">
-        <f>'Game Data'!D10/'Game Data'!E10</f>
+        <f>'Game'!D10/'Game'!E10</f>
         <v/>
       </c>
       <c r="D10">
-        <f>'Game Data'!F10/'Game Data'!G10</f>
+        <f>'Game'!F10/'Game'!G10</f>
         <v/>
       </c>
       <c r="E10">
-        <f>'Game Data'!E10/'Game Data'!G10</f>
+        <f>'Game'!E10/'Game'!G10</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <f>'Game Data'!A11</f>
+        <f>'Game'!A11</f>
         <v/>
       </c>
       <c r="B11">
-        <f>'Game Data'!B11/'Game Data'!C11</f>
+        <f>'Game'!B11/'Game'!C11</f>
         <v/>
       </c>
       <c r="C11">
-        <f>'Game Data'!D11/'Game Data'!E11</f>
+        <f>'Game'!D11/'Game'!E11</f>
         <v/>
       </c>
       <c r="D11">
-        <f>'Game Data'!F11/'Game Data'!G11</f>
+        <f>'Game'!F11/'Game'!G11</f>
         <v/>
       </c>
       <c r="E11">
-        <f>'Game Data'!E11/'Game Data'!G11</f>
+        <f>'Game'!E11/'Game'!G11</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <f>'Game Data'!A12</f>
+        <f>'Game'!A12</f>
         <v/>
       </c>
       <c r="B12">
-        <f>'Game Data'!B12/'Game Data'!C12</f>
+        <f>'Game'!B12/'Game'!C12</f>
         <v/>
       </c>
       <c r="C12">
-        <f>'Game Data'!D12/'Game Data'!E12</f>
+        <f>'Game'!D12/'Game'!E12</f>
         <v/>
       </c>
       <c r="D12">
-        <f>'Game Data'!F12/'Game Data'!G12</f>
+        <f>'Game'!F12/'Game'!G12</f>
         <v/>
       </c>
       <c r="E12">
-        <f>'Game Data'!E12/'Game Data'!G12</f>
+        <f>'Game'!E12/'Game'!G12</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <f>'Game Data'!A13</f>
+        <f>'Game'!A13</f>
         <v/>
       </c>
       <c r="B13">
-        <f>'Game Data'!B13/'Game Data'!C13</f>
+        <f>'Game'!B13/'Game'!C13</f>
         <v/>
       </c>
       <c r="C13">
-        <f>'Game Data'!D13/'Game Data'!E13</f>
+        <f>'Game'!D13/'Game'!E13</f>
         <v/>
       </c>
       <c r="D13">
-        <f>'Game Data'!F13/'Game Data'!G13</f>
+        <f>'Game'!F13/'Game'!G13</f>
         <v/>
       </c>
       <c r="E13">
-        <f>'Game Data'!E13/'Game Data'!G13</f>
+        <f>'Game'!E13/'Game'!G13</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <f>'Game Data'!A14</f>
+        <f>'Game'!A14</f>
         <v/>
       </c>
       <c r="B14">
-        <f>'Game Data'!B14/'Game Data'!C14</f>
+        <f>'Game'!B14/'Game'!C14</f>
         <v/>
       </c>
       <c r="C14">
-        <f>'Game Data'!D14/'Game Data'!E14</f>
+        <f>'Game'!D14/'Game'!E14</f>
         <v/>
       </c>
       <c r="D14">
-        <f>'Game Data'!F14/'Game Data'!G14</f>
+        <f>'Game'!F14/'Game'!G14</f>
         <v/>
       </c>
       <c r="E14">
-        <f>'Game Data'!E14/'Game Data'!G14</f>
+        <f>'Game'!E14/'Game'!G14</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <f>'Game Data'!A15</f>
+        <f>'Game'!A15</f>
         <v/>
       </c>
       <c r="B15">
-        <f>'Game Data'!B15/'Game Data'!C15</f>
+        <f>'Game'!B15/'Game'!C15</f>
         <v/>
       </c>
       <c r="C15">
-        <f>'Game Data'!D15/'Game Data'!E15</f>
+        <f>'Game'!D15/'Game'!E15</f>
         <v/>
       </c>
       <c r="D15">
-        <f>'Game Data'!F15/'Game Data'!G15</f>
+        <f>'Game'!F15/'Game'!G15</f>
         <v/>
       </c>
       <c r="E15">
-        <f>'Game Data'!E15/'Game Data'!G15</f>
+        <f>'Game'!E15/'Game'!G15</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <f>'Game Data'!A16</f>
+        <f>'Game'!A16</f>
         <v/>
       </c>
       <c r="B16">
-        <f>'Game Data'!B16/'Game Data'!C16</f>
+        <f>'Game'!B16/'Game'!C16</f>
         <v/>
       </c>
       <c r="C16">
-        <f>'Game Data'!D16/'Game Data'!E16</f>
+        <f>'Game'!D16/'Game'!E16</f>
         <v/>
       </c>
       <c r="D16">
-        <f>'Game Data'!F16/'Game Data'!G16</f>
+        <f>'Game'!F16/'Game'!G16</f>
         <v/>
       </c>
       <c r="E16">
-        <f>'Game Data'!E16/'Game Data'!G16</f>
+        <f>'Game'!E16/'Game'!G16</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <f>'Game Data'!A17</f>
+        <f>'Game'!A17</f>
         <v/>
       </c>
       <c r="B17">
-        <f>'Game Data'!B17/'Game Data'!C17</f>
+        <f>'Game'!B17/'Game'!C17</f>
         <v/>
       </c>
       <c r="C17">
-        <f>'Game Data'!D17/'Game Data'!E17</f>
+        <f>'Game'!D17/'Game'!E17</f>
         <v/>
       </c>
       <c r="D17">
-        <f>'Game Data'!F17/'Game Data'!G17</f>
+        <f>'Game'!F17/'Game'!G17</f>
         <v/>
       </c>
       <c r="E17">
-        <f>'Game Data'!E17/'Game Data'!G17</f>
+        <f>'Game'!E17/'Game'!G17</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <f>'Game Data'!A18</f>
+        <f>'Game'!A18</f>
         <v/>
       </c>
       <c r="B18">
-        <f>'Game Data'!B18/'Game Data'!C18</f>
+        <f>'Game'!B18/'Game'!C18</f>
         <v/>
       </c>
       <c r="C18">
-        <f>'Game Data'!D18/'Game Data'!E18</f>
+        <f>'Game'!D18/'Game'!E18</f>
         <v/>
       </c>
       <c r="D18">
-        <f>'Game Data'!F18/'Game Data'!G18</f>
+        <f>'Game'!F18/'Game'!G18</f>
         <v/>
       </c>
       <c r="E18">
-        <f>'Game Data'!E18/'Game Data'!G18</f>
+        <f>'Game'!E18/'Game'!G18</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <f>'Game Data'!A19</f>
+        <f>'Game'!A19</f>
         <v/>
       </c>
       <c r="B19">
-        <f>'Game Data'!B19/'Game Data'!C19</f>
+        <f>'Game'!B19/'Game'!C19</f>
         <v/>
       </c>
       <c r="C19">
-        <f>'Game Data'!D19/'Game Data'!E19</f>
+        <f>'Game'!D19/'Game'!E19</f>
         <v/>
       </c>
       <c r="D19">
-        <f>'Game Data'!F19/'Game Data'!G19</f>
+        <f>'Game'!F19/'Game'!G19</f>
         <v/>
       </c>
       <c r="E19">
-        <f>'Game Data'!E19/'Game Data'!G19</f>
+        <f>'Game'!E19/'Game'!G19</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <f>'Game Data'!A20</f>
+        <f>'Game'!A20</f>
         <v/>
       </c>
       <c r="B20">
-        <f>'Game Data'!B20/'Game Data'!C20</f>
+        <f>'Game'!B20/'Game'!C20</f>
         <v/>
       </c>
       <c r="C20">
-        <f>'Game Data'!D20/'Game Data'!E20</f>
+        <f>'Game'!D20/'Game'!E20</f>
         <v/>
       </c>
       <c r="D20">
-        <f>'Game Data'!F20/'Game Data'!G20</f>
+        <f>'Game'!F20/'Game'!G20</f>
         <v/>
       </c>
       <c r="E20">
-        <f>'Game Data'!E20/'Game Data'!G20</f>
+        <f>'Game'!E20/'Game'!G20</f>
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <f>'Game Data'!A21</f>
+        <f>'Game'!A21</f>
         <v/>
       </c>
       <c r="B21">
-        <f>'Game Data'!B21/'Game Data'!C21</f>
+        <f>'Game'!B21/'Game'!C21</f>
         <v/>
       </c>
       <c r="C21">
-        <f>'Game Data'!D21/'Game Data'!E21</f>
+        <f>'Game'!D21/'Game'!E21</f>
         <v/>
       </c>
       <c r="D21">
-        <f>'Game Data'!F21/'Game Data'!G21</f>
+        <f>'Game'!F21/'Game'!G21</f>
         <v/>
       </c>
       <c r="E21">
-        <f>'Game Data'!E21/'Game Data'!G21</f>
+        <f>'Game'!E21/'Game'!G21</f>
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <f>'Game Data'!A22</f>
+        <f>'Game'!A22</f>
         <v/>
       </c>
       <c r="B22">
-        <f>'Game Data'!B22/'Game Data'!C22</f>
+        <f>'Game'!B22/'Game'!C22</f>
         <v/>
       </c>
       <c r="C22">
-        <f>'Game Data'!D22/'Game Data'!E22</f>
+        <f>'Game'!D22/'Game'!E22</f>
         <v/>
       </c>
       <c r="D22">
-        <f>'Game Data'!F22/'Game Data'!G22</f>
+        <f>'Game'!F22/'Game'!G22</f>
         <v/>
       </c>
       <c r="E22">
-        <f>'Game Data'!E22/'Game Data'!G22</f>
+        <f>'Game'!E22/'Game'!G22</f>
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <f>'Game Data'!A23</f>
+        <f>'Game'!A23</f>
         <v/>
       </c>
       <c r="B23">
-        <f>'Game Data'!B23/'Game Data'!C23</f>
+        <f>'Game'!B23/'Game'!C23</f>
         <v/>
       </c>
       <c r="C23">
-        <f>'Game Data'!D23/'Game Data'!E23</f>
+        <f>'Game'!D23/'Game'!E23</f>
         <v/>
       </c>
       <c r="D23">
-        <f>'Game Data'!F23/'Game Data'!G23</f>
+        <f>'Game'!F23/'Game'!G23</f>
         <v/>
       </c>
       <c r="E23">
-        <f>'Game Data'!E23/'Game Data'!G23</f>
+        <f>'Game'!E23/'Game'!G23</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <f>'Game Data'!A24</f>
+        <f>'Game'!A24</f>
         <v/>
       </c>
       <c r="B24">
-        <f>'Game Data'!B24/'Game Data'!C24</f>
+        <f>'Game'!B24/'Game'!C24</f>
         <v/>
       </c>
       <c r="C24">
-        <f>'Game Data'!D24/'Game Data'!E24</f>
+        <f>'Game'!D24/'Game'!E24</f>
         <v/>
       </c>
       <c r="D24">
-        <f>'Game Data'!F24/'Game Data'!G24</f>
+        <f>'Game'!F24/'Game'!G24</f>
         <v/>
       </c>
       <c r="E24">
-        <f>'Game Data'!E24/'Game Data'!G24</f>
+        <f>'Game'!E24/'Game'!G24</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <f>'Game Data'!A25</f>
+        <f>'Game'!A25</f>
         <v/>
       </c>
       <c r="B25">
-        <f>'Game Data'!B25/'Game Data'!C25</f>
+        <f>'Game'!B25/'Game'!C25</f>
         <v/>
       </c>
       <c r="C25">
-        <f>'Game Data'!D25/'Game Data'!E25</f>
+        <f>'Game'!D25/'Game'!E25</f>
         <v/>
       </c>
       <c r="D25">
-        <f>'Game Data'!F25/'Game Data'!G25</f>
+        <f>'Game'!F25/'Game'!G25</f>
         <v/>
       </c>
       <c r="E25">
-        <f>'Game Data'!E25/'Game Data'!G25</f>
+        <f>'Game'!E25/'Game'!G25</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <f>'Game Data'!A26</f>
+        <f>'Game'!A26</f>
         <v/>
       </c>
       <c r="B26">
-        <f>'Game Data'!B26/'Game Data'!C26</f>
+        <f>'Game'!B26/'Game'!C26</f>
         <v/>
       </c>
       <c r="C26">
-        <f>'Game Data'!D26/'Game Data'!E26</f>
+        <f>'Game'!D26/'Game'!E26</f>
         <v/>
       </c>
       <c r="D26">
-        <f>'Game Data'!F26/'Game Data'!G26</f>
+        <f>'Game'!F26/'Game'!G26</f>
         <v/>
       </c>
       <c r="E26">
-        <f>'Game Data'!E26/'Game Data'!G26</f>
+        <f>'Game'!E26/'Game'!G26</f>
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <f>'Game Data'!A27</f>
+        <f>'Game'!A27</f>
         <v/>
       </c>
       <c r="B27">
-        <f>'Game Data'!B27/'Game Data'!C27</f>
+        <f>'Game'!B27/'Game'!C27</f>
         <v/>
       </c>
       <c r="C27">
-        <f>'Game Data'!D27/'Game Data'!E27</f>
+        <f>'Game'!D27/'Game'!E27</f>
         <v/>
       </c>
       <c r="D27">
-        <f>'Game Data'!F27/'Game Data'!G27</f>
+        <f>'Game'!F27/'Game'!G27</f>
         <v/>
       </c>
       <c r="E27">
-        <f>'Game Data'!E27/'Game Data'!G27</f>
+        <f>'Game'!E27/'Game'!G27</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <f>'Game Data'!A28</f>
+        <f>'Game'!A28</f>
         <v/>
       </c>
       <c r="B28">
-        <f>'Game Data'!B28/'Game Data'!C28</f>
+        <f>'Game'!B28/'Game'!C28</f>
         <v/>
       </c>
       <c r="C28">
-        <f>'Game Data'!D28/'Game Data'!E28</f>
+        <f>'Game'!D28/'Game'!E28</f>
         <v/>
       </c>
       <c r="D28">
-        <f>'Game Data'!F28/'Game Data'!G28</f>
+        <f>'Game'!F28/'Game'!G28</f>
         <v/>
       </c>
       <c r="E28">
-        <f>'Game Data'!E28/'Game Data'!G28</f>
+        <f>'Game'!E28/'Game'!G28</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <f>'Game Data'!A29</f>
+        <f>'Game'!A29</f>
         <v/>
       </c>
       <c r="B29">
-        <f>'Game Data'!B29/'Game Data'!C29</f>
+        <f>'Game'!B29/'Game'!C29</f>
         <v/>
       </c>
       <c r="C29">
-        <f>'Game Data'!D29/'Game Data'!E29</f>
+        <f>'Game'!D29/'Game'!E29</f>
         <v/>
       </c>
       <c r="D29">
-        <f>'Game Data'!F29/'Game Data'!G29</f>
+        <f>'Game'!F29/'Game'!G29</f>
         <v/>
       </c>
       <c r="E29">
-        <f>'Game Data'!E29/'Game Data'!G29</f>
+        <f>'Game'!E29/'Game'!G29</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <f>'Game Data'!A30</f>
+        <f>'Game'!A30</f>
         <v/>
       </c>
       <c r="B30">
-        <f>'Game Data'!B30/'Game Data'!C30</f>
+        <f>'Game'!B30/'Game'!C30</f>
         <v/>
       </c>
       <c r="C30">
-        <f>'Game Data'!D30/'Game Data'!E30</f>
+        <f>'Game'!D30/'Game'!E30</f>
         <v/>
       </c>
       <c r="D30">
-        <f>'Game Data'!F30/'Game Data'!G30</f>
+        <f>'Game'!F30/'Game'!G30</f>
         <v/>
       </c>
       <c r="E30">
-        <f>'Game Data'!E30/'Game Data'!G30</f>
+        <f>'Game'!E30/'Game'!G30</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <f>'Game Data'!A31</f>
+        <f>'Game'!A31</f>
         <v/>
       </c>
       <c r="B31">
-        <f>'Game Data'!B31/'Game Data'!C31</f>
+        <f>'Game'!B31/'Game'!C31</f>
         <v/>
       </c>
       <c r="C31">
-        <f>'Game Data'!D31/'Game Data'!E31</f>
+        <f>'Game'!D31/'Game'!E31</f>
         <v/>
       </c>
       <c r="D31">
-        <f>'Game Data'!F31/'Game Data'!G31</f>
+        <f>'Game'!F31/'Game'!G31</f>
         <v/>
       </c>
       <c r="E31">
-        <f>'Game Data'!E31/'Game Data'!G31</f>
+        <f>'Game'!E31/'Game'!G31</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <f>'Game Data'!A32</f>
+        <f>'Game'!A32</f>
         <v/>
       </c>
       <c r="B32">
-        <f>'Game Data'!B32/'Game Data'!C32</f>
+        <f>'Game'!B32/'Game'!C32</f>
         <v/>
       </c>
       <c r="C32">
-        <f>'Game Data'!D32/'Game Data'!E32</f>
+        <f>'Game'!D32/'Game'!E32</f>
         <v/>
       </c>
       <c r="D32">
-        <f>'Game Data'!F32/'Game Data'!G32</f>
+        <f>'Game'!F32/'Game'!G32</f>
         <v/>
       </c>
       <c r="E32">
-        <f>'Game Data'!E32/'Game Data'!G32</f>
+        <f>'Game'!E32/'Game'!G32</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <f>'Game Data'!A33</f>
+        <f>'Game'!A33</f>
         <v/>
       </c>
       <c r="B33">
-        <f>'Game Data'!B33/'Game Data'!C33</f>
+        <f>'Game'!B33/'Game'!C33</f>
         <v/>
       </c>
       <c r="C33">
-        <f>'Game Data'!D33/'Game Data'!E33</f>
+        <f>'Game'!D33/'Game'!E33</f>
         <v/>
       </c>
       <c r="D33">
-        <f>'Game Data'!F33/'Game Data'!G33</f>
+        <f>'Game'!F33/'Game'!G33</f>
         <v/>
       </c>
       <c r="E33">
-        <f>'Game Data'!E33/'Game Data'!G33</f>
+        <f>'Game'!E33/'Game'!G33</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <f>'Game Data'!A34</f>
+        <f>'Game'!A34</f>
         <v/>
       </c>
       <c r="B34">
-        <f>'Game Data'!B34/'Game Data'!C34</f>
+        <f>'Game'!B34/'Game'!C34</f>
         <v/>
       </c>
       <c r="C34">
-        <f>'Game Data'!D34/'Game Data'!E34</f>
+        <f>'Game'!D34/'Game'!E34</f>
         <v/>
       </c>
       <c r="D34">
-        <f>'Game Data'!F34/'Game Data'!G34</f>
+        <f>'Game'!F34/'Game'!G34</f>
         <v/>
       </c>
       <c r="E34">
-        <f>'Game Data'!E34/'Game Data'!G34</f>
+        <f>'Game'!E34/'Game'!G34</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <f>'Game Data'!A35</f>
+        <f>'Game'!A35</f>
         <v/>
       </c>
       <c r="B35">
-        <f>'Game Data'!B35/'Game Data'!C35</f>
+        <f>'Game'!B35/'Game'!C35</f>
         <v/>
       </c>
       <c r="C35">
-        <f>'Game Data'!D35/'Game Data'!E35</f>
+        <f>'Game'!D35/'Game'!E35</f>
         <v/>
       </c>
       <c r="D35">
-        <f>'Game Data'!F35/'Game Data'!G35</f>
+        <f>'Game'!F35/'Game'!G35</f>
         <v/>
       </c>
       <c r="E35">
-        <f>'Game Data'!E35/'Game Data'!G35</f>
+        <f>'Game'!E35/'Game'!G35</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <f>'Game Data'!A36</f>
+        <f>'Game'!A36</f>
         <v/>
       </c>
       <c r="B36">
-        <f>'Game Data'!B36/'Game Data'!C36</f>
+        <f>'Game'!B36/'Game'!C36</f>
         <v/>
       </c>
       <c r="C36">
-        <f>'Game Data'!D36/'Game Data'!E36</f>
+        <f>'Game'!D36/'Game'!E36</f>
         <v/>
       </c>
       <c r="D36">
-        <f>'Game Data'!F36/'Game Data'!G36</f>
+        <f>'Game'!F36/'Game'!G36</f>
         <v/>
       </c>
       <c r="E36">
-        <f>'Game Data'!E36/'Game Data'!G36</f>
+        <f>'Game'!E36/'Game'!G36</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <f>'Game Data'!A37</f>
+        <f>'Game'!A37</f>
         <v/>
       </c>
       <c r="B37">
-        <f>'Game Data'!B37/'Game Data'!C37</f>
+        <f>'Game'!B37/'Game'!C37</f>
         <v/>
       </c>
       <c r="C37">
-        <f>'Game Data'!D37/'Game Data'!E37</f>
+        <f>'Game'!D37/'Game'!E37</f>
         <v/>
       </c>
       <c r="D37">
-        <f>'Game Data'!F37/'Game Data'!G37</f>
+        <f>'Game'!F37/'Game'!G37</f>
         <v/>
       </c>
       <c r="E37">
-        <f>'Game Data'!E37/'Game Data'!G37</f>
+        <f>'Game'!E37/'Game'!G37</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <f>'Game Data'!A38</f>
+        <f>'Game'!A38</f>
         <v/>
       </c>
       <c r="B38">
-        <f>'Game Data'!B38/'Game Data'!C38</f>
+        <f>'Game'!B38/'Game'!C38</f>
         <v/>
       </c>
       <c r="C38">
-        <f>'Game Data'!D38/'Game Data'!E38</f>
+        <f>'Game'!D38/'Game'!E38</f>
         <v/>
       </c>
       <c r="D38">
-        <f>'Game Data'!F38/'Game Data'!G38</f>
+        <f>'Game'!F38/'Game'!G38</f>
         <v/>
       </c>
       <c r="E38">
-        <f>'Game Data'!E38/'Game Data'!G38</f>
+        <f>'Game'!E38/'Game'!G38</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <f>'Game Data'!A39</f>
+        <f>'Game'!A39</f>
         <v/>
       </c>
       <c r="B39">
-        <f>'Game Data'!B39/'Game Data'!C39</f>
+        <f>'Game'!B39/'Game'!C39</f>
         <v/>
       </c>
       <c r="C39">
-        <f>'Game Data'!D39/'Game Data'!E39</f>
+        <f>'Game'!D39/'Game'!E39</f>
         <v/>
       </c>
       <c r="D39">
-        <f>'Game Data'!F39/'Game Data'!G39</f>
+        <f>'Game'!F39/'Game'!G39</f>
         <v/>
       </c>
       <c r="E39">
-        <f>'Game Data'!E39/'Game Data'!G39</f>
+        <f>'Game'!E39/'Game'!G39</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <f>'Game Data'!A40</f>
+        <f>'Game'!A40</f>
         <v/>
       </c>
       <c r="B40">
-        <f>'Game Data'!B40/'Game Data'!C40</f>
+        <f>'Game'!B40/'Game'!C40</f>
         <v/>
       </c>
       <c r="C40">
-        <f>'Game Data'!D40/'Game Data'!E40</f>
+        <f>'Game'!D40/'Game'!E40</f>
         <v/>
       </c>
       <c r="D40">
-        <f>'Game Data'!F40/'Game Data'!G40</f>
+        <f>'Game'!F40/'Game'!G40</f>
         <v/>
       </c>
       <c r="E40">
-        <f>'Game Data'!E40/'Game Data'!G40</f>
+        <f>'Game'!E40/'Game'!G40</f>
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <f>'Game Data'!A41</f>
+        <f>'Game'!A41</f>
         <v/>
       </c>
       <c r="B41">
-        <f>'Game Data'!B41/'Game Data'!C41</f>
+        <f>'Game'!B41/'Game'!C41</f>
         <v/>
       </c>
       <c r="C41">
-        <f>'Game Data'!D41/'Game Data'!E41</f>
+        <f>'Game'!D41/'Game'!E41</f>
         <v/>
       </c>
       <c r="D41">
-        <f>'Game Data'!F41/'Game Data'!G41</f>
+        <f>'Game'!F41/'Game'!G41</f>
         <v/>
       </c>
       <c r="E41">
-        <f>'Game Data'!E41/'Game Data'!G41</f>
+        <f>'Game'!E41/'Game'!G41</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <f>'Game Data'!A42</f>
+        <f>'Game'!A42</f>
         <v/>
       </c>
       <c r="B42">
-        <f>'Game Data'!B42/'Game Data'!C42</f>
+        <f>'Game'!B42/'Game'!C42</f>
         <v/>
       </c>
       <c r="C42">
-        <f>'Game Data'!D42/'Game Data'!E42</f>
+        <f>'Game'!D42/'Game'!E42</f>
         <v/>
       </c>
       <c r="D42">
-        <f>'Game Data'!F42/'Game Data'!G42</f>
+        <f>'Game'!F42/'Game'!G42</f>
         <v/>
       </c>
       <c r="E42">
-        <f>'Game Data'!E42/'Game Data'!G42</f>
+        <f>'Game'!E42/'Game'!G42</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <f>'Game Data'!A43</f>
+        <f>'Game'!A43</f>
         <v/>
       </c>
       <c r="B43">
-        <f>'Game Data'!B43/'Game Data'!C43</f>
+        <f>'Game'!B43/'Game'!C43</f>
         <v/>
       </c>
       <c r="C43">
-        <f>'Game Data'!D43/'Game Data'!E43</f>
+        <f>'Game'!D43/'Game'!E43</f>
         <v/>
       </c>
       <c r="D43">
-        <f>'Game Data'!F43/'Game Data'!G43</f>
+        <f>'Game'!F43/'Game'!G43</f>
         <v/>
       </c>
       <c r="E43">
-        <f>'Game Data'!E43/'Game Data'!G43</f>
+        <f>'Game'!E43/'Game'!G43</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <f>'Game Data'!A44</f>
+        <f>'Game'!A44</f>
         <v/>
       </c>
       <c r="B44">
-        <f>'Game Data'!B44/'Game Data'!C44</f>
+        <f>'Game'!B44/'Game'!C44</f>
         <v/>
       </c>
       <c r="C44">
-        <f>'Game Data'!D44/'Game Data'!E44</f>
+        <f>'Game'!D44/'Game'!E44</f>
         <v/>
       </c>
       <c r="D44">
-        <f>'Game Data'!F44/'Game Data'!G44</f>
+        <f>'Game'!F44/'Game'!G44</f>
         <v/>
       </c>
       <c r="E44">
-        <f>'Game Data'!E44/'Game Data'!G44</f>
+        <f>'Game'!E44/'Game'!G44</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <f>'Game Data'!A45</f>
+        <f>'Game'!A45</f>
         <v/>
       </c>
       <c r="B45">
-        <f>'Game Data'!B45/'Game Data'!C45</f>
+        <f>'Game'!B45/'Game'!C45</f>
         <v/>
       </c>
       <c r="C45">
-        <f>'Game Data'!D45/'Game Data'!E45</f>
+        <f>'Game'!D45/'Game'!E45</f>
         <v/>
       </c>
       <c r="D45">
-        <f>'Game Data'!F45/'Game Data'!G45</f>
+        <f>'Game'!F45/'Game'!G45</f>
         <v/>
       </c>
       <c r="E45">
-        <f>'Game Data'!E45/'Game Data'!G45</f>
+        <f>'Game'!E45/'Game'!G45</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <f>'Game Data'!A46</f>
+        <f>'Game'!A46</f>
         <v/>
       </c>
       <c r="B46">
-        <f>'Game Data'!B46/'Game Data'!C46</f>
+        <f>'Game'!B46/'Game'!C46</f>
         <v/>
       </c>
       <c r="C46">
-        <f>'Game Data'!D46/'Game Data'!E46</f>
+        <f>'Game'!D46/'Game'!E46</f>
         <v/>
       </c>
       <c r="D46">
-        <f>'Game Data'!F46/'Game Data'!G46</f>
+        <f>'Game'!F46/'Game'!G46</f>
         <v/>
       </c>
       <c r="E46">
-        <f>'Game Data'!E46/'Game Data'!G46</f>
+        <f>'Game'!E46/'Game'!G46</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <f>'Game Data'!A47</f>
+        <f>'Game'!A47</f>
         <v/>
       </c>
       <c r="B47">
-        <f>'Game Data'!B47/'Game Data'!C47</f>
+        <f>'Game'!B47/'Game'!C47</f>
         <v/>
       </c>
       <c r="C47">
-        <f>'Game Data'!D47/'Game Data'!E47</f>
+        <f>'Game'!D47/'Game'!E47</f>
         <v/>
       </c>
       <c r="D47">
-        <f>'Game Data'!F47/'Game Data'!G47</f>
+        <f>'Game'!F47/'Game'!G47</f>
         <v/>
       </c>
       <c r="E47">
-        <f>'Game Data'!E47/'Game Data'!G47</f>
+        <f>'Game'!E47/'Game'!G47</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <f>'Game Data'!A48</f>
+        <f>'Game'!A48</f>
         <v/>
       </c>
       <c r="B48">
-        <f>'Game Data'!B48/'Game Data'!C48</f>
+        <f>'Game'!B48/'Game'!C48</f>
         <v/>
       </c>
       <c r="C48">
-        <f>'Game Data'!D48/'Game Data'!E48</f>
+        <f>'Game'!D48/'Game'!E48</f>
         <v/>
       </c>
       <c r="D48">
-        <f>'Game Data'!F48/'Game Data'!G48</f>
+        <f>'Game'!F48/'Game'!G48</f>
         <v/>
       </c>
       <c r="E48">
-        <f>'Game Data'!E48/'Game Data'!G48</f>
+        <f>'Game'!E48/'Game'!G48</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <f>'Game Data'!A49</f>
+        <f>'Game'!A49</f>
         <v/>
       </c>
       <c r="B49">
-        <f>'Game Data'!B49/'Game Data'!C49</f>
+        <f>'Game'!B49/'Game'!C49</f>
         <v/>
       </c>
       <c r="C49">
-        <f>'Game Data'!D49/'Game Data'!E49</f>
+        <f>'Game'!D49/'Game'!E49</f>
         <v/>
       </c>
       <c r="D49">
-        <f>'Game Data'!F49/'Game Data'!G49</f>
+        <f>'Game'!F49/'Game'!G49</f>
         <v/>
       </c>
       <c r="E49">
-        <f>'Game Data'!E49/'Game Data'!G49</f>
+        <f>'Game'!E49/'Game'!G49</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <f>'Game Data'!A50</f>
+        <f>'Game'!A50</f>
         <v/>
       </c>
       <c r="B50">
-        <f>'Game Data'!B50/'Game Data'!C50</f>
+        <f>'Game'!B50/'Game'!C50</f>
         <v/>
       </c>
       <c r="C50">
-        <f>'Game Data'!D50/'Game Data'!E50</f>
+        <f>'Game'!D50/'Game'!E50</f>
         <v/>
       </c>
       <c r="D50">
-        <f>'Game Data'!F50/'Game Data'!G50</f>
+        <f>'Game'!F50/'Game'!G50</f>
         <v/>
       </c>
       <c r="E50">
-        <f>'Game Data'!E50/'Game Data'!G50</f>
+        <f>'Game'!E50/'Game'!G50</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <f>'Game Data'!A51</f>
+        <f>'Game'!A51</f>
         <v/>
       </c>
       <c r="B51">
-        <f>'Game Data'!B51/'Game Data'!C51</f>
+        <f>'Game'!B51/'Game'!C51</f>
         <v/>
       </c>
       <c r="C51">
-        <f>'Game Data'!D51/'Game Data'!E51</f>
+        <f>'Game'!D51/'Game'!E51</f>
         <v/>
       </c>
       <c r="D51">
-        <f>'Game Data'!F51/'Game Data'!G51</f>
+        <f>'Game'!F51/'Game'!G51</f>
         <v/>
       </c>
       <c r="E51">
-        <f>'Game Data'!E51/'Game Data'!G51</f>
+        <f>'Game'!E51/'Game'!G51</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <f>'Game Data'!A52</f>
+        <f>'Game'!A52</f>
         <v/>
       </c>
       <c r="B52">
-        <f>'Game Data'!B52/'Game Data'!C52</f>
+        <f>'Game'!B52/'Game'!C52</f>
         <v/>
       </c>
       <c r="C52">
-        <f>'Game Data'!D52/'Game Data'!E52</f>
+        <f>'Game'!D52/'Game'!E52</f>
         <v/>
       </c>
       <c r="D52">
-        <f>'Game Data'!F52/'Game Data'!G52</f>
+        <f>'Game'!F52/'Game'!G52</f>
         <v/>
       </c>
       <c r="E52">
-        <f>'Game Data'!E52/'Game Data'!G52</f>
+        <f>'Game'!E52/'Game'!G52</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <f>'Game Data'!A53</f>
+        <f>'Game'!A53</f>
         <v/>
       </c>
       <c r="B53">
-        <f>'Game Data'!B53/'Game Data'!C53</f>
+        <f>'Game'!B53/'Game'!C53</f>
         <v/>
       </c>
       <c r="C53">
-        <f>'Game Data'!D53/'Game Data'!E53</f>
+        <f>'Game'!D53/'Game'!E53</f>
         <v/>
       </c>
       <c r="D53">
-        <f>'Game Data'!F53/'Game Data'!G53</f>
+        <f>'Game'!F53/'Game'!G53</f>
         <v/>
       </c>
       <c r="E53">
-        <f>'Game Data'!E53/'Game Data'!G53</f>
+        <f>'Game'!E53/'Game'!G53</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <f>'Game Data'!A54</f>
+        <f>'Game'!A54</f>
         <v/>
       </c>
       <c r="B54">
-        <f>'Game Data'!B54/'Game Data'!C54</f>
+        <f>'Game'!B54/'Game'!C54</f>
         <v/>
       </c>
       <c r="C54">
-        <f>'Game Data'!D54/'Game Data'!E54</f>
+        <f>'Game'!D54/'Game'!E54</f>
         <v/>
       </c>
       <c r="D54">
-        <f>'Game Data'!F54/'Game Data'!G54</f>
+        <f>'Game'!F54/'Game'!G54</f>
         <v/>
       </c>
       <c r="E54">
-        <f>'Game Data'!E54/'Game Data'!G54</f>
+        <f>'Game'!E54/'Game'!G54</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <f>'Game Data'!A55</f>
+        <f>'Game'!A55</f>
         <v/>
       </c>
       <c r="B55">
-        <f>'Game Data'!B55/'Game Data'!C55</f>
+        <f>'Game'!B55/'Game'!C55</f>
         <v/>
       </c>
       <c r="C55">
-        <f>'Game Data'!D55/'Game Data'!E55</f>
+        <f>'Game'!D55/'Game'!E55</f>
         <v/>
       </c>
       <c r="D55">
-        <f>'Game Data'!F55/'Game Data'!G55</f>
+        <f>'Game'!F55/'Game'!G55</f>
         <v/>
       </c>
       <c r="E55">
-        <f>'Game Data'!E55/'Game Data'!G55</f>
+        <f>'Game'!E55/'Game'!G55</f>
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <f>'Game Data'!A56</f>
+        <f>'Game'!A56</f>
         <v/>
       </c>
       <c r="B56">
-        <f>'Game Data'!B56/'Game Data'!C56</f>
+        <f>'Game'!B56/'Game'!C56</f>
         <v/>
       </c>
       <c r="C56">
-        <f>'Game Data'!D56/'Game Data'!E56</f>
+        <f>'Game'!D56/'Game'!E56</f>
         <v/>
       </c>
       <c r="D56">
-        <f>'Game Data'!F56/'Game Data'!G56</f>
+        <f>'Game'!F56/'Game'!G56</f>
         <v/>
       </c>
       <c r="E56">
-        <f>'Game Data'!E56/'Game Data'!G56</f>
+        <f>'Game'!E56/'Game'!G56</f>
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <f>'Game Data'!A57</f>
+        <f>'Game'!A57</f>
         <v/>
       </c>
       <c r="B57">
-        <f>'Game Data'!B57/'Game Data'!C57</f>
+        <f>'Game'!B57/'Game'!C57</f>
         <v/>
       </c>
       <c r="C57">
-        <f>'Game Data'!D57/'Game Data'!E57</f>
+        <f>'Game'!D57/'Game'!E57</f>
         <v/>
       </c>
       <c r="D57">
-        <f>'Game Data'!F57/'Game Data'!G57</f>
+        <f>'Game'!F57/'Game'!G57</f>
         <v/>
       </c>
       <c r="E57">
-        <f>'Game Data'!E57/'Game Data'!G57</f>
+        <f>'Game'!E57/'Game'!G57</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <f>'Game Data'!A58</f>
+        <f>'Game'!A58</f>
         <v/>
       </c>
       <c r="B58">
-        <f>'Game Data'!B58/'Game Data'!C58</f>
+        <f>'Game'!B58/'Game'!C58</f>
         <v/>
       </c>
       <c r="C58">
-        <f>'Game Data'!D58/'Game Data'!E58</f>
+        <f>'Game'!D58/'Game'!E58</f>
         <v/>
       </c>
       <c r="D58">
-        <f>'Game Data'!F58/'Game Data'!G58</f>
+        <f>'Game'!F58/'Game'!G58</f>
         <v/>
       </c>
       <c r="E58">
-        <f>'Game Data'!E58/'Game Data'!G58</f>
+        <f>'Game'!E58/'Game'!G58</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <f>'Game Data'!A59</f>
+        <f>'Game'!A59</f>
         <v/>
       </c>
       <c r="B59">
-        <f>'Game Data'!B59/'Game Data'!C59</f>
+        <f>'Game'!B59/'Game'!C59</f>
         <v/>
       </c>
       <c r="C59">
-        <f>'Game Data'!D59/'Game Data'!E59</f>
+        <f>'Game'!D59/'Game'!E59</f>
         <v/>
       </c>
       <c r="D59">
-        <f>'Game Data'!F59/'Game Data'!G59</f>
+        <f>'Game'!F59/'Game'!G59</f>
         <v/>
       </c>
       <c r="E59">
-        <f>'Game Data'!E59/'Game Data'!G59</f>
+        <f>'Game'!E59/'Game'!G59</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <f>'Game Data'!A60</f>
+        <f>'Game'!A60</f>
         <v/>
       </c>
       <c r="B60">
-        <f>'Game Data'!B60/'Game Data'!C60</f>
+        <f>'Game'!B60/'Game'!C60</f>
         <v/>
       </c>
       <c r="C60">
-        <f>'Game Data'!D60/'Game Data'!E60</f>
+        <f>'Game'!D60/'Game'!E60</f>
         <v/>
       </c>
       <c r="D60">
-        <f>'Game Data'!F60/'Game Data'!G60</f>
+        <f>'Game'!F60/'Game'!G60</f>
         <v/>
       </c>
       <c r="E60">
-        <f>'Game Data'!E60/'Game Data'!G60</f>
+        <f>'Game'!E60/'Game'!G60</f>
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <f>'Game Data'!A61</f>
+        <f>'Game'!A61</f>
         <v/>
       </c>
       <c r="B61">
-        <f>'Game Data'!B61/'Game Data'!C61</f>
+        <f>'Game'!B61/'Game'!C61</f>
         <v/>
       </c>
       <c r="C61">
-        <f>'Game Data'!D61/'Game Data'!E61</f>
+        <f>'Game'!D61/'Game'!E61</f>
         <v/>
       </c>
       <c r="D61">
-        <f>'Game Data'!F61/'Game Data'!G61</f>
+        <f>'Game'!F61/'Game'!G61</f>
         <v/>
       </c>
       <c r="E61">
-        <f>'Game Data'!E61/'Game Data'!G61</f>
+        <f>'Game'!E61/'Game'!G61</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <f>'Game Data'!A62</f>
+        <f>'Game'!A62</f>
         <v/>
       </c>
       <c r="B62">
-        <f>'Game Data'!B62/'Game Data'!C62</f>
+        <f>'Game'!B62/'Game'!C62</f>
         <v/>
       </c>
       <c r="C62">
-        <f>'Game Data'!D62/'Game Data'!E62</f>
+        <f>'Game'!D62/'Game'!E62</f>
         <v/>
       </c>
       <c r="D62">
-        <f>'Game Data'!F62/'Game Data'!G62</f>
+        <f>'Game'!F62/'Game'!G62</f>
         <v/>
       </c>
       <c r="E62">
-        <f>'Game Data'!E62/'Game Data'!G62</f>
+        <f>'Game'!E62/'Game'!G62</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <f>'Game Data'!A63</f>
+        <f>'Game'!A63</f>
         <v/>
       </c>
       <c r="B63">
-        <f>'Game Data'!B63/'Game Data'!C63</f>
+        <f>'Game'!B63/'Game'!C63</f>
         <v/>
       </c>
       <c r="C63">
-        <f>'Game Data'!D63/'Game Data'!E63</f>
+        <f>'Game'!D63/'Game'!E63</f>
         <v/>
       </c>
       <c r="D63">
-        <f>'Game Data'!F63/'Game Data'!G63</f>
+        <f>'Game'!F63/'Game'!G63</f>
         <v/>
       </c>
       <c r="E63">
-        <f>'Game Data'!E63/'Game Data'!G63</f>
+        <f>'Game'!E63/'Game'!G63</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <f>'Game Data'!A64</f>
+        <f>'Game'!A64</f>
         <v/>
       </c>
       <c r="B64">
-        <f>'Game Data'!B64/'Game Data'!C64</f>
+        <f>'Game'!B64/'Game'!C64</f>
         <v/>
       </c>
       <c r="C64">
-        <f>'Game Data'!D64/'Game Data'!E64</f>
+        <f>'Game'!D64/'Game'!E64</f>
         <v/>
       </c>
       <c r="D64">
-        <f>'Game Data'!F64/'Game Data'!G64</f>
+        <f>'Game'!F64/'Game'!G64</f>
         <v/>
       </c>
       <c r="E64">
-        <f>'Game Data'!E64/'Game Data'!G64</f>
+        <f>'Game'!E64/'Game'!G64</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <f>'Game Data'!A65</f>
+        <f>'Game'!A65</f>
         <v/>
       </c>
       <c r="B65">
-        <f>'Game Data'!B65/'Game Data'!C65</f>
+        <f>'Game'!B65/'Game'!C65</f>
         <v/>
       </c>
       <c r="C65">
-        <f>'Game Data'!D65/'Game Data'!E65</f>
+        <f>'Game'!D65/'Game'!E65</f>
         <v/>
       </c>
       <c r="D65">
-        <f>'Game Data'!F65/'Game Data'!G65</f>
+        <f>'Game'!F65/'Game'!G65</f>
         <v/>
       </c>
       <c r="E65">
-        <f>'Game Data'!E65/'Game Data'!G65</f>
+        <f>'Game'!E65/'Game'!G65</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <f>'Game Data'!A66</f>
+        <f>'Game'!A66</f>
         <v/>
       </c>
       <c r="B66">
-        <f>'Game Data'!B66/'Game Data'!C66</f>
+        <f>'Game'!B66/'Game'!C66</f>
         <v/>
       </c>
       <c r="C66">
-        <f>'Game Data'!D66/'Game Data'!E66</f>
+        <f>'Game'!D66/'Game'!E66</f>
         <v/>
       </c>
       <c r="D66">
-        <f>'Game Data'!F66/'Game Data'!G66</f>
+        <f>'Game'!F66/'Game'!G66</f>
         <v/>
       </c>
       <c r="E66">
-        <f>'Game Data'!E66/'Game Data'!G66</f>
+        <f>'Game'!E66/'Game'!G66</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <f>'Game Data'!A67</f>
+        <f>'Game'!A67</f>
         <v/>
       </c>
       <c r="B67">
-        <f>'Game Data'!B67/'Game Data'!C67</f>
+        <f>'Game'!B67/'Game'!C67</f>
         <v/>
       </c>
       <c r="C67">
-        <f>'Game Data'!D67/'Game Data'!E67</f>
+        <f>'Game'!D67/'Game'!E67</f>
         <v/>
       </c>
       <c r="D67">
-        <f>'Game Data'!F67/'Game Data'!G67</f>
+        <f>'Game'!F67/'Game'!G67</f>
         <v/>
       </c>
       <c r="E67">
-        <f>'Game Data'!E67/'Game Data'!G67</f>
+        <f>'Game'!E67/'Game'!G67</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <f>'Game Data'!A68</f>
+        <f>'Game'!A68</f>
         <v/>
       </c>
       <c r="B68">
-        <f>'Game Data'!B68/'Game Data'!C68</f>
+        <f>'Game'!B68/'Game'!C68</f>
         <v/>
       </c>
       <c r="C68">
-        <f>'Game Data'!D68/'Game Data'!E68</f>
+        <f>'Game'!D68/'Game'!E68</f>
         <v/>
       </c>
       <c r="D68">
-        <f>'Game Data'!F68/'Game Data'!G68</f>
+        <f>'Game'!F68/'Game'!G68</f>
         <v/>
       </c>
       <c r="E68">
-        <f>'Game Data'!E68/'Game Data'!G68</f>
+        <f>'Game'!E68/'Game'!G68</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <f>'Game Data'!A69</f>
+        <f>'Game'!A69</f>
         <v/>
       </c>
       <c r="B69">
-        <f>'Game Data'!B69/'Game Data'!C69</f>
+        <f>'Game'!B69/'Game'!C69</f>
         <v/>
       </c>
       <c r="C69">
-        <f>'Game Data'!D69/'Game Data'!E69</f>
+        <f>'Game'!D69/'Game'!E69</f>
         <v/>
       </c>
       <c r="D69">
-        <f>'Game Data'!F69/'Game Data'!G69</f>
+        <f>'Game'!F69/'Game'!G69</f>
         <v/>
       </c>
       <c r="E69">
-        <f>'Game Data'!E69/'Game Data'!G69</f>
+        <f>'Game'!E69/'Game'!G69</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <f>'Game Data'!A70</f>
+        <f>'Game'!A70</f>
         <v/>
       </c>
       <c r="B70">
-        <f>'Game Data'!B70/'Game Data'!C70</f>
+        <f>'Game'!B70/'Game'!C70</f>
         <v/>
       </c>
       <c r="C70">
-        <f>'Game Data'!D70/'Game Data'!E70</f>
+        <f>'Game'!D70/'Game'!E70</f>
         <v/>
       </c>
       <c r="D70">
-        <f>'Game Data'!F70/'Game Data'!G70</f>
+        <f>'Game'!F70/'Game'!G70</f>
         <v/>
       </c>
       <c r="E70">
-        <f>'Game Data'!E70/'Game Data'!G70</f>
+        <f>'Game'!E70/'Game'!G70</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <f>'Game Data'!A71</f>
+        <f>'Game'!A71</f>
         <v/>
       </c>
       <c r="B71">
-        <f>'Game Data'!B71/'Game Data'!C71</f>
+        <f>'Game'!B71/'Game'!C71</f>
         <v/>
       </c>
       <c r="C71">
-        <f>'Game Data'!D71/'Game Data'!E71</f>
+        <f>'Game'!D71/'Game'!E71</f>
         <v/>
       </c>
       <c r="D71">
-        <f>'Game Data'!F71/'Game Data'!G71</f>
+        <f>'Game'!F71/'Game'!G71</f>
         <v/>
       </c>
       <c r="E71">
-        <f>'Game Data'!E71/'Game Data'!G71</f>
+        <f>'Game'!E71/'Game'!G71</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <f>'Game Data'!A72</f>
+        <f>'Game'!A72</f>
         <v/>
       </c>
       <c r="B72">
-        <f>'Game Data'!B72/'Game Data'!C72</f>
+        <f>'Game'!B72/'Game'!C72</f>
         <v/>
       </c>
       <c r="C72">
-        <f>'Game Data'!D72/'Game Data'!E72</f>
+        <f>'Game'!D72/'Game'!E72</f>
         <v/>
       </c>
       <c r="D72">
-        <f>'Game Data'!F72/'Game Data'!G72</f>
+        <f>'Game'!F72/'Game'!G72</f>
         <v/>
       </c>
       <c r="E72">
-        <f>'Game Data'!E72/'Game Data'!G72</f>
+        <f>'Game'!E72/'Game'!G72</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <f>'Game Data'!A73</f>
+        <f>'Game'!A73</f>
         <v/>
       </c>
       <c r="B73">
-        <f>'Game Data'!B73/'Game Data'!C73</f>
+        <f>'Game'!B73/'Game'!C73</f>
         <v/>
       </c>
       <c r="C73">
-        <f>'Game Data'!D73/'Game Data'!E73</f>
+        <f>'Game'!D73/'Game'!E73</f>
         <v/>
       </c>
       <c r="D73">
-        <f>'Game Data'!F73/'Game Data'!G73</f>
+        <f>'Game'!F73/'Game'!G73</f>
         <v/>
       </c>
       <c r="E73">
-        <f>'Game Data'!E73/'Game Data'!G73</f>
+        <f>'Game'!E73/'Game'!G73</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <f>'Game Data'!A74</f>
+        <f>'Game'!A74</f>
         <v/>
       </c>
       <c r="B74">
-        <f>'Game Data'!B74/'Game Data'!C74</f>
+        <f>'Game'!B74/'Game'!C74</f>
         <v/>
       </c>
       <c r="C74">
-        <f>'Game Data'!D74/'Game Data'!E74</f>
+        <f>'Game'!D74/'Game'!E74</f>
         <v/>
       </c>
       <c r="D74">
-        <f>'Game Data'!F74/'Game Data'!G74</f>
+        <f>'Game'!F74/'Game'!G74</f>
         <v/>
       </c>
       <c r="E74">
-        <f>'Game Data'!E74/'Game Data'!G74</f>
+        <f>'Game'!E74/'Game'!G74</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <f>'Game Data'!A75</f>
+        <f>'Game'!A75</f>
         <v/>
       </c>
       <c r="B75">
-        <f>'Game Data'!B75/'Game Data'!C75</f>
+        <f>'Game'!B75/'Game'!C75</f>
         <v/>
       </c>
       <c r="C75">
-        <f>'Game Data'!D75/'Game Data'!E75</f>
+        <f>'Game'!D75/'Game'!E75</f>
         <v/>
       </c>
       <c r="D75">
-        <f>'Game Data'!F75/'Game Data'!G75</f>
+        <f>'Game'!F75/'Game'!G75</f>
         <v/>
       </c>
       <c r="E75">
-        <f>'Game Data'!E75/'Game Data'!G75</f>
+        <f>'Game'!E75/'Game'!G75</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <f>'Game Data'!A76</f>
+        <f>'Game'!A76</f>
         <v/>
       </c>
       <c r="B76">
-        <f>'Game Data'!B76/'Game Data'!C76</f>
+        <f>'Game'!B76/'Game'!C76</f>
         <v/>
       </c>
       <c r="C76">
-        <f>'Game Data'!D76/'Game Data'!E76</f>
+        <f>'Game'!D76/'Game'!E76</f>
         <v/>
       </c>
       <c r="D76">
-        <f>'Game Data'!F76/'Game Data'!G76</f>
+        <f>'Game'!F76/'Game'!G76</f>
         <v/>
       </c>
       <c r="E76">
-        <f>'Game Data'!E76/'Game Data'!G76</f>
+        <f>'Game'!E76/'Game'!G76</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <f>'Game Data'!A77</f>
+        <f>'Game'!A77</f>
         <v/>
       </c>
       <c r="B77">
-        <f>'Game Data'!B77/'Game Data'!C77</f>
+        <f>'Game'!B77/'Game'!C77</f>
         <v/>
       </c>
       <c r="C77">
-        <f>'Game Data'!D77/'Game Data'!E77</f>
+        <f>'Game'!D77/'Game'!E77</f>
         <v/>
       </c>
       <c r="D77">
-        <f>'Game Data'!F77/'Game Data'!G77</f>
+        <f>'Game'!F77/'Game'!G77</f>
         <v/>
       </c>
       <c r="E77">
-        <f>'Game Data'!E77/'Game Data'!G77</f>
+        <f>'Game'!E77/'Game'!G77</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <f>'Game Data'!A78</f>
+        <f>'Game'!A78</f>
         <v/>
       </c>
       <c r="B78">
-        <f>'Game Data'!B78/'Game Data'!C78</f>
+        <f>'Game'!B78/'Game'!C78</f>
         <v/>
       </c>
       <c r="C78">
-        <f>'Game Data'!D78/'Game Data'!E78</f>
+        <f>'Game'!D78/'Game'!E78</f>
         <v/>
       </c>
       <c r="D78">
-        <f>'Game Data'!F78/'Game Data'!G78</f>
+        <f>'Game'!F78/'Game'!G78</f>
         <v/>
       </c>
       <c r="E78">
-        <f>'Game Data'!E78/'Game Data'!G78</f>
+        <f>'Game'!E78/'Game'!G78</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <f>'Game Data'!A79</f>
+        <f>'Game'!A79</f>
         <v/>
       </c>
       <c r="B79">
-        <f>'Game Data'!B79/'Game Data'!C79</f>
+        <f>'Game'!B79/'Game'!C79</f>
         <v/>
       </c>
       <c r="C79">
-        <f>'Game Data'!D79/'Game Data'!E79</f>
+        <f>'Game'!D79/'Game'!E79</f>
         <v/>
       </c>
       <c r="D79">
-        <f>'Game Data'!F79/'Game Data'!G79</f>
+        <f>'Game'!F79/'Game'!G79</f>
         <v/>
       </c>
       <c r="E79">
-        <f>'Game Data'!E79/'Game Data'!G79</f>
+        <f>'Game'!E79/'Game'!G79</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <f>'Game Data'!A80</f>
+        <f>'Game'!A80</f>
         <v/>
       </c>
       <c r="B80">
-        <f>'Game Data'!B80/'Game Data'!C80</f>
+        <f>'Game'!B80/'Game'!C80</f>
         <v/>
       </c>
       <c r="C80">
-        <f>'Game Data'!D80/'Game Data'!E80</f>
+        <f>'Game'!D80/'Game'!E80</f>
         <v/>
       </c>
       <c r="D80">
-        <f>'Game Data'!F80/'Game Data'!G80</f>
+        <f>'Game'!F80/'Game'!G80</f>
         <v/>
       </c>
       <c r="E80">
-        <f>'Game Data'!E80/'Game Data'!G80</f>
+        <f>'Game'!E80/'Game'!G80</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <f>'Game Data'!A81</f>
+        <f>'Game'!A81</f>
         <v/>
       </c>
       <c r="B81">
-        <f>'Game Data'!B81/'Game Data'!C81</f>
+        <f>'Game'!B81/'Game'!C81</f>
         <v/>
       </c>
       <c r="C81">
-        <f>'Game Data'!D81/'Game Data'!E81</f>
+        <f>'Game'!D81/'Game'!E81</f>
         <v/>
       </c>
       <c r="D81">
-        <f>'Game Data'!F81/'Game Data'!G81</f>
+        <f>'Game'!F81/'Game'!G81</f>
         <v/>
       </c>
       <c r="E81">
-        <f>'Game Data'!E81/'Game Data'!G81</f>
+        <f>'Game'!E81/'Game'!G81</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <f>'Game Data'!A82</f>
+        <f>'Game'!A82</f>
         <v/>
       </c>
       <c r="B82">
-        <f>'Game Data'!B82/'Game Data'!C82</f>
+        <f>'Game'!B82/'Game'!C82</f>
         <v/>
       </c>
       <c r="C82">
-        <f>'Game Data'!D82/'Game Data'!E82</f>
+        <f>'Game'!D82/'Game'!E82</f>
         <v/>
       </c>
       <c r="D82">
-        <f>'Game Data'!F82/'Game Data'!G82</f>
+        <f>'Game'!F82/'Game'!G82</f>
         <v/>
       </c>
       <c r="E82">
-        <f>'Game Data'!E82/'Game Data'!G82</f>
+        <f>'Game'!E82/'Game'!G82</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <f>'Game Data'!A83</f>
+        <f>'Game'!A83</f>
         <v/>
       </c>
       <c r="B83">
-        <f>'Game Data'!B83/'Game Data'!C83</f>
+        <f>'Game'!B83/'Game'!C83</f>
         <v/>
       </c>
       <c r="C83">
-        <f>'Game Data'!D83/'Game Data'!E83</f>
+        <f>'Game'!D83/'Game'!E83</f>
         <v/>
       </c>
       <c r="D83">
-        <f>'Game Data'!F83/'Game Data'!G83</f>
+        <f>'Game'!F83/'Game'!G83</f>
         <v/>
       </c>
       <c r="E83">
-        <f>'Game Data'!E83/'Game Data'!G83</f>
+        <f>'Game'!E83/'Game'!G83</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <f>'Game Data'!A84</f>
+        <f>'Game'!A84</f>
         <v/>
       </c>
       <c r="B84">
-        <f>'Game Data'!B84/'Game Data'!C84</f>
+        <f>'Game'!B84/'Game'!C84</f>
         <v/>
       </c>
       <c r="C84">
-        <f>'Game Data'!D84/'Game Data'!E84</f>
+        <f>'Game'!D84/'Game'!E84</f>
         <v/>
       </c>
       <c r="D84">
-        <f>'Game Data'!F84/'Game Data'!G84</f>
+        <f>'Game'!F84/'Game'!G84</f>
         <v/>
       </c>
       <c r="E84">
-        <f>'Game Data'!E84/'Game Data'!G84</f>
+        <f>'Game'!E84/'Game'!G84</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <f>'Game Data'!A85</f>
+        <f>'Game'!A85</f>
         <v/>
       </c>
       <c r="B85">
-        <f>'Game Data'!B85/'Game Data'!C85</f>
+        <f>'Game'!B85/'Game'!C85</f>
         <v/>
       </c>
       <c r="C85">
-        <f>'Game Data'!D85/'Game Data'!E85</f>
+        <f>'Game'!D85/'Game'!E85</f>
         <v/>
       </c>
       <c r="D85">
-        <f>'Game Data'!F85/'Game Data'!G85</f>
+        <f>'Game'!F85/'Game'!G85</f>
         <v/>
       </c>
       <c r="E85">
-        <f>'Game Data'!E85/'Game Data'!G85</f>
+        <f>'Game'!E85/'Game'!G85</f>
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <f>'Game Data'!A86</f>
+        <f>'Game'!A86</f>
         <v/>
       </c>
       <c r="B86">
-        <f>'Game Data'!B86/'Game Data'!C86</f>
+        <f>'Game'!B86/'Game'!C86</f>
         <v/>
       </c>
       <c r="C86">
-        <f>'Game Data'!D86/'Game Data'!E86</f>
+        <f>'Game'!D86/'Game'!E86</f>
         <v/>
       </c>
       <c r="D86">
-        <f>'Game Data'!F86/'Game Data'!G86</f>
+        <f>'Game'!F86/'Game'!G86</f>
         <v/>
       </c>
       <c r="E86">
-        <f>'Game Data'!E86/'Game Data'!G86</f>
+        <f>'Game'!E86/'Game'!G86</f>
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <f>'Game Data'!A87</f>
+        <f>'Game'!A87</f>
         <v/>
       </c>
       <c r="B87">
-        <f>'Game Data'!B87/'Game Data'!C87</f>
+        <f>'Game'!B87/'Game'!C87</f>
         <v/>
       </c>
       <c r="C87">
-        <f>'Game Data'!D87/'Game Data'!E87</f>
+        <f>'Game'!D87/'Game'!E87</f>
         <v/>
       </c>
       <c r="D87">
-        <f>'Game Data'!F87/'Game Data'!G87</f>
+        <f>'Game'!F87/'Game'!G87</f>
         <v/>
       </c>
       <c r="E87">
-        <f>'Game Data'!E87/'Game Data'!G87</f>
+        <f>'Game'!E87/'Game'!G87</f>
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <f>'Game Data'!A88</f>
+        <f>'Game'!A88</f>
         <v/>
       </c>
       <c r="B88">
-        <f>'Game Data'!B88/'Game Data'!C88</f>
+        <f>'Game'!B88/'Game'!C88</f>
         <v/>
       </c>
       <c r="C88">
-        <f>'Game Data'!D88/'Game Data'!E88</f>
+        <f>'Game'!D88/'Game'!E88</f>
         <v/>
       </c>
       <c r="D88">
-        <f>'Game Data'!F88/'Game Data'!G88</f>
+        <f>'Game'!F88/'Game'!G88</f>
         <v/>
       </c>
       <c r="E88">
-        <f>'Game Data'!E88/'Game Data'!G88</f>
+        <f>'Game'!E88/'Game'!G88</f>
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <f>'Game Data'!A89</f>
+        <f>'Game'!A89</f>
         <v/>
       </c>
       <c r="B89">
-        <f>'Game Data'!B89/'Game Data'!C89</f>
+        <f>'Game'!B89/'Game'!C89</f>
         <v/>
       </c>
       <c r="C89">
-        <f>'Game Data'!D89/'Game Data'!E89</f>
+        <f>'Game'!D89/'Game'!E89</f>
         <v/>
       </c>
       <c r="D89">
-        <f>'Game Data'!F89/'Game Data'!G89</f>
+        <f>'Game'!F89/'Game'!G89</f>
         <v/>
       </c>
       <c r="E89">
-        <f>'Game Data'!E89/'Game Data'!G89</f>
+        <f>'Game'!E89/'Game'!G89</f>
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <f>'Game Data'!A90</f>
+        <f>'Game'!A90</f>
         <v/>
       </c>
       <c r="B90">
-        <f>'Game Data'!B90/'Game Data'!C90</f>
+        <f>'Game'!B90/'Game'!C90</f>
         <v/>
       </c>
       <c r="C90">
-        <f>'Game Data'!D90/'Game Data'!E90</f>
+        <f>'Game'!D90/'Game'!E90</f>
         <v/>
       </c>
       <c r="D90">
-        <f>'Game Data'!F90/'Game Data'!G90</f>
+        <f>'Game'!F90/'Game'!G90</f>
         <v/>
       </c>
       <c r="E90">
-        <f>'Game Data'!E90/'Game Data'!G90</f>
+        <f>'Game'!E90/'Game'!G90</f>
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <f>'Game Data'!A91</f>
+        <f>'Game'!A91</f>
         <v/>
       </c>
       <c r="B91">
-        <f>'Game Data'!B91/'Game Data'!C91</f>
+        <f>'Game'!B91/'Game'!C91</f>
         <v/>
       </c>
       <c r="C91">
-        <f>'Game Data'!D91/'Game Data'!E91</f>
+        <f>'Game'!D91/'Game'!E91</f>
         <v/>
       </c>
       <c r="D91">
-        <f>'Game Data'!F91/'Game Data'!G91</f>
+        <f>'Game'!F91/'Game'!G91</f>
         <v/>
       </c>
       <c r="E91">
-        <f>'Game Data'!E91/'Game Data'!G91</f>
+        <f>'Game'!E91/'Game'!G91</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <f>'Game Data'!A92</f>
+        <f>'Game'!A92</f>
         <v/>
       </c>
       <c r="B92">
-        <f>'Game Data'!B92/'Game Data'!C92</f>
+        <f>'Game'!B92/'Game'!C92</f>
         <v/>
       </c>
       <c r="C92">
-        <f>'Game Data'!D92/'Game Data'!E92</f>
+        <f>'Game'!D92/'Game'!E92</f>
         <v/>
       </c>
       <c r="D92">
-        <f>'Game Data'!F92/'Game Data'!G92</f>
+        <f>'Game'!F92/'Game'!G92</f>
         <v/>
       </c>
       <c r="E92">
-        <f>'Game Data'!E92/'Game Data'!G92</f>
+        <f>'Game'!E92/'Game'!G92</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <f>'Game Data'!A93</f>
+        <f>'Game'!A93</f>
         <v/>
       </c>
       <c r="B93">
-        <f>'Game Data'!B93/'Game Data'!C93</f>
+        <f>'Game'!B93/'Game'!C93</f>
         <v/>
       </c>
       <c r="C93">
-        <f>'Game Data'!D93/'Game Data'!E93</f>
+        <f>'Game'!D93/'Game'!E93</f>
         <v/>
       </c>
       <c r="D93">
-        <f>'Game Data'!F93/'Game Data'!G93</f>
+        <f>'Game'!F93/'Game'!G93</f>
         <v/>
       </c>
       <c r="E93">
-        <f>'Game Data'!E93/'Game Data'!G93</f>
+        <f>'Game'!E93/'Game'!G93</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <f>'Game Data'!A94</f>
+        <f>'Game'!A94</f>
         <v/>
       </c>
       <c r="B94">
-        <f>'Game Data'!B94/'Game Data'!C94</f>
+        <f>'Game'!B94/'Game'!C94</f>
         <v/>
       </c>
       <c r="C94">
-        <f>'Game Data'!D94/'Game Data'!E94</f>
+        <f>'Game'!D94/'Game'!E94</f>
         <v/>
       </c>
       <c r="D94">
-        <f>'Game Data'!F94/'Game Data'!G94</f>
+        <f>'Game'!F94/'Game'!G94</f>
         <v/>
       </c>
       <c r="E94">
-        <f>'Game Data'!E94/'Game Data'!G94</f>
+        <f>'Game'!E94/'Game'!G94</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <f>'Game Data'!A95</f>
+        <f>'Game'!A95</f>
         <v/>
       </c>
       <c r="B95">
-        <f>'Game Data'!B95/'Game Data'!C95</f>
+        <f>'Game'!B95/'Game'!C95</f>
         <v/>
       </c>
       <c r="C95">
-        <f>'Game Data'!D95/'Game Data'!E95</f>
+        <f>'Game'!D95/'Game'!E95</f>
         <v/>
       </c>
       <c r="D95">
-        <f>'Game Data'!F95/'Game Data'!G95</f>
+        <f>'Game'!F95/'Game'!G95</f>
         <v/>
       </c>
       <c r="E95">
-        <f>'Game Data'!E95/'Game Data'!G95</f>
+        <f>'Game'!E95/'Game'!G95</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <f>'Game Data'!A96</f>
+        <f>'Game'!A96</f>
         <v/>
       </c>
       <c r="B96">
-        <f>'Game Data'!B96/'Game Data'!C96</f>
+        <f>'Game'!B96/'Game'!C96</f>
         <v/>
       </c>
       <c r="C96">
-        <f>'Game Data'!D96/'Game Data'!E96</f>
+        <f>'Game'!D96/'Game'!E96</f>
         <v/>
       </c>
       <c r="D96">
-        <f>'Game Data'!F96/'Game Data'!G96</f>
+        <f>'Game'!F96/'Game'!G96</f>
         <v/>
       </c>
       <c r="E96">
-        <f>'Game Data'!E96/'Game Data'!G96</f>
+        <f>'Game'!E96/'Game'!G96</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <f>'Game Data'!A97</f>
+        <f>'Game'!A97</f>
         <v/>
       </c>
       <c r="B97">
-        <f>'Game Data'!B97/'Game Data'!C97</f>
+        <f>'Game'!B97/'Game'!C97</f>
         <v/>
       </c>
       <c r="C97">
-        <f>'Game Data'!D97/'Game Data'!E97</f>
+        <f>'Game'!D97/'Game'!E97</f>
         <v/>
       </c>
       <c r="D97">
-        <f>'Game Data'!F97/'Game Data'!G97</f>
+        <f>'Game'!F97/'Game'!G97</f>
         <v/>
       </c>
       <c r="E97">
-        <f>'Game Data'!E97/'Game Data'!G97</f>
+        <f>'Game'!E97/'Game'!G97</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <f>'Game Data'!A98</f>
+        <f>'Game'!A98</f>
         <v/>
       </c>
       <c r="B98">
-        <f>'Game Data'!B98/'Game Data'!C98</f>
+        <f>'Game'!B98/'Game'!C98</f>
         <v/>
       </c>
       <c r="C98">
-        <f>'Game Data'!D98/'Game Data'!E98</f>
+        <f>'Game'!D98/'Game'!E98</f>
         <v/>
       </c>
       <c r="D98">
-        <f>'Game Data'!F98/'Game Data'!G98</f>
+        <f>'Game'!F98/'Game'!G98</f>
         <v/>
       </c>
       <c r="E98">
-        <f>'Game Data'!E98/'Game Data'!G98</f>
+        <f>'Game'!E98/'Game'!G98</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <f>'Game Data'!A99</f>
+        <f>'Game'!A99</f>
         <v/>
       </c>
       <c r="B99">
-        <f>'Game Data'!B99/'Game Data'!C99</f>
+        <f>'Game'!B99/'Game'!C99</f>
         <v/>
       </c>
       <c r="C99">
-        <f>'Game Data'!D99/'Game Data'!E99</f>
+        <f>'Game'!D99/'Game'!E99</f>
         <v/>
       </c>
       <c r="D99">
-        <f>'Game Data'!F99/'Game Data'!G99</f>
+        <f>'Game'!F99/'Game'!G99</f>
         <v/>
       </c>
       <c r="E99">
-        <f>'Game Data'!E99/'Game Data'!G99</f>
+        <f>'Game'!E99/'Game'!G99</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <f>'Game Data'!A100</f>
+        <f>'Game'!A100</f>
         <v/>
       </c>
       <c r="B100">
-        <f>'Game Data'!B100/'Game Data'!C100</f>
+        <f>'Game'!B100/'Game'!C100</f>
         <v/>
       </c>
       <c r="C100">
-        <f>'Game Data'!D100/'Game Data'!E100</f>
+        <f>'Game'!D100/'Game'!E100</f>
         <v/>
       </c>
       <c r="D100">
-        <f>'Game Data'!F100/'Game Data'!G100</f>
+        <f>'Game'!F100/'Game'!G100</f>
         <v/>
       </c>
       <c r="E100">
-        <f>'Game Data'!E100/'Game Data'!G100</f>
+        <f>'Game'!E100/'Game'!G100</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <f>'Game Data'!A101</f>
+        <f>'Game'!A101</f>
         <v/>
       </c>
       <c r="B101">
-        <f>'Game Data'!B101/'Game Data'!C101</f>
+        <f>'Game'!B101/'Game'!C101</f>
         <v/>
       </c>
       <c r="C101">
-        <f>'Game Data'!D101/'Game Data'!E101</f>
+        <f>'Game'!D101/'Game'!E101</f>
         <v/>
       </c>
       <c r="D101">
-        <f>'Game Data'!F101/'Game Data'!G101</f>
+        <f>'Game'!F101/'Game'!G101</f>
         <v/>
       </c>
       <c r="E101">
-        <f>'Game Data'!E101/'Game Data'!G101</f>
+        <f>'Game'!E101/'Game'!G101</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <f>'Game Data'!A102</f>
+        <f>'Game'!A102</f>
         <v/>
       </c>
       <c r="B102">
-        <f>'Game Data'!B102/'Game Data'!C102</f>
+        <f>'Game'!B102/'Game'!C102</f>
         <v/>
       </c>
       <c r="C102">
-        <f>'Game Data'!D102/'Game Data'!E102</f>
+        <f>'Game'!D102/'Game'!E102</f>
         <v/>
       </c>
       <c r="D102">
-        <f>'Game Data'!F102/'Game Data'!G102</f>
+        <f>'Game'!F102/'Game'!G102</f>
         <v/>
       </c>
       <c r="E102">
-        <f>'Game Data'!E102/'Game Data'!G102</f>
+        <f>'Game'!E102/'Game'!G102</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <f>'Game Data'!A103</f>
+        <f>'Game'!A103</f>
         <v/>
       </c>
       <c r="B103">
-        <f>'Game Data'!B103/'Game Data'!C103</f>
+        <f>'Game'!B103/'Game'!C103</f>
         <v/>
       </c>
       <c r="C103">
-        <f>'Game Data'!D103/'Game Data'!E103</f>
+        <f>'Game'!D103/'Game'!E103</f>
         <v/>
       </c>
       <c r="D103">
-        <f>'Game Data'!F103/'Game Data'!G103</f>
+        <f>'Game'!F103/'Game'!G103</f>
         <v/>
       </c>
       <c r="E103">
-        <f>'Game Data'!E103/'Game Data'!G103</f>
+        <f>'Game'!E103/'Game'!G103</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <f>'Game Data'!A104</f>
+        <f>'Game'!A104</f>
         <v/>
       </c>
       <c r="B104">
-        <f>'Game Data'!B104/'Game Data'!C104</f>
+        <f>'Game'!B104/'Game'!C104</f>
         <v/>
       </c>
       <c r="C104">
-        <f>'Game Data'!D104/'Game Data'!E104</f>
+        <f>'Game'!D104/'Game'!E104</f>
         <v/>
       </c>
       <c r="D104">
-        <f>'Game Data'!F104/'Game Data'!G104</f>
+        <f>'Game'!F104/'Game'!G104</f>
         <v/>
       </c>
       <c r="E104">
-        <f>'Game Data'!E104/'Game Data'!G104</f>
+        <f>'Game'!E104/'Game'!G104</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <f>'Game Data'!A105</f>
+        <f>'Game'!A105</f>
         <v/>
       </c>
       <c r="B105">
-        <f>'Game Data'!B105/'Game Data'!C105</f>
+        <f>'Game'!B105/'Game'!C105</f>
         <v/>
       </c>
       <c r="C105">
-        <f>'Game Data'!D105/'Game Data'!E105</f>
+        <f>'Game'!D105/'Game'!E105</f>
         <v/>
       </c>
       <c r="D105">
-        <f>'Game Data'!F105/'Game Data'!G105</f>
+        <f>'Game'!F105/'Game'!G105</f>
         <v/>
       </c>
       <c r="E105">
-        <f>'Game Data'!E105/'Game Data'!G105</f>
+        <f>'Game'!E105/'Game'!G105</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <f>'Game Data'!A106</f>
+        <f>'Game'!A106</f>
         <v/>
       </c>
       <c r="B106">
-        <f>'Game Data'!B106/'Game Data'!C106</f>
+        <f>'Game'!B106/'Game'!C106</f>
         <v/>
       </c>
       <c r="C106">
-        <f>'Game Data'!D106/'Game Data'!E106</f>
+        <f>'Game'!D106/'Game'!E106</f>
         <v/>
       </c>
       <c r="D106">
-        <f>'Game Data'!F106/'Game Data'!G106</f>
+        <f>'Game'!F106/'Game'!G106</f>
         <v/>
       </c>
       <c r="E106">
-        <f>'Game Data'!E106/'Game Data'!G106</f>
+        <f>'Game'!E106/'Game'!G106</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <f>'Game Data'!A107</f>
+        <f>'Game'!A107</f>
         <v/>
       </c>
       <c r="B107">
-        <f>'Game Data'!B107/'Game Data'!C107</f>
+        <f>'Game'!B107/'Game'!C107</f>
         <v/>
       </c>
       <c r="C107">
-        <f>'Game Data'!D107/'Game Data'!E107</f>
+        <f>'Game'!D107/'Game'!E107</f>
         <v/>
       </c>
       <c r="D107">
-        <f>'Game Data'!F107/'Game Data'!G107</f>
+        <f>'Game'!F107/'Game'!G107</f>
         <v/>
       </c>
       <c r="E107">
-        <f>'Game Data'!E107/'Game Data'!G107</f>
+        <f>'Game'!E107/'Game'!G107</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <f>'Game Data'!A108</f>
+        <f>'Game'!A108</f>
         <v/>
       </c>
       <c r="B108">
-        <f>'Game Data'!B108/'Game Data'!C108</f>
+        <f>'Game'!B108/'Game'!C108</f>
         <v/>
       </c>
       <c r="C108">
-        <f>'Game Data'!D108/'Game Data'!E108</f>
+        <f>'Game'!D108/'Game'!E108</f>
         <v/>
       </c>
       <c r="D108">
-        <f>'Game Data'!F108/'Game Data'!G108</f>
+        <f>'Game'!F108/'Game'!G108</f>
         <v/>
       </c>
       <c r="E108">
-        <f>'Game Data'!E108/'Game Data'!G108</f>
+        <f>'Game'!E108/'Game'!G108</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <f>'Game Data'!A109</f>
+        <f>'Game'!A109</f>
         <v/>
       </c>
       <c r="B109">
-        <f>'Game Data'!B109/'Game Data'!C109</f>
+        <f>'Game'!B109/'Game'!C109</f>
         <v/>
       </c>
       <c r="C109">
-        <f>'Game Data'!D109/'Game Data'!E109</f>
+        <f>'Game'!D109/'Game'!E109</f>
         <v/>
       </c>
       <c r="D109">
-        <f>'Game Data'!F109/'Game Data'!G109</f>
+        <f>'Game'!F109/'Game'!G109</f>
         <v/>
       </c>
       <c r="E109">
-        <f>'Game Data'!E109/'Game Data'!G109</f>
+        <f>'Game'!E109/'Game'!G109</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <f>'Game Data'!A110</f>
+        <f>'Game'!A110</f>
         <v/>
       </c>
       <c r="B110">
-        <f>'Game Data'!B110/'Game Data'!C110</f>
+        <f>'Game'!B110/'Game'!C110</f>
         <v/>
       </c>
       <c r="C110">
-        <f>'Game Data'!D110/'Game Data'!E110</f>
+        <f>'Game'!D110/'Game'!E110</f>
         <v/>
       </c>
       <c r="D110">
-        <f>'Game Data'!F110/'Game Data'!G110</f>
+        <f>'Game'!F110/'Game'!G110</f>
         <v/>
       </c>
       <c r="E110">
-        <f>'Game Data'!E110/'Game Data'!G110</f>
+        <f>'Game'!E110/'Game'!G110</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <f>'Game Data'!A111</f>
+        <f>'Game'!A111</f>
         <v/>
       </c>
       <c r="B111">
-        <f>'Game Data'!B111/'Game Data'!C111</f>
+        <f>'Game'!B111/'Game'!C111</f>
         <v/>
       </c>
       <c r="C111">
-        <f>'Game Data'!D111/'Game Data'!E111</f>
+        <f>'Game'!D111/'Game'!E111</f>
         <v/>
       </c>
       <c r="D111">
-        <f>'Game Data'!F111/'Game Data'!G111</f>
+        <f>'Game'!F111/'Game'!G111</f>
         <v/>
       </c>
       <c r="E111">
-        <f>'Game Data'!E111/'Game Data'!G111</f>
+        <f>'Game'!E111/'Game'!G111</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <f>'Game Data'!A112</f>
+        <f>'Game'!A112</f>
         <v/>
       </c>
       <c r="B112">
-        <f>'Game Data'!B112/'Game Data'!C112</f>
+        <f>'Game'!B112/'Game'!C112</f>
         <v/>
       </c>
       <c r="C112">
-        <f>'Game Data'!D112/'Game Data'!E112</f>
+        <f>'Game'!D112/'Game'!E112</f>
         <v/>
       </c>
       <c r="D112">
-        <f>'Game Data'!F112/'Game Data'!G112</f>
+        <f>'Game'!F112/'Game'!G112</f>
         <v/>
       </c>
       <c r="E112">
-        <f>'Game Data'!E112/'Game Data'!G112</f>
+        <f>'Game'!E112/'Game'!G112</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <f>'Game Data'!A113</f>
+        <f>'Game'!A113</f>
         <v/>
       </c>
       <c r="B113">
-        <f>'Game Data'!B113/'Game Data'!C113</f>
+        <f>'Game'!B113/'Game'!C113</f>
         <v/>
       </c>
       <c r="C113">
-        <f>'Game Data'!D113/'Game Data'!E113</f>
+        <f>'Game'!D113/'Game'!E113</f>
         <v/>
       </c>
       <c r="D113">
-        <f>'Game Data'!F113/'Game Data'!G113</f>
+        <f>'Game'!F113/'Game'!G113</f>
         <v/>
       </c>
       <c r="E113">
-        <f>'Game Data'!E113/'Game Data'!G113</f>
+        <f>'Game'!E113/'Game'!G113</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <f>'Game Data'!A114</f>
+        <f>'Game'!A114</f>
         <v/>
       </c>
       <c r="B114">
-        <f>'Game Data'!B114/'Game Data'!C114</f>
+        <f>'Game'!B114/'Game'!C114</f>
         <v/>
       </c>
       <c r="C114">
-        <f>'Game Data'!D114/'Game Data'!E114</f>
+        <f>'Game'!D114/'Game'!E114</f>
         <v/>
       </c>
       <c r="D114">
-        <f>'Game Data'!F114/'Game Data'!G114</f>
+        <f>'Game'!F114/'Game'!G114</f>
         <v/>
       </c>
       <c r="E114">
-        <f>'Game Data'!E114/'Game Data'!G114</f>
+        <f>'Game'!E114/'Game'!G114</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <f>'Game Data'!A115</f>
+        <f>'Game'!A115</f>
         <v/>
       </c>
       <c r="B115">
-        <f>'Game Data'!B115/'Game Data'!C115</f>
+        <f>'Game'!B115/'Game'!C115</f>
         <v/>
       </c>
       <c r="C115">
-        <f>'Game Data'!D115/'Game Data'!E115</f>
+        <f>'Game'!D115/'Game'!E115</f>
         <v/>
       </c>
       <c r="D115">
-        <f>'Game Data'!F115/'Game Data'!G115</f>
+        <f>'Game'!F115/'Game'!G115</f>
         <v/>
       </c>
       <c r="E115">
-        <f>'Game Data'!E115/'Game Data'!G115</f>
+        <f>'Game'!E115/'Game'!G115</f>
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <f>'Game Data'!A116</f>
+        <f>'Game'!A116</f>
         <v/>
       </c>
       <c r="B116">
-        <f>'Game Data'!B116/'Game Data'!C116</f>
+        <f>'Game'!B116/'Game'!C116</f>
         <v/>
       </c>
       <c r="C116">
-        <f>'Game Data'!D116/'Game Data'!E116</f>
+        <f>'Game'!D116/'Game'!E116</f>
         <v/>
       </c>
       <c r="D116">
-        <f>'Game Data'!F116/'Game Data'!G116</f>
+        <f>'Game'!F116/'Game'!G116</f>
         <v/>
       </c>
       <c r="E116">
-        <f>'Game Data'!E116/'Game Data'!G116</f>
+        <f>'Game'!E116/'Game'!G116</f>
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <f>'Game Data'!A117</f>
+        <f>'Game'!A117</f>
         <v/>
       </c>
       <c r="B117">
-        <f>'Game Data'!B117/'Game Data'!C117</f>
+        <f>'Game'!B117/'Game'!C117</f>
         <v/>
       </c>
       <c r="C117">
-        <f>'Game Data'!D117/'Game Data'!E117</f>
+        <f>'Game'!D117/'Game'!E117</f>
         <v/>
       </c>
       <c r="D117">
-        <f>'Game Data'!F117/'Game Data'!G117</f>
+        <f>'Game'!F117/'Game'!G117</f>
         <v/>
       </c>
       <c r="E117">
-        <f>'Game Data'!E117/'Game Data'!G117</f>
+        <f>'Game'!E117/'Game'!G117</f>
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <f>'Game Data'!A118</f>
+        <f>'Game'!A118</f>
         <v/>
       </c>
       <c r="B118">
-        <f>'Game Data'!B118/'Game Data'!C118</f>
+        <f>'Game'!B118/'Game'!C118</f>
         <v/>
       </c>
       <c r="C118">
-        <f>'Game Data'!D118/'Game Data'!E118</f>
+        <f>'Game'!D118/'Game'!E118</f>
         <v/>
       </c>
       <c r="D118">
-        <f>'Game Data'!F118/'Game Data'!G118</f>
+        <f>'Game'!F118/'Game'!G118</f>
         <v/>
       </c>
       <c r="E118">
-        <f>'Game Data'!E118/'Game Data'!G118</f>
+        <f>'Game'!E118/'Game'!G118</f>
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <f>'Game Data'!A119</f>
+        <f>'Game'!A119</f>
         <v/>
       </c>
       <c r="B119">
-        <f>'Game Data'!B119/'Game Data'!C119</f>
+        <f>'Game'!B119/'Game'!C119</f>
         <v/>
       </c>
       <c r="C119">
-        <f>'Game Data'!D119/'Game Data'!E119</f>
+        <f>'Game'!D119/'Game'!E119</f>
         <v/>
       </c>
       <c r="D119">
-        <f>'Game Data'!F119/'Game Data'!G119</f>
+        <f>'Game'!F119/'Game'!G119</f>
         <v/>
       </c>
       <c r="E119">
-        <f>'Game Data'!E119/'Game Data'!G119</f>
+        <f>'Game'!E119/'Game'!G119</f>
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <f>'Game Data'!A120</f>
+        <f>'Game'!A120</f>
         <v/>
       </c>
       <c r="B120">
-        <f>'Game Data'!B120/'Game Data'!C120</f>
+        <f>'Game'!B120/'Game'!C120</f>
         <v/>
       </c>
       <c r="C120">
-        <f>'Game Data'!D120/'Game Data'!E120</f>
+        <f>'Game'!D120/'Game'!E120</f>
         <v/>
       </c>
       <c r="D120">
-        <f>'Game Data'!F120/'Game Data'!G120</f>
+        <f>'Game'!F120/'Game'!G120</f>
         <v/>
       </c>
       <c r="E120">
-        <f>'Game Data'!E120/'Game Data'!G120</f>
+        <f>'Game'!E120/'Game'!G120</f>
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <f>'Game Data'!A121</f>
+        <f>'Game'!A121</f>
         <v/>
       </c>
       <c r="B121">
-        <f>'Game Data'!B121/'Game Data'!C121</f>
+        <f>'Game'!B121/'Game'!C121</f>
         <v/>
       </c>
       <c r="C121">
-        <f>'Game Data'!D121/'Game Data'!E121</f>
+        <f>'Game'!D121/'Game'!E121</f>
         <v/>
       </c>
       <c r="D121">
-        <f>'Game Data'!F121/'Game Data'!G121</f>
+        <f>'Game'!F121/'Game'!G121</f>
         <v/>
       </c>
       <c r="E121">
-        <f>'Game Data'!E121/'Game Data'!G121</f>
+        <f>'Game'!E121/'Game'!G121</f>
         <v/>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <f>'Game Data'!A122</f>
+        <f>'Game'!A122</f>
         <v/>
       </c>
       <c r="B122">
-        <f>'Game Data'!B122/'Game Data'!C122</f>
+        <f>'Game'!B122/'Game'!C122</f>
         <v/>
       </c>
       <c r="C122">
-        <f>'Game Data'!D122/'Game Data'!E122</f>
+        <f>'Game'!D122/'Game'!E122</f>
         <v/>
       </c>
       <c r="D122">
-        <f>'Game Data'!F122/'Game Data'!G122</f>
+        <f>'Game'!F122/'Game'!G122</f>
         <v/>
       </c>
       <c r="E122">
-        <f>'Game Data'!E122/'Game Data'!G122</f>
+        <f>'Game'!E122/'Game'!G122</f>
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <f>'Game Data'!A123</f>
+        <f>'Game'!A123</f>
         <v/>
       </c>
       <c r="B123">
-        <f>'Game Data'!B123/'Game Data'!C123</f>
+        <f>'Game'!B123/'Game'!C123</f>
         <v/>
       </c>
       <c r="C123">
-        <f>'Game Data'!D123/'Game Data'!E123</f>
+        <f>'Game'!D123/'Game'!E123</f>
         <v/>
       </c>
       <c r="D123">
-        <f>'Game Data'!F123/'Game Data'!G123</f>
+        <f>'Game'!F123/'Game'!G123</f>
         <v/>
       </c>
       <c r="E123">
-        <f>'Game Data'!E123/'Game Data'!G123</f>
+        <f>'Game'!E123/'Game'!G123</f>
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <f>'Game Data'!A124</f>
+        <f>'Game'!A124</f>
         <v/>
       </c>
       <c r="B124">
-        <f>'Game Data'!B124/'Game Data'!C124</f>
+        <f>'Game'!B124/'Game'!C124</f>
         <v/>
       </c>
       <c r="C124">
-        <f>'Game Data'!D124/'Game Data'!E124</f>
+        <f>'Game'!D124/'Game'!E124</f>
         <v/>
       </c>
       <c r="D124">
-        <f>'Game Data'!F124/'Game Data'!G124</f>
+        <f>'Game'!F124/'Game'!G124</f>
         <v/>
       </c>
       <c r="E124">
-        <f>'Game Data'!E124/'Game Data'!G124</f>
+        <f>'Game'!E124/'Game'!G124</f>
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <f>'Game Data'!A125</f>
+        <f>'Game'!A125</f>
         <v/>
       </c>
       <c r="B125">
-        <f>'Game Data'!B125/'Game Data'!C125</f>
+        <f>'Game'!B125/'Game'!C125</f>
         <v/>
       </c>
       <c r="C125">
-        <f>'Game Data'!D125/'Game Data'!E125</f>
+        <f>'Game'!D125/'Game'!E125</f>
         <v/>
       </c>
       <c r="D125">
-        <f>'Game Data'!F125/'Game Data'!G125</f>
+        <f>'Game'!F125/'Game'!G125</f>
         <v/>
       </c>
       <c r="E125">
-        <f>'Game Data'!E125/'Game Data'!G125</f>
+        <f>'Game'!E125/'Game'!G125</f>
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <f>'Game Data'!A126</f>
+        <f>'Game'!A126</f>
         <v/>
       </c>
       <c r="B126">
-        <f>'Game Data'!B126/'Game Data'!C126</f>
+        <f>'Game'!B126/'Game'!C126</f>
         <v/>
       </c>
       <c r="C126">
-        <f>'Game Data'!D126/'Game Data'!E126</f>
+        <f>'Game'!D126/'Game'!E126</f>
         <v/>
       </c>
       <c r="D126">
-        <f>'Game Data'!F126/'Game Data'!G126</f>
+        <f>'Game'!F126/'Game'!G126</f>
         <v/>
       </c>
       <c r="E126">
-        <f>'Game Data'!E126/'Game Data'!G126</f>
+        <f>'Game'!E126/'Game'!G126</f>
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <f>'Game Data'!A127</f>
+        <f>'Game'!A127</f>
         <v/>
       </c>
       <c r="B127">
-        <f>'Game Data'!B127/'Game Data'!C127</f>
+        <f>'Game'!B127/'Game'!C127</f>
         <v/>
       </c>
       <c r="C127">
-        <f>'Game Data'!D127/'Game Data'!E127</f>
+        <f>'Game'!D127/'Game'!E127</f>
         <v/>
       </c>
       <c r="D127">
-        <f>'Game Data'!F127/'Game Data'!G127</f>
+        <f>'Game'!F127/'Game'!G127</f>
         <v/>
       </c>
       <c r="E127">
-        <f>'Game Data'!E127/'Game Data'!G127</f>
+        <f>'Game'!E127/'Game'!G127</f>
         <v/>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <f>'Game Data'!A128</f>
+        <f>'Game'!A128</f>
         <v/>
       </c>
       <c r="B128">
-        <f>'Game Data'!B128/'Game Data'!C128</f>
+        <f>'Game'!B128/'Game'!C128</f>
         <v/>
       </c>
       <c r="C128">
-        <f>'Game Data'!D128/'Game Data'!E128</f>
+        <f>'Game'!D128/'Game'!E128</f>
         <v/>
       </c>
       <c r="D128">
-        <f>'Game Data'!F128/'Game Data'!G128</f>
+        <f>'Game'!F128/'Game'!G128</f>
         <v/>
       </c>
       <c r="E128">
-        <f>'Game Data'!E128/'Game Data'!G128</f>
+        <f>'Game'!E128/'Game'!G128</f>
         <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <f>'Game Data'!A129</f>
+        <f>'Game'!A129</f>
         <v/>
       </c>
       <c r="B129">
-        <f>'Game Data'!B129/'Game Data'!C129</f>
+        <f>'Game'!B129/'Game'!C129</f>
         <v/>
       </c>
       <c r="C129">
-        <f>'Game Data'!D129/'Game Data'!E129</f>
+        <f>'Game'!D129/'Game'!E129</f>
         <v/>
       </c>
       <c r="D129">
-        <f>'Game Data'!F129/'Game Data'!G129</f>
+        <f>'Game'!F129/'Game'!G129</f>
         <v/>
       </c>
       <c r="E129">
-        <f>'Game Data'!E129/'Game Data'!G129</f>
+        <f>'Game'!E129/'Game'!G129</f>
         <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <f>'Game Data'!A130</f>
+        <f>'Game'!A130</f>
         <v/>
       </c>
       <c r="B130">
-        <f>'Game Data'!B130/'Game Data'!C130</f>
+        <f>'Game'!B130/'Game'!C130</f>
         <v/>
       </c>
       <c r="C130">
-        <f>'Game Data'!D130/'Game Data'!E130</f>
+        <f>'Game'!D130/'Game'!E130</f>
         <v/>
       </c>
       <c r="D130">
-        <f>'Game Data'!F130/'Game Data'!G130</f>
+        <f>'Game'!F130/'Game'!G130</f>
         <v/>
       </c>
       <c r="E130">
-        <f>'Game Data'!E130/'Game Data'!G130</f>
+        <f>'Game'!E130/'Game'!G130</f>
         <v/>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <f>'Game Data'!A131</f>
+        <f>'Game'!A131</f>
         <v/>
       </c>
       <c r="B131">
-        <f>'Game Data'!B131/'Game Data'!C131</f>
+        <f>'Game'!B131/'Game'!C131</f>
         <v/>
       </c>
       <c r="C131">
-        <f>'Game Data'!D131/'Game Data'!E131</f>
+        <f>'Game'!D131/'Game'!E131</f>
         <v/>
       </c>
       <c r="D131">
-        <f>'Game Data'!F131/'Game Data'!G131</f>
+        <f>'Game'!F131/'Game'!G131</f>
         <v/>
       </c>
       <c r="E131">
-        <f>'Game Data'!E131/'Game Data'!G131</f>
+        <f>'Game'!E131/'Game'!G131</f>
         <v/>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <f>'Game Data'!A132</f>
+        <f>'Game'!A132</f>
         <v/>
       </c>
       <c r="B132">
-        <f>'Game Data'!B132/'Game Data'!C132</f>
+        <f>'Game'!B132/'Game'!C132</f>
         <v/>
       </c>
       <c r="C132">
-        <f>'Game Data'!D132/'Game Data'!E132</f>
+        <f>'Game'!D132/'Game'!E132</f>
         <v/>
       </c>
       <c r="D132">
-        <f>'Game Data'!F132/'Game Data'!G132</f>
+        <f>'Game'!F132/'Game'!G132</f>
         <v/>
       </c>
       <c r="E132">
-        <f>'Game Data'!E132/'Game Data'!G132</f>
+        <f>'Game'!E132/'Game'!G132</f>
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <f>'Game Data'!A133</f>
+        <f>'Game'!A133</f>
         <v/>
       </c>
       <c r="B133">
-        <f>'Game Data'!B133/'Game Data'!C133</f>
+        <f>'Game'!B133/'Game'!C133</f>
         <v/>
       </c>
       <c r="C133">
-        <f>'Game Data'!D133/'Game Data'!E133</f>
+        <f>'Game'!D133/'Game'!E133</f>
         <v/>
       </c>
       <c r="D133">
-        <f>'Game Data'!F133/'Game Data'!G133</f>
+        <f>'Game'!F133/'Game'!G133</f>
         <v/>
       </c>
       <c r="E133">
-        <f>'Game Data'!E133/'Game Data'!G133</f>
+        <f>'Game'!E133/'Game'!G133</f>
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <f>'Game Data'!A134</f>
+        <f>'Game'!A134</f>
         <v/>
       </c>
       <c r="B134">
-        <f>'Game Data'!B134/'Game Data'!C134</f>
+        <f>'Game'!B134/'Game'!C134</f>
         <v/>
       </c>
       <c r="C134">
-        <f>'Game Data'!D134/'Game Data'!E134</f>
+        <f>'Game'!D134/'Game'!E134</f>
         <v/>
       </c>
       <c r="D134">
-        <f>'Game Data'!F134/'Game Data'!G134</f>
+        <f>'Game'!F134/'Game'!G134</f>
         <v/>
       </c>
       <c r="E134">
-        <f>'Game Data'!E134/'Game Data'!G134</f>
+        <f>'Game'!E134/'Game'!G134</f>
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <f>'Game Data'!A135</f>
+        <f>'Game'!A135</f>
         <v/>
       </c>
       <c r="B135">
-        <f>'Game Data'!B135/'Game Data'!C135</f>
+        <f>'Game'!B135/'Game'!C135</f>
         <v/>
       </c>
       <c r="C135">
-        <f>'Game Data'!D135/'Game Data'!E135</f>
+        <f>'Game'!D135/'Game'!E135</f>
         <v/>
       </c>
       <c r="D135">
-        <f>'Game Data'!F135/'Game Data'!G135</f>
+        <f>'Game'!F135/'Game'!G135</f>
         <v/>
       </c>
       <c r="E135">
-        <f>'Game Data'!E135/'Game Data'!G135</f>
+        <f>'Game'!E135/'Game'!G135</f>
         <v/>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <f>'Game Data'!A136</f>
+        <f>'Game'!A136</f>
         <v/>
       </c>
       <c r="B136">
-        <f>'Game Data'!B136/'Game Data'!C136</f>
+        <f>'Game'!B136/'Game'!C136</f>
         <v/>
       </c>
       <c r="C136">
-        <f>'Game Data'!D136/'Game Data'!E136</f>
+        <f>'Game'!D136/'Game'!E136</f>
         <v/>
       </c>
       <c r="D136">
-        <f>'Game Data'!F136/'Game Data'!G136</f>
+        <f>'Game'!F136/'Game'!G136</f>
         <v/>
       </c>
       <c r="E136">
-        <f>'Game Data'!E136/'Game Data'!G136</f>
+        <f>'Game'!E136/'Game'!G136</f>
         <v/>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <f>'Game Data'!A137</f>
+        <f>'Game'!A137</f>
         <v/>
       </c>
       <c r="B137">
-        <f>'Game Data'!B137/'Game Data'!C137</f>
+        <f>'Game'!B137/'Game'!C137</f>
         <v/>
       </c>
       <c r="C137">
-        <f>'Game Data'!D137/'Game Data'!E137</f>
+        <f>'Game'!D137/'Game'!E137</f>
         <v/>
       </c>
       <c r="D137">
-        <f>'Game Data'!F137/'Game Data'!G137</f>
+        <f>'Game'!F137/'Game'!G137</f>
         <v/>
       </c>
       <c r="E137">
-        <f>'Game Data'!E137/'Game Data'!G137</f>
+        <f>'Game'!E137/'Game'!G137</f>
         <v/>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <f>'Game Data'!A138</f>
+        <f>'Game'!A138</f>
         <v/>
       </c>
       <c r="B138">
-        <f>'Game Data'!B138/'Game Data'!C138</f>
+        <f>'Game'!B138/'Game'!C138</f>
         <v/>
       </c>
       <c r="C138">
-        <f>'Game Data'!D138/'Game Data'!E138</f>
+        <f>'Game'!D138/'Game'!E138</f>
         <v/>
       </c>
       <c r="D138">
-        <f>'Game Data'!F138/'Game Data'!G138</f>
+        <f>'Game'!F138/'Game'!G138</f>
         <v/>
       </c>
       <c r="E138">
-        <f>'Game Data'!E138/'Game Data'!G138</f>
+        <f>'Game'!E138/'Game'!G138</f>
         <v/>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <f>'Game Data'!A139</f>
+        <f>'Game'!A139</f>
         <v/>
       </c>
       <c r="B139">
-        <f>'Game Data'!B139/'Game Data'!C139</f>
+        <f>'Game'!B139/'Game'!C139</f>
         <v/>
       </c>
       <c r="C139">
-        <f>'Game Data'!D139/'Game Data'!E139</f>
+        <f>'Game'!D139/'Game'!E139</f>
         <v/>
       </c>
       <c r="D139">
-        <f>'Game Data'!F139/'Game Data'!G139</f>
+        <f>'Game'!F139/'Game'!G139</f>
         <v/>
       </c>
       <c r="E139">
-        <f>'Game Data'!E139/'Game Data'!G139</f>
+        <f>'Game'!E139/'Game'!G139</f>
         <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <f>'Game Data'!A140</f>
+        <f>'Game'!A140</f>
         <v/>
       </c>
       <c r="B140">
-        <f>'Game Data'!B140/'Game Data'!C140</f>
+        <f>'Game'!B140/'Game'!C140</f>
         <v/>
       </c>
       <c r="C140">
-        <f>'Game Data'!D140/'Game Data'!E140</f>
+        <f>'Game'!D140/'Game'!E140</f>
         <v/>
       </c>
       <c r="D140">
-        <f>'Game Data'!F140/'Game Data'!G140</f>
+        <f>'Game'!F140/'Game'!G140</f>
         <v/>
       </c>
       <c r="E140">
-        <f>'Game Data'!E140/'Game Data'!G140</f>
+        <f>'Game'!E140/'Game'!G140</f>
         <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <f>'Game Data'!A141</f>
+        <f>'Game'!A141</f>
         <v/>
       </c>
       <c r="B141">
-        <f>'Game Data'!B141/'Game Data'!C141</f>
+        <f>'Game'!B141/'Game'!C141</f>
         <v/>
       </c>
       <c r="C141">
-        <f>'Game Data'!D141/'Game Data'!E141</f>
+        <f>'Game'!D141/'Game'!E141</f>
         <v/>
       </c>
       <c r="D141">
-        <f>'Game Data'!F141/'Game Data'!G141</f>
+        <f>'Game'!F141/'Game'!G141</f>
         <v/>
       </c>
       <c r="E141">
-        <f>'Game Data'!E141/'Game Data'!G141</f>
+        <f>'Game'!E141/'Game'!G141</f>
         <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <f>'Game Data'!A142</f>
+        <f>'Game'!A142</f>
         <v/>
       </c>
       <c r="B142">
-        <f>'Game Data'!B142/'Game Data'!C142</f>
+        <f>'Game'!B142/'Game'!C142</f>
         <v/>
       </c>
       <c r="C142">
-        <f>'Game Data'!D142/'Game Data'!E142</f>
+        <f>'Game'!D142/'Game'!E142</f>
         <v/>
       </c>
       <c r="D142">
-        <f>'Game Data'!F142/'Game Data'!G142</f>
+        <f>'Game'!F142/'Game'!G142</f>
         <v/>
       </c>
       <c r="E142">
-        <f>'Game Data'!E142/'Game Data'!G142</f>
+        <f>'Game'!E142/'Game'!G142</f>
         <v/>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <f>'Game Data'!A143</f>
+        <f>'Game'!A143</f>
         <v/>
       </c>
       <c r="B143">
-        <f>'Game Data'!B143/'Game Data'!C143</f>
+        <f>'Game'!B143/'Game'!C143</f>
         <v/>
       </c>
       <c r="C143">
-        <f>'Game Data'!D143/'Game Data'!E143</f>
+        <f>'Game'!D143/'Game'!E143</f>
         <v/>
       </c>
       <c r="D143">
-        <f>'Game Data'!F143/'Game Data'!G143</f>
+        <f>'Game'!F143/'Game'!G143</f>
         <v/>
       </c>
       <c r="E143">
-        <f>'Game Data'!E143/'Game Data'!G143</f>
+        <f>'Game'!E143/'Game'!G143</f>
         <v/>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <f>'Game Data'!A144</f>
+        <f>'Game'!A144</f>
         <v/>
       </c>
       <c r="B144">
-        <f>'Game Data'!B144/'Game Data'!C144</f>
+        <f>'Game'!B144/'Game'!C144</f>
         <v/>
       </c>
       <c r="C144">
-        <f>'Game Data'!D144/'Game Data'!E144</f>
+        <f>'Game'!D144/'Game'!E144</f>
         <v/>
       </c>
       <c r="D144">
-        <f>'Game Data'!F144/'Game Data'!G144</f>
+        <f>'Game'!F144/'Game'!G144</f>
         <v/>
       </c>
       <c r="E144">
-        <f>'Game Data'!E144/'Game Data'!G144</f>
+        <f>'Game'!E144/'Game'!G144</f>
         <v/>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <f>'Game Data'!A145</f>
+        <f>'Game'!A145</f>
         <v/>
       </c>
       <c r="B145">
-        <f>'Game Data'!B145/'Game Data'!C145</f>
+        <f>'Game'!B145/'Game'!C145</f>
         <v/>
       </c>
       <c r="C145">
-        <f>'Game Data'!D145/'Game Data'!E145</f>
+        <f>'Game'!D145/'Game'!E145</f>
         <v/>
       </c>
       <c r="D145">
-        <f>'Game Data'!F145/'Game Data'!G145</f>
+        <f>'Game'!F145/'Game'!G145</f>
         <v/>
       </c>
       <c r="E145">
-        <f>'Game Data'!E145/'Game Data'!G145</f>
+        <f>'Game'!E145/'Game'!G145</f>
         <v/>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <f>'Game Data'!A146</f>
+        <f>'Game'!A146</f>
         <v/>
       </c>
       <c r="B146">
-        <f>'Game Data'!B146/'Game Data'!C146</f>
+        <f>'Game'!B146/'Game'!C146</f>
         <v/>
       </c>
       <c r="C146">
-        <f>'Game Data'!D146/'Game Data'!E146</f>
+        <f>'Game'!D146/'Game'!E146</f>
         <v/>
       </c>
       <c r="D146">
-        <f>'Game Data'!F146/'Game Data'!G146</f>
+        <f>'Game'!F146/'Game'!G146</f>
         <v/>
       </c>
       <c r="E146">
-        <f>'Game Data'!E146/'Game Data'!G146</f>
+        <f>'Game'!E146/'Game'!G146</f>
         <v/>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <f>'Game Data'!A147</f>
+        <f>'Game'!A147</f>
         <v/>
       </c>
       <c r="B147">
-        <f>'Game Data'!B147/'Game Data'!C147</f>
+        <f>'Game'!B147/'Game'!C147</f>
         <v/>
       </c>
       <c r="C147">
-        <f>'Game Data'!D147/'Game Data'!E147</f>
+        <f>'Game'!D147/'Game'!E147</f>
         <v/>
       </c>
       <c r="D147">
-        <f>'Game Data'!F147/'Game Data'!G147</f>
+        <f>'Game'!F147/'Game'!G147</f>
         <v/>
       </c>
       <c r="E147">
-        <f>'Game Data'!E147/'Game Data'!G147</f>
+        <f>'Game'!E147/'Game'!G147</f>
         <v/>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <f>'Game Data'!A148</f>
+        <f>'Game'!A148</f>
         <v/>
       </c>
       <c r="B148">
-        <f>'Game Data'!B148/'Game Data'!C148</f>
+        <f>'Game'!B148/'Game'!C148</f>
         <v/>
       </c>
       <c r="C148">
-        <f>'Game Data'!D148/'Game Data'!E148</f>
+        <f>'Game'!D148/'Game'!E148</f>
         <v/>
       </c>
       <c r="D148">
-        <f>'Game Data'!F148/'Game Data'!G148</f>
+        <f>'Game'!F148/'Game'!G148</f>
         <v/>
       </c>
       <c r="E148">
-        <f>'Game Data'!E148/'Game Data'!G148</f>
+        <f>'Game'!E148/'Game'!G148</f>
         <v/>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <f>'Game Data'!A149</f>
+        <f>'Game'!A149</f>
         <v/>
       </c>
       <c r="B149">
-        <f>'Game Data'!B149/'Game Data'!C149</f>
+        <f>'Game'!B149/'Game'!C149</f>
         <v/>
       </c>
       <c r="C149">
-        <f>'Game Data'!D149/'Game Data'!E149</f>
+        <f>'Game'!D149/'Game'!E149</f>
         <v/>
       </c>
       <c r="D149">
-        <f>'Game Data'!F149/'Game Data'!G149</f>
+        <f>'Game'!F149/'Game'!G149</f>
         <v/>
       </c>
       <c r="E149">
-        <f>'Game Data'!E149/'Game Data'!G149</f>
+        <f>'Game'!E149/'Game'!G149</f>
         <v/>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <f>'Game Data'!A150</f>
+        <f>'Game'!A150</f>
         <v/>
       </c>
       <c r="B150">
-        <f>'Game Data'!B150/'Game Data'!C150</f>
+        <f>'Game'!B150/'Game'!C150</f>
         <v/>
       </c>
       <c r="C150">
-        <f>'Game Data'!D150/'Game Data'!E150</f>
+        <f>'Game'!D150/'Game'!E150</f>
         <v/>
       </c>
       <c r="D150">
-        <f>'Game Data'!F150/'Game Data'!G150</f>
+        <f>'Game'!F150/'Game'!G150</f>
         <v/>
       </c>
       <c r="E150">
-        <f>'Game Data'!E150/'Game Data'!G150</f>
+        <f>'Game'!E150/'Game'!G150</f>
         <v/>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <f>'Game Data'!A151</f>
+        <f>'Game'!A151</f>
         <v/>
       </c>
       <c r="B151">
-        <f>'Game Data'!B151/'Game Data'!C151</f>
+        <f>'Game'!B151/'Game'!C151</f>
         <v/>
       </c>
       <c r="C151">
-        <f>'Game Data'!D151/'Game Data'!E151</f>
+        <f>'Game'!D151/'Game'!E151</f>
         <v/>
       </c>
       <c r="D151">
-        <f>'Game Data'!F151/'Game Data'!G151</f>
+        <f>'Game'!F151/'Game'!G151</f>
         <v/>
       </c>
       <c r="E151">
-        <f>'Game Data'!E151/'Game Data'!G151</f>
+        <f>'Game'!E151/'Game'!G151</f>
         <v/>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <f>'Game Data'!A152</f>
+        <f>'Game'!A152</f>
         <v/>
       </c>
       <c r="B152">
-        <f>'Game Data'!B152/'Game Data'!C152</f>
+        <f>'Game'!B152/'Game'!C152</f>
         <v/>
       </c>
       <c r="C152">
-        <f>'Game Data'!D152/'Game Data'!E152</f>
+        <f>'Game'!D152/'Game'!E152</f>
         <v/>
       </c>
       <c r="D152">
-        <f>'Game Data'!F152/'Game Data'!G152</f>
+        <f>'Game'!F152/'Game'!G152</f>
         <v/>
       </c>
       <c r="E152">
-        <f>'Game Data'!E152/'Game Data'!G152</f>
+        <f>'Game'!E152/'Game'!G152</f>
         <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <f>'Game Data'!A153</f>
+        <f>'Game'!A153</f>
         <v/>
       </c>
       <c r="B153">
-        <f>'Game Data'!B153/'Game Data'!C153</f>
+        <f>'Game'!B153/'Game'!C153</f>
         <v/>
       </c>
       <c r="C153">
-        <f>'Game Data'!D153/'Game Data'!E153</f>
+        <f>'Game'!D153/'Game'!E153</f>
         <v/>
       </c>
       <c r="D153">
-        <f>'Game Data'!F153/'Game Data'!G153</f>
+        <f>'Game'!F153/'Game'!G153</f>
         <v/>
       </c>
       <c r="E153">
-        <f>'Game Data'!E153/'Game Data'!G153</f>
+        <f>'Game'!E153/'Game'!G153</f>
         <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <f>'Game Data'!A154</f>
+        <f>'Game'!A154</f>
         <v/>
       </c>
       <c r="B154">
-        <f>'Game Data'!B154/'Game Data'!C154</f>
+        <f>'Game'!B154/'Game'!C154</f>
         <v/>
       </c>
       <c r="C154">
-        <f>'Game Data'!D154/'Game Data'!E154</f>
+        <f>'Game'!D154/'Game'!E154</f>
         <v/>
       </c>
       <c r="D154">
-        <f>'Game Data'!F154/'Game Data'!G154</f>
+        <f>'Game'!F154/'Game'!G154</f>
         <v/>
       </c>
       <c r="E154">
-        <f>'Game Data'!E154/'Game Data'!G154</f>
+        <f>'Game'!E154/'Game'!G154</f>
         <v/>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <f>'Game Data'!A155</f>
+        <f>'Game'!A155</f>
         <v/>
       </c>
       <c r="B155">
-        <f>'Game Data'!B155/'Game Data'!C155</f>
+        <f>'Game'!B155/'Game'!C155</f>
         <v/>
       </c>
       <c r="C155">
-        <f>'Game Data'!D155/'Game Data'!E155</f>
+        <f>'Game'!D155/'Game'!E155</f>
         <v/>
       </c>
       <c r="D155">
-        <f>'Game Data'!F155/'Game Data'!G155</f>
+        <f>'Game'!F155/'Game'!G155</f>
         <v/>
       </c>
       <c r="E155">
-        <f>'Game Data'!E155/'Game Data'!G155</f>
+        <f>'Game'!E155/'Game'!G155</f>
         <v/>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <f>'Game Data'!A156</f>
+        <f>'Game'!A156</f>
         <v/>
       </c>
       <c r="B156">
-        <f>'Game Data'!B156/'Game Data'!C156</f>
+        <f>'Game'!B156/'Game'!C156</f>
         <v/>
       </c>
       <c r="C156">
-        <f>'Game Data'!D156/'Game Data'!E156</f>
+        <f>'Game'!D156/'Game'!E156</f>
         <v/>
       </c>
       <c r="D156">
-        <f>'Game Data'!F156/'Game Data'!G156</f>
+        <f>'Game'!F156/'Game'!G156</f>
         <v/>
       </c>
       <c r="E156">
-        <f>'Game Data'!E156/'Game Data'!G156</f>
+        <f>'Game'!E156/'Game'!G156</f>
         <v/>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <f>'Game Data'!A157</f>
+        <f>'Game'!A157</f>
         <v/>
       </c>
       <c r="B157">
-        <f>'Game Data'!B157/'Game Data'!C157</f>
+        <f>'Game'!B157/'Game'!C157</f>
         <v/>
       </c>
       <c r="C157">
-        <f>'Game Data'!D157/'Game Data'!E157</f>
+        <f>'Game'!D157/'Game'!E157</f>
         <v/>
       </c>
       <c r="D157">
-        <f>'Game Data'!F157/'Game Data'!G157</f>
+        <f>'Game'!F157/'Game'!G157</f>
         <v/>
       </c>
       <c r="E157">
-        <f>'Game Data'!E157/'Game Data'!G157</f>
+        <f>'Game'!E157/'Game'!G157</f>
         <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <f>'Game Data'!A158</f>
+        <f>'Game'!A158</f>
         <v/>
       </c>
       <c r="B158">
-        <f>'Game Data'!B158/'Game Data'!C158</f>
+        <f>'Game'!B158/'Game'!C158</f>
         <v/>
       </c>
       <c r="C158">
-        <f>'Game Data'!D158/'Game Data'!E158</f>
+        <f>'Game'!D158/'Game'!E158</f>
         <v/>
       </c>
       <c r="D158">
-        <f>'Game Data'!F158/'Game Data'!G158</f>
+        <f>'Game'!F158/'Game'!G158</f>
         <v/>
       </c>
       <c r="E158">
-        <f>'Game Data'!E158/'Game Data'!G158</f>
+        <f>'Game'!E158/'Game'!G158</f>
         <v/>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <f>'Game Data'!A159</f>
+        <f>'Game'!A159</f>
         <v/>
       </c>
       <c r="B159">
-        <f>'Game Data'!B159/'Game Data'!C159</f>
+        <f>'Game'!B159/'Game'!C159</f>
         <v/>
       </c>
       <c r="C159">
-        <f>'Game Data'!D159/'Game Data'!E159</f>
+        <f>'Game'!D159/'Game'!E159</f>
         <v/>
       </c>
       <c r="D159">
-        <f>'Game Data'!F159/'Game Data'!G159</f>
+        <f>'Game'!F159/'Game'!G159</f>
         <v/>
       </c>
       <c r="E159">
-        <f>'Game Data'!E159/'Game Data'!G159</f>
+        <f>'Game'!E159/'Game'!G159</f>
         <v/>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <f>'Game Data'!A160</f>
+        <f>'Game'!A160</f>
         <v/>
       </c>
       <c r="B160">
-        <f>'Game Data'!B160/'Game Data'!C160</f>
+        <f>'Game'!B160/'Game'!C160</f>
         <v/>
       </c>
       <c r="C160">
-        <f>'Game Data'!D160/'Game Data'!E160</f>
+        <f>'Game'!D160/'Game'!E160</f>
         <v/>
       </c>
       <c r="D160">
-        <f>'Game Data'!F160/'Game Data'!G160</f>
+        <f>'Game'!F160/'Game'!G160</f>
         <v/>
       </c>
       <c r="E160">
-        <f>'Game Data'!E160/'Game Data'!G160</f>
+        <f>'Game'!E160/'Game'!G160</f>
         <v/>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <f>'Game Data'!A161</f>
+        <f>'Game'!A161</f>
         <v/>
       </c>
       <c r="B161">
-        <f>'Game Data'!B161/'Game Data'!C161</f>
+        <f>'Game'!B161/'Game'!C161</f>
         <v/>
       </c>
       <c r="C161">
-        <f>'Game Data'!D161/'Game Data'!E161</f>
+        <f>'Game'!D161/'Game'!E161</f>
         <v/>
       </c>
       <c r="D161">
-        <f>'Game Data'!F161/'Game Data'!G161</f>
+        <f>'Game'!F161/'Game'!G161</f>
         <v/>
       </c>
       <c r="E161">
-        <f>'Game Data'!E161/'Game Data'!G161</f>
+        <f>'Game'!E161/'Game'!G161</f>
         <v/>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <f>'Game Data'!A162</f>
+        <f>'Game'!A162</f>
         <v/>
       </c>
       <c r="B162">
-        <f>'Game Data'!B162/'Game Data'!C162</f>
+        <f>'Game'!B162/'Game'!C162</f>
         <v/>
       </c>
       <c r="C162">
-        <f>'Game Data'!D162/'Game Data'!E162</f>
+        <f>'Game'!D162/'Game'!E162</f>
         <v/>
       </c>
       <c r="D162">
-        <f>'Game Data'!F162/'Game Data'!G162</f>
+        <f>'Game'!F162/'Game'!G162</f>
         <v/>
       </c>
       <c r="E162">
-        <f>'Game Data'!E162/'Game Data'!G162</f>
+        <f>'Game'!E162/'Game'!G162</f>
         <v/>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <f>'Game Data'!A163</f>
+        <f>'Game'!A163</f>
         <v/>
       </c>
       <c r="B163">
-        <f>'Game Data'!B163/'Game Data'!C163</f>
+        <f>'Game'!B163/'Game'!C163</f>
         <v/>
       </c>
       <c r="C163">
-        <f>'Game Data'!D163/'Game Data'!E163</f>
+        <f>'Game'!D163/'Game'!E163</f>
         <v/>
       </c>
       <c r="D163">
-        <f>'Game Data'!F163/'Game Data'!G163</f>
+        <f>'Game'!F163/'Game'!G163</f>
         <v/>
       </c>
       <c r="E163">
-        <f>'Game Data'!E163/'Game Data'!G163</f>
+        <f>'Game'!E163/'Game'!G163</f>
         <v/>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <f>'Game Data'!A164</f>
+        <f>'Game'!A164</f>
         <v/>
       </c>
       <c r="B164">
-        <f>'Game Data'!B164/'Game Data'!C164</f>
+        <f>'Game'!B164/'Game'!C164</f>
         <v/>
       </c>
       <c r="C164">
-        <f>'Game Data'!D164/'Game Data'!E164</f>
+        <f>'Game'!D164/'Game'!E164</f>
         <v/>
       </c>
       <c r="D164">
-        <f>'Game Data'!F164/'Game Data'!G164</f>
+        <f>'Game'!F164/'Game'!G164</f>
         <v/>
       </c>
       <c r="E164">
-        <f>'Game Data'!E164/'Game Data'!G164</f>
+        <f>'Game'!E164/'Game'!G164</f>
         <v/>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <f>'Game Data'!A165</f>
+        <f>'Game'!A165</f>
         <v/>
       </c>
       <c r="B165">
-        <f>'Game Data'!B165/'Game Data'!C165</f>
+        <f>'Game'!B165/'Game'!C165</f>
         <v/>
       </c>
       <c r="C165">
-        <f>'Game Data'!D165/'Game Data'!E165</f>
+        <f>'Game'!D165/'Game'!E165</f>
         <v/>
       </c>
       <c r="D165">
-        <f>'Game Data'!F165/'Game Data'!G165</f>
+        <f>'Game'!F165/'Game'!G165</f>
         <v/>
       </c>
       <c r="E165">
-        <f>'Game Data'!E165/'Game Data'!G165</f>
+        <f>'Game'!E165/'Game'!G165</f>
         <v/>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <f>'Game Data'!A166</f>
+        <f>'Game'!A166</f>
         <v/>
       </c>
       <c r="B166">
-        <f>'Game Data'!B166/'Game Data'!C166</f>
+        <f>'Game'!B166/'Game'!C166</f>
         <v/>
       </c>
       <c r="C166">
-        <f>'Game Data'!D166/'Game Data'!E166</f>
+        <f>'Game'!D166/'Game'!E166</f>
         <v/>
       </c>
       <c r="D166">
-        <f>'Game Data'!F166/'Game Data'!G166</f>
+        <f>'Game'!F166/'Game'!G166</f>
         <v/>
       </c>
       <c r="E166">
-        <f>'Game Data'!E166/'Game Data'!G166</f>
+        <f>'Game'!E166/'Game'!G166</f>
         <v/>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <f>'Game Data'!A167</f>
+        <f>'Game'!A167</f>
         <v/>
       </c>
       <c r="B167">
-        <f>'Game Data'!B167/'Game Data'!C167</f>
+        <f>'Game'!B167/'Game'!C167</f>
         <v/>
       </c>
       <c r="C167">
-        <f>'Game Data'!D167/'Game Data'!E167</f>
+        <f>'Game'!D167/'Game'!E167</f>
         <v/>
       </c>
       <c r="D167">
-        <f>'Game Data'!F167/'Game Data'!G167</f>
+        <f>'Game'!F167/'Game'!G167</f>
         <v/>
       </c>
       <c r="E167">
-        <f>'Game Data'!E167/'Game Data'!G167</f>
+        <f>'Game'!E167/'Game'!G167</f>
         <v/>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <f>'Game Data'!A168</f>
+        <f>'Game'!A168</f>
         <v/>
       </c>
       <c r="B168">
-        <f>'Game Data'!B168/'Game Data'!C168</f>
+        <f>'Game'!B168/'Game'!C168</f>
         <v/>
       </c>
       <c r="C168">
-        <f>'Game Data'!D168/'Game Data'!E168</f>
+        <f>'Game'!D168/'Game'!E168</f>
         <v/>
       </c>
       <c r="D168">
-        <f>'Game Data'!F168/'Game Data'!G168</f>
+        <f>'Game'!F168/'Game'!G168</f>
         <v/>
       </c>
       <c r="E168">
-        <f>'Game Data'!E168/'Game Data'!G168</f>
+        <f>'Game'!E168/'Game'!G168</f>
         <v/>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <f>'Game Data'!A169</f>
+        <f>'Game'!A169</f>
         <v/>
       </c>
       <c r="B169">
-        <f>'Game Data'!B169/'Game Data'!C169</f>
+        <f>'Game'!B169/'Game'!C169</f>
         <v/>
       </c>
       <c r="C169">
-        <f>'Game Data'!D169/'Game Data'!E169</f>
+        <f>'Game'!D169/'Game'!E169</f>
         <v/>
       </c>
       <c r="D169">
-        <f>'Game Data'!F169/'Game Data'!G169</f>
+        <f>'Game'!F169/'Game'!G169</f>
         <v/>
       </c>
       <c r="E169">
-        <f>'Game Data'!E169/'Game Data'!G169</f>
+        <f>'Game'!E169/'Game'!G169</f>
         <v/>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <f>'Game Data'!A170</f>
+        <f>'Game'!A170</f>
         <v/>
       </c>
       <c r="B170">
-        <f>'Game Data'!B170/'Game Data'!C170</f>
+        <f>'Game'!B170/'Game'!C170</f>
         <v/>
       </c>
       <c r="C170">
-        <f>'Game Data'!D170/'Game Data'!E170</f>
+        <f>'Game'!D170/'Game'!E170</f>
         <v/>
       </c>
       <c r="D170">
-        <f>'Game Data'!F170/'Game Data'!G170</f>
+        <f>'Game'!F170/'Game'!G170</f>
         <v/>
       </c>
       <c r="E170">
-        <f>'Game Data'!E170/'Game Data'!G170</f>
+        <f>'Game'!E170/'Game'!G170</f>
         <v/>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <f>'Game Data'!A171</f>
+        <f>'Game'!A171</f>
         <v/>
       </c>
       <c r="B171">
-        <f>'Game Data'!B171/'Game Data'!C171</f>
+        <f>'Game'!B171/'Game'!C171</f>
         <v/>
       </c>
       <c r="C171">
-        <f>'Game Data'!D171/'Game Data'!E171</f>
+        <f>'Game'!D171/'Game'!E171</f>
         <v/>
       </c>
       <c r="D171">
-        <f>'Game Data'!F171/'Game Data'!G171</f>
+        <f>'Game'!F171/'Game'!G171</f>
         <v/>
       </c>
       <c r="E171">
-        <f>'Game Data'!E171/'Game Data'!G171</f>
+        <f>'Game'!E171/'Game'!G171</f>
         <v/>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <f>'Game Data'!A172</f>
+        <f>'Game'!A172</f>
         <v/>
       </c>
       <c r="B172">
-        <f>'Game Data'!B172/'Game Data'!C172</f>
+        <f>'Game'!B172/'Game'!C172</f>
         <v/>
       </c>
       <c r="C172">
-        <f>'Game Data'!D172/'Game Data'!E172</f>
+        <f>'Game'!D172/'Game'!E172</f>
         <v/>
       </c>
       <c r="D172">
-        <f>'Game Data'!F172/'Game Data'!G172</f>
+        <f>'Game'!F172/'Game'!G172</f>
         <v/>
       </c>
       <c r="E172">
-        <f>'Game Data'!E172/'Game Data'!G172</f>
+        <f>'Game'!E172/'Game'!G172</f>
         <v/>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <f>'Game Data'!A173</f>
+        <f>'Game'!A173</f>
         <v/>
       </c>
       <c r="B173">
-        <f>'Game Data'!B173/'Game Data'!C173</f>
+        <f>'Game'!B173/'Game'!C173</f>
         <v/>
       </c>
       <c r="C173">
-        <f>'Game Data'!D173/'Game Data'!E173</f>
+        <f>'Game'!D173/'Game'!E173</f>
         <v/>
       </c>
       <c r="D173">
-        <f>'Game Data'!F173/'Game Data'!G173</f>
+        <f>'Game'!F173/'Game'!G173</f>
         <v/>
       </c>
       <c r="E173">
-        <f>'Game Data'!E173/'Game Data'!G173</f>
+        <f>'Game'!E173/'Game'!G173</f>
         <v/>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <f>'Game Data'!A174</f>
+        <f>'Game'!A174</f>
         <v/>
       </c>
       <c r="B174">
-        <f>'Game Data'!B174/'Game Data'!C174</f>
+        <f>'Game'!B174/'Game'!C174</f>
         <v/>
       </c>
       <c r="C174">
-        <f>'Game Data'!D174/'Game Data'!E174</f>
+        <f>'Game'!D174/'Game'!E174</f>
         <v/>
       </c>
       <c r="D174">
-        <f>'Game Data'!F174/'Game Data'!G174</f>
+        <f>'Game'!F174/'Game'!G174</f>
         <v/>
       </c>
       <c r="E174">
-        <f>'Game Data'!E174/'Game Data'!G174</f>
+        <f>'Game'!E174/'Game'!G174</f>
         <v/>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <f>'Game Data'!A175</f>
+        <f>'Game'!A175</f>
         <v/>
       </c>
       <c r="B175">
-        <f>'Game Data'!B175/'Game Data'!C175</f>
+        <f>'Game'!B175/'Game'!C175</f>
         <v/>
       </c>
       <c r="C175">
-        <f>'Game Data'!D175/'Game Data'!E175</f>
+        <f>'Game'!D175/'Game'!E175</f>
         <v/>
       </c>
       <c r="D175">
-        <f>'Game Data'!F175/'Game Data'!G175</f>
+        <f>'Game'!F175/'Game'!G175</f>
         <v/>
       </c>
       <c r="E175">
-        <f>'Game Data'!E175/'Game Data'!G175</f>
+        <f>'Game'!E175/'Game'!G175</f>
         <v/>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <f>'Game Data'!A176</f>
+        <f>'Game'!A176</f>
         <v/>
       </c>
       <c r="B176">
-        <f>'Game Data'!B176/'Game Data'!C176</f>
+        <f>'Game'!B176/'Game'!C176</f>
         <v/>
       </c>
       <c r="C176">
-        <f>'Game Data'!D176/'Game Data'!E176</f>
+        <f>'Game'!D176/'Game'!E176</f>
         <v/>
       </c>
       <c r="D176">
-        <f>'Game Data'!F176/'Game Data'!G176</f>
+        <f>'Game'!F176/'Game'!G176</f>
         <v/>
       </c>
       <c r="E176">
-        <f>'Game Data'!E176/'Game Data'!G176</f>
+        <f>'Game'!E176/'Game'!G176</f>
         <v/>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <f>'Game Data'!A177</f>
+        <f>'Game'!A177</f>
         <v/>
       </c>
       <c r="B177">
-        <f>'Game Data'!B177/'Game Data'!C177</f>
+        <f>'Game'!B177/'Game'!C177</f>
         <v/>
       </c>
       <c r="C177">
-        <f>'Game Data'!D177/'Game Data'!E177</f>
+        <f>'Game'!D177/'Game'!E177</f>
         <v/>
       </c>
       <c r="D177">
-        <f>'Game Data'!F177/'Game Data'!G177</f>
+        <f>'Game'!F177/'Game'!G177</f>
         <v/>
       </c>
       <c r="E177">
-        <f>'Game Data'!E177/'Game Data'!G177</f>
+        <f>'Game'!E177/'Game'!G177</f>
         <v/>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <f>'Game Data'!A178</f>
+        <f>'Game'!A178</f>
         <v/>
       </c>
       <c r="B178">
-        <f>'Game Data'!B178/'Game Data'!C178</f>
+        <f>'Game'!B178/'Game'!C178</f>
         <v/>
       </c>
       <c r="C178">
-        <f>'Game Data'!D178/'Game Data'!E178</f>
+        <f>'Game'!D178/'Game'!E178</f>
         <v/>
       </c>
       <c r="D178">
-        <f>'Game Data'!F178/'Game Data'!G178</f>
+        <f>'Game'!F178/'Game'!G178</f>
         <v/>
       </c>
       <c r="E178">
-        <f>'Game Data'!E178/'Game Data'!G178</f>
+        <f>'Game'!E178/'Game'!G178</f>
         <v/>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <f>'Game Data'!A179</f>
+        <f>'Game'!A179</f>
         <v/>
       </c>
       <c r="B179">
-        <f>'Game Data'!B179/'Game Data'!C179</f>
+        <f>'Game'!B179/'Game'!C179</f>
         <v/>
       </c>
       <c r="C179">
-        <f>'Game Data'!D179/'Game Data'!E179</f>
+        <f>'Game'!D179/'Game'!E179</f>
         <v/>
       </c>
       <c r="D179">
-        <f>'Game Data'!F179/'Game Data'!G179</f>
+        <f>'Game'!F179/'Game'!G179</f>
         <v/>
       </c>
       <c r="E179">
-        <f>'Game Data'!E179/'Game Data'!G179</f>
+        <f>'Game'!E179/'Game'!G179</f>
         <v/>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <f>'Game Data'!A180</f>
+        <f>'Game'!A180</f>
         <v/>
       </c>
       <c r="B180">
-        <f>'Game Data'!B180/'Game Data'!C180</f>
+        <f>'Game'!B180/'Game'!C180</f>
         <v/>
       </c>
       <c r="C180">
-        <f>'Game Data'!D180/'Game Data'!E180</f>
+        <f>'Game'!D180/'Game'!E180</f>
         <v/>
       </c>
       <c r="D180">
-        <f>'Game Data'!F180/'Game Data'!G180</f>
+        <f>'Game'!F180/'Game'!G180</f>
         <v/>
       </c>
       <c r="E180">
-        <f>'Game Data'!E180/'Game Data'!G180</f>
+        <f>'Game'!E180/'Game'!G180</f>
         <v/>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <f>'Game Data'!A181</f>
+        <f>'Game'!A181</f>
         <v/>
       </c>
       <c r="B181">
-        <f>'Game Data'!B181/'Game Data'!C181</f>
+        <f>'Game'!B181/'Game'!C181</f>
         <v/>
       </c>
       <c r="C181">
-        <f>'Game Data'!D181/'Game Data'!E181</f>
+        <f>'Game'!D181/'Game'!E181</f>
         <v/>
       </c>
       <c r="D181">
-        <f>'Game Data'!F181/'Game Data'!G181</f>
+        <f>'Game'!F181/'Game'!G181</f>
         <v/>
       </c>
       <c r="E181">
-        <f>'Game Data'!E181/'Game Data'!G181</f>
+        <f>'Game'!E181/'Game'!G181</f>
         <v/>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <f>'Game Data'!A182</f>
+        <f>'Game'!A182</f>
         <v/>
       </c>
       <c r="B182">
-        <f>'Game Data'!B182/'Game Data'!C182</f>
+        <f>'Game'!B182/'Game'!C182</f>
         <v/>
       </c>
       <c r="C182">
-        <f>'Game Data'!D182/'Game Data'!E182</f>
+        <f>'Game'!D182/'Game'!E182</f>
         <v/>
       </c>
       <c r="D182">
-        <f>'Game Data'!F182/'Game Data'!G182</f>
+        <f>'Game'!F182/'Game'!G182</f>
         <v/>
       </c>
       <c r="E182">
-        <f>'Game Data'!E182/'Game Data'!G182</f>
+        <f>'Game'!E182/'Game'!G182</f>
         <v/>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <f>'Game Data'!A183</f>
+        <f>'Game'!A183</f>
         <v/>
       </c>
       <c r="B183">
-        <f>'Game Data'!B183/'Game Data'!C183</f>
+        <f>'Game'!B183/'Game'!C183</f>
         <v/>
       </c>
       <c r="C183">
-        <f>'Game Data'!D183/'Game Data'!E183</f>
+        <f>'Game'!D183/'Game'!E183</f>
         <v/>
       </c>
       <c r="D183">
-        <f>'Game Data'!F183/'Game Data'!G183</f>
+        <f>'Game'!F183/'Game'!G183</f>
         <v/>
       </c>
       <c r="E183">
-        <f>'Game Data'!E183/'Game Data'!G183</f>
+        <f>'Game'!E183/'Game'!G183</f>
         <v/>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <f>'Game Data'!A184</f>
+        <f>'Game'!A184</f>
         <v/>
       </c>
       <c r="B184">
-        <f>'Game Data'!B184/'Game Data'!C184</f>
+        <f>'Game'!B184/'Game'!C184</f>
         <v/>
       </c>
       <c r="C184">
-        <f>'Game Data'!D184/'Game Data'!E184</f>
+        <f>'Game'!D184/'Game'!E184</f>
         <v/>
       </c>
       <c r="D184">
-        <f>'Game Data'!F184/'Game Data'!G184</f>
+        <f>'Game'!F184/'Game'!G184</f>
         <v/>
       </c>
       <c r="E184">
-        <f>'Game Data'!E184/'Game Data'!G184</f>
+        <f>'Game'!E184/'Game'!G184</f>
         <v/>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <f>'Game Data'!A185</f>
+        <f>'Game'!A185</f>
         <v/>
       </c>
       <c r="B185">
-        <f>'Game Data'!B185/'Game Data'!C185</f>
+        <f>'Game'!B185/'Game'!C185</f>
         <v/>
       </c>
       <c r="C185">
-        <f>'Game Data'!D185/'Game Data'!E185</f>
+        <f>'Game'!D185/'Game'!E185</f>
         <v/>
       </c>
       <c r="D185">
-        <f>'Game Data'!F185/'Game Data'!G185</f>
+        <f>'Game'!F185/'Game'!G185</f>
         <v/>
       </c>
       <c r="E185">
-        <f>'Game Data'!E185/'Game Data'!G185</f>
+        <f>'Game'!E185/'Game'!G185</f>
         <v/>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <f>'Game Data'!A186</f>
+        <f>'Game'!A186</f>
         <v/>
       </c>
       <c r="B186">
-        <f>'Game Data'!B186/'Game Data'!C186</f>
+        <f>'Game'!B186/'Game'!C186</f>
         <v/>
       </c>
       <c r="C186">
-        <f>'Game Data'!D186/'Game Data'!E186</f>
+        <f>'Game'!D186/'Game'!E186</f>
         <v/>
       </c>
       <c r="D186">
-        <f>'Game Data'!F186/'Game Data'!G186</f>
+        <f>'Game'!F186/'Game'!G186</f>
         <v/>
       </c>
       <c r="E186">
-        <f>'Game Data'!E186/'Game Data'!G186</f>
+        <f>'Game'!E186/'Game'!G186</f>
         <v/>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <f>'Game Data'!A187</f>
+        <f>'Game'!A187</f>
         <v/>
       </c>
       <c r="B187">
-        <f>'Game Data'!B187/'Game Data'!C187</f>
+        <f>'Game'!B187/'Game'!C187</f>
         <v/>
       </c>
       <c r="C187">
-        <f>'Game Data'!D187/'Game Data'!E187</f>
+        <f>'Game'!D187/'Game'!E187</f>
         <v/>
       </c>
       <c r="D187">
-        <f>'Game Data'!F187/'Game Data'!G187</f>
+        <f>'Game'!F187/'Game'!G187</f>
         <v/>
       </c>
       <c r="E187">
-        <f>'Game Data'!E187/'Game Data'!G187</f>
+        <f>'Game'!E187/'Game'!G187</f>
         <v/>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <f>'Game Data'!A188</f>
+        <f>'Game'!A188</f>
         <v/>
       </c>
       <c r="B188">
-        <f>'Game Data'!B188/'Game Data'!C188</f>
+        <f>'Game'!B188/'Game'!C188</f>
         <v/>
       </c>
       <c r="C188">
-        <f>'Game Data'!D188/'Game Data'!E188</f>
+        <f>'Game'!D188/'Game'!E188</f>
         <v/>
       </c>
       <c r="D188">
-        <f>'Game Data'!F188/'Game Data'!G188</f>
+        <f>'Game'!F188/'Game'!G188</f>
         <v/>
       </c>
       <c r="E188">
-        <f>'Game Data'!E188/'Game Data'!G188</f>
+        <f>'Game'!E188/'Game'!G188</f>
         <v/>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <f>'Game Data'!A189</f>
+        <f>'Game'!A189</f>
         <v/>
       </c>
       <c r="B189">
-        <f>'Game Data'!B189/'Game Data'!C189</f>
+        <f>'Game'!B189/'Game'!C189</f>
         <v/>
       </c>
       <c r="C189">
-        <f>'Game Data'!D189/'Game Data'!E189</f>
+        <f>'Game'!D189/'Game'!E189</f>
         <v/>
       </c>
       <c r="D189">
-        <f>'Game Data'!F189/'Game Data'!G189</f>
+        <f>'Game'!F189/'Game'!G189</f>
         <v/>
       </c>
       <c r="E189">
-        <f>'Game Data'!E189/'Game Data'!G189</f>
+        <f>'Game'!E189/'Game'!G189</f>
         <v/>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <f>'Game Data'!A190</f>
+        <f>'Game'!A190</f>
         <v/>
       </c>
       <c r="B190">
-        <f>'Game Data'!B190/'Game Data'!C190</f>
+        <f>'Game'!B190/'Game'!C190</f>
         <v/>
       </c>
       <c r="C190">
-        <f>'Game Data'!D190/'Game Data'!E190</f>
+        <f>'Game'!D190/'Game'!E190</f>
         <v/>
       </c>
       <c r="D190">
-        <f>'Game Data'!F190/'Game Data'!G190</f>
+        <f>'Game'!F190/'Game'!G190</f>
         <v/>
       </c>
       <c r="E190">
-        <f>'Game Data'!E190/'Game Data'!G190</f>
+        <f>'Game'!E190/'Game'!G190</f>
         <v/>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <f>'Game Data'!A191</f>
+        <f>'Game'!A191</f>
         <v/>
       </c>
       <c r="B191">
-        <f>'Game Data'!B191/'Game Data'!C191</f>
+        <f>'Game'!B191/'Game'!C191</f>
         <v/>
       </c>
       <c r="C191">
-        <f>'Game Data'!D191/'Game Data'!E191</f>
+        <f>'Game'!D191/'Game'!E191</f>
         <v/>
       </c>
       <c r="D191">
-        <f>'Game Data'!F191/'Game Data'!G191</f>
+        <f>'Game'!F191/'Game'!G191</f>
         <v/>
       </c>
       <c r="E191">
-        <f>'Game Data'!E191/'Game Data'!G191</f>
+        <f>'Game'!E191/'Game'!G191</f>
         <v/>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <f>'Game Data'!A192</f>
+        <f>'Game'!A192</f>
         <v/>
       </c>
       <c r="B192">
-        <f>'Game Data'!B192/'Game Data'!C192</f>
+        <f>'Game'!B192/'Game'!C192</f>
         <v/>
       </c>
       <c r="C192">
-        <f>'Game Data'!D192/'Game Data'!E192</f>
+        <f>'Game'!D192/'Game'!E192</f>
         <v/>
       </c>
       <c r="D192">
-        <f>'Game Data'!F192/'Game Data'!G192</f>
+        <f>'Game'!F192/'Game'!G192</f>
         <v/>
       </c>
       <c r="E192">
-        <f>'Game Data'!E192/'Game Data'!G192</f>
+        <f>'Game'!E192/'Game'!G192</f>
         <v/>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <f>'Game Data'!A193</f>
+        <f>'Game'!A193</f>
         <v/>
       </c>
       <c r="B193">
-        <f>'Game Data'!B193/'Game Data'!C193</f>
+        <f>'Game'!B193/'Game'!C193</f>
         <v/>
       </c>
       <c r="C193">
-        <f>'Game Data'!D193/'Game Data'!E193</f>
+        <f>'Game'!D193/'Game'!E193</f>
         <v/>
       </c>
       <c r="D193">
-        <f>'Game Data'!F193/'Game Data'!G193</f>
+        <f>'Game'!F193/'Game'!G193</f>
         <v/>
       </c>
       <c r="E193">
-        <f>'Game Data'!E193/'Game Data'!G193</f>
+        <f>'Game'!E193/'Game'!G193</f>
         <v/>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <f>'Game Data'!A194</f>
+        <f>'Game'!A194</f>
         <v/>
       </c>
       <c r="B194">
-        <f>'Game Data'!B194/'Game Data'!C194</f>
+        <f>'Game'!B194/'Game'!C194</f>
         <v/>
       </c>
       <c r="C194">
-        <f>'Game Data'!D194/'Game Data'!E194</f>
+        <f>'Game'!D194/'Game'!E194</f>
         <v/>
       </c>
       <c r="D194">
-        <f>'Game Data'!F194/'Game Data'!G194</f>
+        <f>'Game'!F194/'Game'!G194</f>
         <v/>
       </c>
       <c r="E194">
-        <f>'Game Data'!E194/'Game Data'!G194</f>
+        <f>'Game'!E194/'Game'!G194</f>
         <v/>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <f>'Game Data'!A195</f>
+        <f>'Game'!A195</f>
         <v/>
       </c>
       <c r="B195">
-        <f>'Game Data'!B195/'Game Data'!C195</f>
+        <f>'Game'!B195/'Game'!C195</f>
         <v/>
       </c>
       <c r="C195">
-        <f>'Game Data'!D195/'Game Data'!E195</f>
+        <f>'Game'!D195/'Game'!E195</f>
         <v/>
       </c>
       <c r="D195">
-        <f>'Game Data'!F195/'Game Data'!G195</f>
+        <f>'Game'!F195/'Game'!G195</f>
         <v/>
       </c>
       <c r="E195">
-        <f>'Game Data'!E195/'Game Data'!G195</f>
+        <f>'Game'!E195/'Game'!G195</f>
         <v/>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <f>'Game Data'!A196</f>
+        <f>'Game'!A196</f>
         <v/>
       </c>
       <c r="B196">
-        <f>'Game Data'!B196/'Game Data'!C196</f>
+        <f>'Game'!B196/'Game'!C196</f>
         <v/>
       </c>
       <c r="C196">
-        <f>'Game Data'!D196/'Game Data'!E196</f>
+        <f>'Game'!D196/'Game'!E196</f>
         <v/>
       </c>
       <c r="D196">
-        <f>'Game Data'!F196/'Game Data'!G196</f>
+        <f>'Game'!F196/'Game'!G196</f>
         <v/>
       </c>
       <c r="E196">
-        <f>'Game Data'!E196/'Game Data'!G196</f>
+        <f>'Game'!E196/'Game'!G196</f>
         <v/>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <f>'Game Data'!A197</f>
+        <f>'Game'!A197</f>
         <v/>
       </c>
       <c r="B197">
-        <f>'Game Data'!B197/'Game Data'!C197</f>
+        <f>'Game'!B197/'Game'!C197</f>
         <v/>
       </c>
       <c r="C197">
-        <f>'Game Data'!D197/'Game Data'!E197</f>
+        <f>'Game'!D197/'Game'!E197</f>
         <v/>
       </c>
       <c r="D197">
-        <f>'Game Data'!F197/'Game Data'!G197</f>
+        <f>'Game'!F197/'Game'!G197</f>
         <v/>
       </c>
       <c r="E197">
-        <f>'Game Data'!E197/'Game Data'!G197</f>
+        <f>'Game'!E197/'Game'!G197</f>
         <v/>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <f>'Game Data'!A198</f>
+        <f>'Game'!A198</f>
         <v/>
       </c>
       <c r="B198">
-        <f>'Game Data'!B198/'Game Data'!C198</f>
+        <f>'Game'!B198/'Game'!C198</f>
         <v/>
       </c>
       <c r="C198">
-        <f>'Game Data'!D198/'Game Data'!E198</f>
+        <f>'Game'!D198/'Game'!E198</f>
         <v/>
       </c>
       <c r="D198">
-        <f>'Game Data'!F198/'Game Data'!G198</f>
+        <f>'Game'!F198/'Game'!G198</f>
         <v/>
       </c>
       <c r="E198">
-        <f>'Game Data'!E198/'Game Data'!G198</f>
+        <f>'Game'!E198/'Game'!G198</f>
         <v/>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <f>'Game Data'!A199</f>
+        <f>'Game'!A199</f>
         <v/>
       </c>
       <c r="B199">
-        <f>'Game Data'!B199/'Game Data'!C199</f>
+        <f>'Game'!B199/'Game'!C199</f>
         <v/>
       </c>
       <c r="C199">
-        <f>'Game Data'!D199/'Game Data'!E199</f>
+        <f>'Game'!D199/'Game'!E199</f>
         <v/>
       </c>
       <c r="D199">
-        <f>'Game Data'!F199/'Game Data'!G199</f>
+        <f>'Game'!F199/'Game'!G199</f>
         <v/>
       </c>
       <c r="E199">
-        <f>'Game Data'!E199/'Game Data'!G199</f>
+        <f>'Game'!E199/'Game'!G199</f>
         <v/>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <f>'Game Data'!A200</f>
+        <f>'Game'!A200</f>
         <v/>
       </c>
       <c r="B200">
-        <f>'Game Data'!B200/'Game Data'!C200</f>
+        <f>'Game'!B200/'Game'!C200</f>
         <v/>
       </c>
       <c r="C200">
-        <f>'Game Data'!D200/'Game Data'!E200</f>
+        <f>'Game'!D200/'Game'!E200</f>
         <v/>
       </c>
       <c r="D200">
-        <f>'Game Data'!F200/'Game Data'!G200</f>
+        <f>'Game'!F200/'Game'!G200</f>
         <v/>
       </c>
       <c r="E200">
-        <f>'Game Data'!E200/'Game Data'!G200</f>
+        <f>'Game'!E200/'Game'!G200</f>
         <v/>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <f>'Game Data'!A201</f>
+        <f>'Game'!A201</f>
         <v/>
       </c>
       <c r="B201">
-        <f>'Game Data'!B201/'Game Data'!C201</f>
+        <f>'Game'!B201/'Game'!C201</f>
         <v/>
       </c>
       <c r="C201">
-        <f>'Game Data'!D201/'Game Data'!E201</f>
+        <f>'Game'!D201/'Game'!E201</f>
         <v/>
       </c>
       <c r="D201">
-        <f>'Game Data'!F201/'Game Data'!G201</f>
+        <f>'Game'!F201/'Game'!G201</f>
         <v/>
       </c>
       <c r="E201">
-        <f>'Game Data'!E201/'Game Data'!G201</f>
+        <f>'Game'!E201/'Game'!G201</f>
         <v/>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <f>'Game Data'!A202</f>
+        <f>'Game'!A202</f>
         <v/>
       </c>
       <c r="B202">
-        <f>'Game Data'!B202/'Game Data'!C202</f>
+        <f>'Game'!B202/'Game'!C202</f>
         <v/>
       </c>
       <c r="C202">
-        <f>'Game Data'!D202/'Game Data'!E202</f>
+        <f>'Game'!D202/'Game'!E202</f>
         <v/>
       </c>
       <c r="D202">
-        <f>'Game Data'!F202/'Game Data'!G202</f>
+        <f>'Game'!F202/'Game'!G202</f>
         <v/>
       </c>
       <c r="E202">
-        <f>'Game Data'!E202/'Game Data'!G202</f>
+        <f>'Game'!E202/'Game'!G202</f>
         <v/>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <f>'Game Data'!A203</f>
+        <f>'Game'!A203</f>
         <v/>
       </c>
       <c r="B203">
-        <f>'Game Data'!B203/'Game Data'!C203</f>
+        <f>'Game'!B203/'Game'!C203</f>
         <v/>
       </c>
       <c r="C203">
-        <f>'Game Data'!D203/'Game Data'!E203</f>
+        <f>'Game'!D203/'Game'!E203</f>
         <v/>
       </c>
       <c r="D203">
-        <f>'Game Data'!F203/'Game Data'!G203</f>
+        <f>'Game'!F203/'Game'!G203</f>
         <v/>
       </c>
       <c r="E203">
-        <f>'Game Data'!E203/'Game Data'!G203</f>
+        <f>'Game'!E203/'Game'!G203</f>
         <v/>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <f>'Game Data'!A204</f>
+        <f>'Game'!A204</f>
         <v/>
       </c>
       <c r="B204">
-        <f>'Game Data'!B204/'Game Data'!C204</f>
+        <f>'Game'!B204/'Game'!C204</f>
         <v/>
       </c>
       <c r="C204">
-        <f>'Game Data'!D204/'Game Data'!E204</f>
+        <f>'Game'!D204/'Game'!E204</f>
         <v/>
       </c>
       <c r="D204">
-        <f>'Game Data'!F204/'Game Data'!G204</f>
+        <f>'Game'!F204/'Game'!G204</f>
         <v/>
       </c>
       <c r="E204">
-        <f>'Game Data'!E204/'Game Data'!G204</f>
+        <f>'Game'!E204/'Game'!G204</f>
         <v/>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <f>'Game Data'!A205</f>
+        <f>'Game'!A205</f>
         <v/>
       </c>
       <c r="B205">
-        <f>'Game Data'!B205/'Game Data'!C205</f>
+        <f>'Game'!B205/'Game'!C205</f>
         <v/>
       </c>
       <c r="C205">
-        <f>'Game Data'!D205/'Game Data'!E205</f>
+        <f>'Game'!D205/'Game'!E205</f>
         <v/>
       </c>
       <c r="D205">
-        <f>'Game Data'!F205/'Game Data'!G205</f>
+        <f>'Game'!F205/'Game'!G205</f>
         <v/>
       </c>
       <c r="E205">
-        <f>'Game Data'!E205/'Game Data'!G205</f>
+        <f>'Game'!E205/'Game'!G205</f>
         <v/>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <f>'Game Data'!A206</f>
+        <f>'Game'!A206</f>
         <v/>
       </c>
       <c r="B206">
-        <f>'Game Data'!B206/'Game Data'!C206</f>
+        <f>'Game'!B206/'Game'!C206</f>
         <v/>
       </c>
       <c r="C206">
-        <f>'Game Data'!D206/'Game Data'!E206</f>
+        <f>'Game'!D206/'Game'!E206</f>
         <v/>
       </c>
       <c r="D206">
-        <f>'Game Data'!F206/'Game Data'!G206</f>
+        <f>'Game'!F206/'Game'!G206</f>
         <v/>
       </c>
       <c r="E206">
-        <f>'Game Data'!E206/'Game Data'!G206</f>
+        <f>'Game'!E206/'Game'!G206</f>
         <v/>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <f>'Game Data'!A207</f>
+        <f>'Game'!A207</f>
         <v/>
       </c>
       <c r="B207">
-        <f>'Game Data'!B207/'Game Data'!C207</f>
+        <f>'Game'!B207/'Game'!C207</f>
         <v/>
       </c>
       <c r="C207">
-        <f>'Game Data'!D207/'Game Data'!E207</f>
+        <f>'Game'!D207/'Game'!E207</f>
         <v/>
       </c>
       <c r="D207">
-        <f>'Game Data'!F207/'Game Data'!G207</f>
+        <f>'Game'!F207/'Game'!G207</f>
         <v/>
       </c>
       <c r="E207">
-        <f>'Game Data'!E207/'Game Data'!G207</f>
+        <f>'Game'!E207/'Game'!G207</f>
         <v/>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <f>'Game Data'!A208</f>
+        <f>'Game'!A208</f>
         <v/>
       </c>
       <c r="B208">
-        <f>'Game Data'!B208/'Game Data'!C208</f>
+        <f>'Game'!B208/'Game'!C208</f>
         <v/>
       </c>
       <c r="C208">
-        <f>'Game Data'!D208/'Game Data'!E208</f>
+        <f>'Game'!D208/'Game'!E208</f>
         <v/>
       </c>
       <c r="D208">
-        <f>'Game Data'!F208/'Game Data'!G208</f>
+        <f>'Game'!F208/'Game'!G208</f>
         <v/>
       </c>
       <c r="E208">
-        <f>'Game Data'!E208/'Game Data'!G208</f>
+        <f>'Game'!E208/'Game'!G208</f>
         <v/>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <f>'Game Data'!A209</f>
+        <f>'Game'!A209</f>
         <v/>
       </c>
       <c r="B209">
-        <f>'Game Data'!B209/'Game Data'!C209</f>
+        <f>'Game'!B209/'Game'!C209</f>
         <v/>
       </c>
       <c r="C209">
-        <f>'Game Data'!D209/'Game Data'!E209</f>
+        <f>'Game'!D209/'Game'!E209</f>
         <v/>
       </c>
       <c r="D209">
-        <f>'Game Data'!F209/'Game Data'!G209</f>
+        <f>'Game'!F209/'Game'!G209</f>
         <v/>
       </c>
       <c r="E209">
-        <f>'Game Data'!E209/'Game Data'!G209</f>
+        <f>'Game'!E209/'Game'!G209</f>
         <v/>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <f>'Game Data'!A210</f>
+        <f>'Game'!A210</f>
         <v/>
       </c>
       <c r="B210">
-        <f>'Game Data'!B210/'Game Data'!C210</f>
+        <f>'Game'!B210/'Game'!C210</f>
         <v/>
       </c>
       <c r="C210">
-        <f>'Game Data'!D210/'Game Data'!E210</f>
+        <f>'Game'!D210/'Game'!E210</f>
         <v/>
       </c>
       <c r="D210">
-        <f>'Game Data'!F210/'Game Data'!G210</f>
+        <f>'Game'!F210/'Game'!G210</f>
         <v/>
       </c>
       <c r="E210">
-        <f>'Game Data'!E210/'Game Data'!G210</f>
+        <f>'Game'!E210/'Game'!G210</f>
         <v/>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <f>'Game Data'!A211</f>
+        <f>'Game'!A211</f>
         <v/>
       </c>
       <c r="B211">
-        <f>'Game Data'!B211/'Game Data'!C211</f>
+        <f>'Game'!B211/'Game'!C211</f>
         <v/>
       </c>
       <c r="C211">
-        <f>'Game Data'!D211/'Game Data'!E211</f>
+        <f>'Game'!D211/'Game'!E211</f>
         <v/>
       </c>
       <c r="D211">
-        <f>'Game Data'!F211/'Game Data'!G211</f>
+        <f>'Game'!F211/'Game'!G211</f>
         <v/>
       </c>
       <c r="E211">
-        <f>'Game Data'!E211/'Game Data'!G211</f>
+        <f>'Game'!E211/'Game'!G211</f>
         <v/>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <f>'Game Data'!A212</f>
+        <f>'Game'!A212</f>
         <v/>
       </c>
       <c r="B212">
-        <f>'Game Data'!B212/'Game Data'!C212</f>
+        <f>'Game'!B212/'Game'!C212</f>
         <v/>
       </c>
       <c r="C212">
-        <f>'Game Data'!D212/'Game Data'!E212</f>
+        <f>'Game'!D212/'Game'!E212</f>
         <v/>
       </c>
       <c r="D212">
-        <f>'Game Data'!F212/'Game Data'!G212</f>
+        <f>'Game'!F212/'Game'!G212</f>
         <v/>
       </c>
       <c r="E212">
-        <f>'Game Data'!E212/'Game Data'!G212</f>
+        <f>'Game'!E212/'Game'!G212</f>
         <v/>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <f>'Game Data'!A213</f>
+        <f>'Game'!A213</f>
         <v/>
       </c>
       <c r="B213">
-        <f>'Game Data'!B213/'Game Data'!C213</f>
+        <f>'Game'!B213/'Game'!C213</f>
         <v/>
       </c>
       <c r="C213">
-        <f>'Game Data'!D213/'Game Data'!E213</f>
+        <f>'Game'!D213/'Game'!E213</f>
         <v/>
       </c>
       <c r="D213">
-        <f>'Game Data'!F213/'Game Data'!G213</f>
+        <f>'Game'!F213/'Game'!G213</f>
         <v/>
       </c>
       <c r="E213">
-        <f>'Game Data'!E213/'Game Data'!G213</f>
+        <f>'Game'!E213/'Game'!G213</f>
         <v/>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <f>'Game Data'!A214</f>
+        <f>'Game'!A214</f>
         <v/>
       </c>
       <c r="B214">
-        <f>'Game Data'!B214/'Game Data'!C214</f>
+        <f>'Game'!B214/'Game'!C214</f>
         <v/>
       </c>
       <c r="C214">
-        <f>'Game Data'!D214/'Game Data'!E214</f>
+        <f>'Game'!D214/'Game'!E214</f>
         <v/>
       </c>
       <c r="D214">
-        <f>'Game Data'!F214/'Game Data'!G214</f>
+        <f>'Game'!F214/'Game'!G214</f>
         <v/>
       </c>
       <c r="E214">
-        <f>'Game Data'!E214/'Game Data'!G214</f>
+        <f>'Game'!E214/'Game'!G214</f>
         <v/>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <f>'Game Data'!A215</f>
+        <f>'Game'!A215</f>
         <v/>
       </c>
       <c r="B215">
-        <f>'Game Data'!B215/'Game Data'!C215</f>
+        <f>'Game'!B215/'Game'!C215</f>
         <v/>
       </c>
       <c r="C215">
-        <f>'Game Data'!D215/'Game Data'!E215</f>
+        <f>'Game'!D215/'Game'!E215</f>
         <v/>
       </c>
       <c r="D215">
-        <f>'Game Data'!F215/'Game Data'!G215</f>
+        <f>'Game'!F215/'Game'!G215</f>
         <v/>
       </c>
       <c r="E215">
-        <f>'Game Data'!E215/'Game Data'!G215</f>
+        <f>'Game'!E215/'Game'!G215</f>
         <v/>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <f>'Game Data'!A216</f>
+        <f>'Game'!A216</f>
         <v/>
       </c>
       <c r="B216">
-        <f>'Game Data'!B216/'Game Data'!C216</f>
+        <f>'Game'!B216/'Game'!C216</f>
         <v/>
       </c>
       <c r="C216">
-        <f>'Game Data'!D216/'Game Data'!E216</f>
+        <f>'Game'!D216/'Game'!E216</f>
         <v/>
       </c>
       <c r="D216">
-        <f>'Game Data'!F216/'Game Data'!G216</f>
+        <f>'Game'!F216/'Game'!G216</f>
         <v/>
       </c>
       <c r="E216">
-        <f>'Game Data'!E216/'Game Data'!G216</f>
+        <f>'Game'!E216/'Game'!G216</f>
         <v/>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <f>'Game Data'!A217</f>
+        <f>'Game'!A217</f>
         <v/>
       </c>
       <c r="B217">
-        <f>'Game Data'!B217/'Game Data'!C217</f>
+        <f>'Game'!B217/'Game'!C217</f>
         <v/>
       </c>
       <c r="C217">
-        <f>'Game Data'!D217/'Game Data'!E217</f>
+        <f>'Game'!D217/'Game'!E217</f>
         <v/>
       </c>
       <c r="D217">
-        <f>'Game Data'!F217/'Game Data'!G217</f>
+        <f>'Game'!F217/'Game'!G217</f>
         <v/>
       </c>
       <c r="E217">
-        <f>'Game Data'!E217/'Game Data'!G217</f>
+        <f>'Game'!E217/'Game'!G217</f>
         <v/>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <f>'Game Data'!A218</f>
+        <f>'Game'!A218</f>
         <v/>
       </c>
       <c r="B218">
-        <f>'Game Data'!B218/'Game Data'!C218</f>
+        <f>'Game'!B218/'Game'!C218</f>
         <v/>
       </c>
       <c r="C218">
-        <f>'Game Data'!D218/'Game Data'!E218</f>
+        <f>'Game'!D218/'Game'!E218</f>
         <v/>
       </c>
       <c r="D218">
-        <f>'Game Data'!F218/'Game Data'!G218</f>
+        <f>'Game'!F218/'Game'!G218</f>
         <v/>
       </c>
       <c r="E218">
-        <f>'Game Data'!E218/'Game Data'!G218</f>
+        <f>'Game'!E218/'Game'!G218</f>
         <v/>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <f>'Game Data'!A219</f>
+        <f>'Game'!A219</f>
         <v/>
       </c>
       <c r="B219">
-        <f>'Game Data'!B219/'Game Data'!C219</f>
+        <f>'Game'!B219/'Game'!C219</f>
         <v/>
       </c>
       <c r="C219">
-        <f>'Game Data'!D219/'Game Data'!E219</f>
+        <f>'Game'!D219/'Game'!E219</f>
         <v/>
       </c>
       <c r="D219">
-        <f>'Game Data'!F219/'Game Data'!G219</f>
+        <f>'Game'!F219/'Game'!G219</f>
         <v/>
       </c>
       <c r="E219">
-        <f>'Game Data'!E219/'Game Data'!G219</f>
+        <f>'Game'!E219/'Game'!G219</f>
         <v/>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <f>'Game Data'!A220</f>
+        <f>'Game'!A220</f>
         <v/>
       </c>
       <c r="B220">
-        <f>'Game Data'!B220/'Game Data'!C220</f>
+        <f>'Game'!B220/'Game'!C220</f>
         <v/>
       </c>
       <c r="C220">
-        <f>'Game Data'!D220/'Game Data'!E220</f>
+        <f>'Game'!D220/'Game'!E220</f>
         <v/>
       </c>
       <c r="D220">
-        <f>'Game Data'!F220/'Game Data'!G220</f>
+        <f>'Game'!F220/'Game'!G220</f>
         <v/>
       </c>
       <c r="E220">
-        <f>'Game Data'!E220/'Game Data'!G220</f>
+        <f>'Game'!E220/'Game'!G220</f>
         <v/>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <f>'Game Data'!A221</f>
+        <f>'Game'!A221</f>
         <v/>
       </c>
       <c r="B221">
-        <f>'Game Data'!B221/'Game Data'!C221</f>
+        <f>'Game'!B221/'Game'!C221</f>
         <v/>
       </c>
       <c r="C221">
-        <f>'Game Data'!D221/'Game Data'!E221</f>
+        <f>'Game'!D221/'Game'!E221</f>
         <v/>
       </c>
       <c r="D221">
-        <f>'Game Data'!F221/'Game Data'!G221</f>
+        <f>'Game'!F221/'Game'!G221</f>
         <v/>
       </c>
       <c r="E221">
-        <f>'Game Data'!E221/'Game Data'!G221</f>
+        <f>'Game'!E221/'Game'!G221</f>
         <v/>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <f>'Game Data'!A222</f>
+        <f>'Game'!A222</f>
         <v/>
       </c>
       <c r="B222">
-        <f>'Game Data'!B222/'Game Data'!C222</f>
+        <f>'Game'!B222/'Game'!C222</f>
         <v/>
       </c>
       <c r="C222">
-        <f>'Game Data'!D222/'Game Data'!E222</f>
+        <f>'Game'!D222/'Game'!E222</f>
         <v/>
       </c>
       <c r="D222">
-        <f>'Game Data'!F222/'Game Data'!G222</f>
+        <f>'Game'!F222/'Game'!G222</f>
         <v/>
       </c>
       <c r="E222">
-        <f>'Game Data'!E222/'Game Data'!G222</f>
+        <f>'Game'!E222/'Game'!G222</f>
         <v/>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <f>'Game Data'!A223</f>
+        <f>'Game'!A223</f>
         <v/>
       </c>
       <c r="B223">
-        <f>'Game Data'!B223/'Game Data'!C223</f>
+        <f>'Game'!B223/'Game'!C223</f>
         <v/>
       </c>
       <c r="C223">
-        <f>'Game Data'!D223/'Game Data'!E223</f>
+        <f>'Game'!D223/'Game'!E223</f>
         <v/>
       </c>
       <c r="D223">
-        <f>'Game Data'!F223/'Game Data'!G223</f>
+        <f>'Game'!F223/'Game'!G223</f>
         <v/>
       </c>
       <c r="E223">
-        <f>'Game Data'!E223/'Game Data'!G223</f>
+        <f>'Game'!E223/'Game'!G223</f>
         <v/>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <f>'Game Data'!A224</f>
+        <f>'Game'!A224</f>
         <v/>
       </c>
       <c r="B224">
-        <f>'Game Data'!B224/'Game Data'!C224</f>
+        <f>'Game'!B224/'Game'!C224</f>
         <v/>
       </c>
       <c r="C224">
-        <f>'Game Data'!D224/'Game Data'!E224</f>
+        <f>'Game'!D224/'Game'!E224</f>
         <v/>
       </c>
       <c r="D224">
-        <f>'Game Data'!F224/'Game Data'!G224</f>
+        <f>'Game'!F224/'Game'!G224</f>
         <v/>
       </c>
       <c r="E224">
-        <f>'Game Data'!E224/'Game Data'!G224</f>
+        <f>'Game'!E224/'Game'!G224</f>
         <v/>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <f>'Game Data'!A225</f>
+        <f>'Game'!A225</f>
         <v/>
       </c>
       <c r="B225">
-        <f>'Game Data'!B225/'Game Data'!C225</f>
+        <f>'Game'!B225/'Game'!C225</f>
         <v/>
       </c>
       <c r="C225">
-        <f>'Game Data'!D225/'Game Data'!E225</f>
+        <f>'Game'!D225/'Game'!E225</f>
         <v/>
       </c>
       <c r="D225">
-        <f>'Game Data'!F225/'Game Data'!G225</f>
+        <f>'Game'!F225/'Game'!G225</f>
         <v/>
       </c>
       <c r="E225">
-        <f>'Game Data'!E225/'Game Data'!G225</f>
+        <f>'Game'!E225/'Game'!G225</f>
         <v/>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <f>'Game Data'!A226</f>
+        <f>'Game'!A226</f>
         <v/>
       </c>
       <c r="B226">
-        <f>'Game Data'!B226/'Game Data'!C226</f>
+        <f>'Game'!B226/'Game'!C226</f>
         <v/>
       </c>
       <c r="C226">
-        <f>'Game Data'!D226/'Game Data'!E226</f>
+        <f>'Game'!D226/'Game'!E226</f>
         <v/>
       </c>
       <c r="D226">
-        <f>'Game Data'!F226/'Game Data'!G226</f>
+        <f>'Game'!F226/'Game'!G226</f>
         <v/>
       </c>
       <c r="E226">
-        <f>'Game Data'!E226/'Game Data'!G226</f>
+        <f>'Game'!E226/'Game'!G226</f>
         <v/>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <f>'Game Data'!A227</f>
+        <f>'Game'!A227</f>
         <v/>
       </c>
       <c r="B227">
-        <f>'Game Data'!B227/'Game Data'!C227</f>
+        <f>'Game'!B227/'Game'!C227</f>
         <v/>
       </c>
       <c r="C227">
-        <f>'Game Data'!D227/'Game Data'!E227</f>
+        <f>'Game'!D227/'Game'!E227</f>
         <v/>
       </c>
       <c r="D227">
-        <f>'Game Data'!F227/'Game Data'!G227</f>
+        <f>'Game'!F227/'Game'!G227</f>
         <v/>
       </c>
       <c r="E227">
-        <f>'Game Data'!E227/'Game Data'!G227</f>
+        <f>'Game'!E227/'Game'!G227</f>
         <v/>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <f>'Game Data'!A228</f>
+        <f>'Game'!A228</f>
         <v/>
       </c>
       <c r="B228">
-        <f>'Game Data'!B228/'Game Data'!C228</f>
+        <f>'Game'!B228/'Game'!C228</f>
         <v/>
       </c>
       <c r="C228">
-        <f>'Game Data'!D228/'Game Data'!E228</f>
+        <f>'Game'!D228/'Game'!E228</f>
         <v/>
       </c>
       <c r="D228">
-        <f>'Game Data'!F228/'Game Data'!G228</f>
+        <f>'Game'!F228/'Game'!G228</f>
         <v/>
       </c>
       <c r="E228">
-        <f>'Game Data'!E228/'Game Data'!G228</f>
+        <f>'Game'!E228/'Game'!G228</f>
         <v/>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <f>'Game Data'!A229</f>
+        <f>'Game'!A229</f>
         <v/>
       </c>
       <c r="B229">
-        <f>'Game Data'!B229/'Game Data'!C229</f>
+        <f>'Game'!B229/'Game'!C229</f>
         <v/>
       </c>
       <c r="C229">
-        <f>'Game Data'!D229/'Game Data'!E229</f>
+        <f>'Game'!D229/'Game'!E229</f>
         <v/>
       </c>
       <c r="D229">
-        <f>'Game Data'!F229/'Game Data'!G229</f>
+        <f>'Game'!F229/'Game'!G229</f>
         <v/>
       </c>
       <c r="E229">
-        <f>'Game Data'!E229/'Game Data'!G229</f>
+        <f>'Game'!E229/'Game'!G229</f>
         <v/>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <f>'Game Data'!A230</f>
+        <f>'Game'!A230</f>
         <v/>
       </c>
       <c r="B230">
-        <f>'Game Data'!B230/'Game Data'!C230</f>
+        <f>'Game'!B230/'Game'!C230</f>
         <v/>
       </c>
       <c r="C230">
-        <f>'Game Data'!D230/'Game Data'!E230</f>
+        <f>'Game'!D230/'Game'!E230</f>
         <v/>
       </c>
       <c r="D230">
-        <f>'Game Data'!F230/'Game Data'!G230</f>
+        <f>'Game'!F230/'Game'!G230</f>
         <v/>
       </c>
       <c r="E230">
-        <f>'Game Data'!E230/'Game Data'!G230</f>
+        <f>'Game'!E230/'Game'!G230</f>
         <v/>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <f>'Game Data'!A231</f>
+        <f>'Game'!A231</f>
         <v/>
       </c>
       <c r="B231">
-        <f>'Game Data'!B231/'Game Data'!C231</f>
+        <f>'Game'!B231/'Game'!C231</f>
         <v/>
       </c>
       <c r="C231">
-        <f>'Game Data'!D231/'Game Data'!E231</f>
+        <f>'Game'!D231/'Game'!E231</f>
         <v/>
       </c>
       <c r="D231">
-        <f>'Game Data'!F231/'Game Data'!G231</f>
+        <f>'Game'!F231/'Game'!G231</f>
         <v/>
       </c>
       <c r="E231">
-        <f>'Game Data'!E231/'Game Data'!G231</f>
+        <f>'Game'!E231/'Game'!G231</f>
         <v/>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <f>'Game Data'!A232</f>
+        <f>'Game'!A232</f>
         <v/>
       </c>
       <c r="B232">
-        <f>'Game Data'!B232/'Game Data'!C232</f>
+        <f>'Game'!B232/'Game'!C232</f>
         <v/>
       </c>
       <c r="C232">
-        <f>'Game Data'!D232/'Game Data'!E232</f>
+        <f>'Game'!D232/'Game'!E232</f>
         <v/>
       </c>
       <c r="D232">
-        <f>'Game Data'!F232/'Game Data'!G232</f>
+        <f>'Game'!F232/'Game'!G232</f>
         <v/>
       </c>
       <c r="E232">
-        <f>'Game Data'!E232/'Game Data'!G232</f>
+        <f>'Game'!E232/'Game'!G232</f>
         <v/>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <f>'Game Data'!A233</f>
+        <f>'Game'!A233</f>
         <v/>
       </c>
       <c r="B233">
-        <f>'Game Data'!B233/'Game Data'!C233</f>
+        <f>'Game'!B233/'Game'!C233</f>
         <v/>
       </c>
       <c r="C233">
-        <f>'Game Data'!D233/'Game Data'!E233</f>
+        <f>'Game'!D233/'Game'!E233</f>
         <v/>
       </c>
       <c r="D233">
-        <f>'Game Data'!F233/'Game Data'!G233</f>
+        <f>'Game'!F233/'Game'!G233</f>
         <v/>
       </c>
       <c r="E233">
-        <f>'Game Data'!E233/'Game Data'!G233</f>
+        <f>'Game'!E233/'Game'!G233</f>
         <v/>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <f>'Game Data'!A234</f>
+        <f>'Game'!A234</f>
         <v/>
       </c>
       <c r="B234">
-        <f>'Game Data'!B234/'Game Data'!C234</f>
+        <f>'Game'!B234/'Game'!C234</f>
         <v/>
       </c>
       <c r="C234">
-        <f>'Game Data'!D234/'Game Data'!E234</f>
+        <f>'Game'!D234/'Game'!E234</f>
         <v/>
       </c>
       <c r="D234">
-        <f>'Game Data'!F234/'Game Data'!G234</f>
+        <f>'Game'!F234/'Game'!G234</f>
         <v/>
       </c>
       <c r="E234">
-        <f>'Game Data'!E234/'Game Data'!G234</f>
+        <f>'Game'!E234/'Game'!G234</f>
         <v/>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <f>'Game Data'!A235</f>
+        <f>'Game'!A235</f>
         <v/>
       </c>
       <c r="B235">
-        <f>'Game Data'!B235/'Game Data'!C235</f>
+        <f>'Game'!B235/'Game'!C235</f>
         <v/>
       </c>
       <c r="C235">
-        <f>'Game Data'!D235/'Game Data'!E235</f>
+        <f>'Game'!D235/'Game'!E235</f>
         <v/>
       </c>
       <c r="D235">
-        <f>'Game Data'!F235/'Game Data'!G235</f>
+        <f>'Game'!F235/'Game'!G235</f>
         <v/>
       </c>
       <c r="E235">
-        <f>'Game Data'!E235/'Game Data'!G235</f>
+        <f>'Game'!E235/'Game'!G235</f>
         <v/>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <f>'Game Data'!A236</f>
+        <f>'Game'!A236</f>
         <v/>
       </c>
       <c r="B236">
-        <f>'Game Data'!B236/'Game Data'!C236</f>
+        <f>'Game'!B236/'Game'!C236</f>
         <v/>
       </c>
       <c r="C236">
-        <f>'Game Data'!D236/'Game Data'!E236</f>
+        <f>'Game'!D236/'Game'!E236</f>
         <v/>
       </c>
       <c r="D236">
-        <f>'Game Data'!F236/'Game Data'!G236</f>
+        <f>'Game'!F236/'Game'!G236</f>
         <v/>
       </c>
       <c r="E236">
-        <f>'Game Data'!E236/'Game Data'!G236</f>
+        <f>'Game'!E236/'Game'!G236</f>
         <v/>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <f>'Game Data'!A237</f>
+        <f>'Game'!A237</f>
         <v/>
       </c>
       <c r="B237">
-        <f>'Game Data'!B237/'Game Data'!C237</f>
+        <f>'Game'!B237/'Game'!C237</f>
         <v/>
       </c>
       <c r="C237">
-        <f>'Game Data'!D237/'Game Data'!E237</f>
+        <f>'Game'!D237/'Game'!E237</f>
         <v/>
       </c>
       <c r="D237">
-        <f>'Game Data'!F237/'Game Data'!G237</f>
+        <f>'Game'!F237/'Game'!G237</f>
         <v/>
       </c>
       <c r="E237">
-        <f>'Game Data'!E237/'Game Data'!G237</f>
+        <f>'Game'!E237/'Game'!G237</f>
         <v/>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <f>'Game Data'!A238</f>
+        <f>'Game'!A238</f>
         <v/>
       </c>
       <c r="B238">
-        <f>'Game Data'!B238/'Game Data'!C238</f>
+        <f>'Game'!B238/'Game'!C238</f>
         <v/>
       </c>
       <c r="C238">
-        <f>'Game Data'!D238/'Game Data'!E238</f>
+        <f>'Game'!D238/'Game'!E238</f>
         <v/>
       </c>
       <c r="D238">
-        <f>'Game Data'!F238/'Game Data'!G238</f>
+        <f>'Game'!F238/'Game'!G238</f>
         <v/>
       </c>
       <c r="E238">
-        <f>'Game Data'!E238/'Game Data'!G238</f>
+        <f>'Game'!E238/'Game'!G238</f>
         <v/>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <f>'Game Data'!A239</f>
+        <f>'Game'!A239</f>
         <v/>
       </c>
       <c r="B239">
-        <f>'Game Data'!B239/'Game Data'!C239</f>
+        <f>'Game'!B239/'Game'!C239</f>
         <v/>
       </c>
       <c r="C239">
-        <f>'Game Data'!D239/'Game Data'!E239</f>
+        <f>'Game'!D239/'Game'!E239</f>
         <v/>
       </c>
       <c r="D239">
-        <f>'Game Data'!F239/'Game Data'!G239</f>
+        <f>'Game'!F239/'Game'!G239</f>
         <v/>
       </c>
       <c r="E239">
-        <f>'Game Data'!E239/'Game Data'!G239</f>
+        <f>'Game'!E239/'Game'!G239</f>
         <v/>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <f>'Game Data'!A240</f>
+        <f>'Game'!A240</f>
         <v/>
       </c>
       <c r="B240">
-        <f>'Game Data'!B240/'Game Data'!C240</f>
+        <f>'Game'!B240/'Game'!C240</f>
         <v/>
       </c>
       <c r="C240">
-        <f>'Game Data'!D240/'Game Data'!E240</f>
+        <f>'Game'!D240/'Game'!E240</f>
         <v/>
       </c>
       <c r="D240">
-        <f>'Game Data'!F240/'Game Data'!G240</f>
+        <f>'Game'!F240/'Game'!G240</f>
         <v/>
       </c>
       <c r="E240">
-        <f>'Game Data'!E240/'Game Data'!G240</f>
+        <f>'Game'!E240/'Game'!G240</f>
         <v/>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <f>'Game Data'!A241</f>
+        <f>'Game'!A241</f>
         <v/>
       </c>
       <c r="B241">
-        <f>'Game Data'!B241/'Game Data'!C241</f>
+        <f>'Game'!B241/'Game'!C241</f>
         <v/>
       </c>
       <c r="C241">
-        <f>'Game Data'!D241/'Game Data'!E241</f>
+        <f>'Game'!D241/'Game'!E241</f>
         <v/>
       </c>
       <c r="D241">
-        <f>'Game Data'!F241/'Game Data'!G241</f>
+        <f>'Game'!F241/'Game'!G241</f>
         <v/>
       </c>
       <c r="E241">
-        <f>'Game Data'!E241/'Game Data'!G241</f>
+        <f>'Game'!E241/'Game'!G241</f>
         <v/>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <f>'Game Data'!A242</f>
+        <f>'Game'!A242</f>
         <v/>
       </c>
       <c r="B242">
-        <f>'Game Data'!B242/'Game Data'!C242</f>
+        <f>'Game'!B242/'Game'!C242</f>
         <v/>
       </c>
       <c r="C242">
-        <f>'Game Data'!D242/'Game Data'!E242</f>
+        <f>'Game'!D242/'Game'!E242</f>
         <v/>
       </c>
       <c r="D242">
-        <f>'Game Data'!F242/'Game Data'!G242</f>
+        <f>'Game'!F242/'Game'!G242</f>
         <v/>
       </c>
       <c r="E242">
-        <f>'Game Data'!E242/'Game Data'!G242</f>
+        <f>'Game'!E242/'Game'!G242</f>
         <v/>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <f>'Game Data'!A243</f>
+        <f>'Game'!A243</f>
         <v/>
       </c>
       <c r="B243">
-        <f>'Game Data'!B243/'Game Data'!C243</f>
+        <f>'Game'!B243/'Game'!C243</f>
         <v/>
       </c>
       <c r="C243">
-        <f>'Game Data'!D243/'Game Data'!E243</f>
+        <f>'Game'!D243/'Game'!E243</f>
         <v/>
       </c>
       <c r="D243">
-        <f>'Game Data'!F243/'Game Data'!G243</f>
+        <f>'Game'!F243/'Game'!G243</f>
         <v/>
       </c>
       <c r="E243">
-        <f>'Game Data'!E243/'Game Data'!G243</f>
+        <f>'Game'!E243/'Game'!G243</f>
         <v/>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <f>'Game Data'!A244</f>
+        <f>'Game'!A244</f>
         <v/>
       </c>
       <c r="B244">
-        <f>'Game Data'!B244/'Game Data'!C244</f>
+        <f>'Game'!B244/'Game'!C244</f>
         <v/>
       </c>
       <c r="C244">
-        <f>'Game Data'!D244/'Game Data'!E244</f>
+        <f>'Game'!D244/'Game'!E244</f>
         <v/>
       </c>
       <c r="D244">
-        <f>'Game Data'!F244/'Game Data'!G244</f>
+        <f>'Game'!F244/'Game'!G244</f>
         <v/>
       </c>
       <c r="E244">
-        <f>'Game Data'!E244/'Game Data'!G244</f>
+        <f>'Game'!E244/'Game'!G244</f>
         <v/>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <f>'Game Data'!A245</f>
+        <f>'Game'!A245</f>
         <v/>
       </c>
       <c r="B245">
-        <f>'Game Data'!B245/'Game Data'!C245</f>
+        <f>'Game'!B245/'Game'!C245</f>
         <v/>
       </c>
       <c r="C245">
-        <f>'Game Data'!D245/'Game Data'!E245</f>
+        <f>'Game'!D245/'Game'!E245</f>
         <v/>
       </c>
       <c r="D245">
-        <f>'Game Data'!F245/'Game Data'!G245</f>
+        <f>'Game'!F245/'Game'!G245</f>
         <v/>
       </c>
       <c r="E245">
-        <f>'Game Data'!E245/'Game Data'!G245</f>
+        <f>'Game'!E245/'Game'!G245</f>
         <v/>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <f>'Game Data'!A246</f>
+        <f>'Game'!A246</f>
         <v/>
       </c>
       <c r="B246">
-        <f>'Game Data'!B246/'Game Data'!C246</f>
+        <f>'Game'!B246/'Game'!C246</f>
         <v/>
       </c>
       <c r="C246">
-        <f>'Game Data'!D246/'Game Data'!E246</f>
+        <f>'Game'!D246/'Game'!E246</f>
         <v/>
       </c>
       <c r="D246">
-        <f>'Game Data'!F246/'Game Data'!G246</f>
+        <f>'Game'!F246/'Game'!G246</f>
         <v/>
       </c>
       <c r="E246">
-        <f>'Game Data'!E246/'Game Data'!G246</f>
+        <f>'Game'!E246/'Game'!G246</f>
         <v/>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <f>'Game Data'!A247</f>
+        <f>'Game'!A247</f>
         <v/>
       </c>
       <c r="B247">
-        <f>'Game Data'!B247/'Game Data'!C247</f>
+        <f>'Game'!B247/'Game'!C247</f>
         <v/>
       </c>
       <c r="C247">
-        <f>'Game Data'!D247/'Game Data'!E247</f>
+        <f>'Game'!D247/'Game'!E247</f>
         <v/>
       </c>
       <c r="D247">
-        <f>'Game Data'!F247/'Game Data'!G247</f>
+        <f>'Game'!F247/'Game'!G247</f>
         <v/>
       </c>
       <c r="E247">
-        <f>'Game Data'!E247/'Game Data'!G247</f>
+        <f>'Game'!E247/'Game'!G247</f>
         <v/>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <f>'Game Data'!A248</f>
+        <f>'Game'!A248</f>
         <v/>
       </c>
       <c r="B248">
-        <f>'Game Data'!B248/'Game Data'!C248</f>
+        <f>'Game'!B248/'Game'!C248</f>
         <v/>
       </c>
       <c r="C248">
-        <f>'Game Data'!D248/'Game Data'!E248</f>
+        <f>'Game'!D248/'Game'!E248</f>
         <v/>
       </c>
       <c r="D248">
-        <f>'Game Data'!F248/'Game Data'!G248</f>
+        <f>'Game'!F248/'Game'!G248</f>
         <v/>
       </c>
       <c r="E248">
-        <f>'Game Data'!E248/'Game Data'!G248</f>
+        <f>'Game'!E248/'Game'!G248</f>
         <v/>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <f>'Game Data'!A249</f>
+        <f>'Game'!A249</f>
         <v/>
       </c>
       <c r="B249">
-        <f>'Game Data'!B249/'Game Data'!C249</f>
+        <f>'Game'!B249/'Game'!C249</f>
         <v/>
       </c>
       <c r="C249">
-        <f>'Game Data'!D249/'Game Data'!E249</f>
+        <f>'Game'!D249/'Game'!E249</f>
         <v/>
       </c>
       <c r="D249">
-        <f>'Game Data'!F249/'Game Data'!G249</f>
+        <f>'Game'!F249/'Game'!G249</f>
         <v/>
       </c>
       <c r="E249">
-        <f>'Game Data'!E249/'Game Data'!G249</f>
+        <f>'Game'!E249/'Game'!G249</f>
         <v/>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <f>'Game Data'!A250</f>
+        <f>'Game'!A250</f>
         <v/>
       </c>
       <c r="B250">
-        <f>'Game Data'!B250/'Game Data'!C250</f>
+        <f>'Game'!B250/'Game'!C250</f>
         <v/>
       </c>
       <c r="C250">
-        <f>'Game Data'!D250/'Game Data'!E250</f>
+        <f>'Game'!D250/'Game'!E250</f>
         <v/>
       </c>
       <c r="D250">
-        <f>'Game Data'!F250/'Game Data'!G250</f>
+        <f>'Game'!F250/'Game'!G250</f>
         <v/>
       </c>
       <c r="E250">
-        <f>'Game Data'!E250/'Game Data'!G250</f>
+        <f>'Game'!E250/'Game'!G250</f>
         <v/>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <f>'Game Data'!A251</f>
+        <f>'Game'!A251</f>
         <v/>
       </c>
       <c r="B251">
-        <f>'Game Data'!B251/'Game Data'!C251</f>
+        <f>'Game'!B251/'Game'!C251</f>
         <v/>
       </c>
       <c r="C251">
-        <f>'Game Data'!D251/'Game Data'!E251</f>
+        <f>'Game'!D251/'Game'!E251</f>
         <v/>
       </c>
       <c r="D251">
-        <f>'Game Data'!F251/'Game Data'!G251</f>
+        <f>'Game'!F251/'Game'!G251</f>
         <v/>
       </c>
       <c r="E251">
-        <f>'Game Data'!E251/'Game Data'!G251</f>
+        <f>'Game'!E251/'Game'!G251</f>
         <v/>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <f>'Game Data'!A252</f>
+        <f>'Game'!A252</f>
         <v/>
       </c>
       <c r="B252">
-        <f>'Game Data'!B252/'Game Data'!C252</f>
+        <f>'Game'!B252/'Game'!C252</f>
         <v/>
       </c>
       <c r="C252">
-        <f>'Game Data'!D252/'Game Data'!E252</f>
+        <f>'Game'!D252/'Game'!E252</f>
         <v/>
       </c>
       <c r="D252">
-        <f>'Game Data'!F252/'Game Data'!G252</f>
+        <f>'Game'!F252/'Game'!G252</f>
         <v/>
       </c>
       <c r="E252">
-        <f>'Game Data'!E252/'Game Data'!G252</f>
+        <f>'Game'!E252/'Game'!G252</f>
         <v/>
       </c>
     </row>

--- a/Achievement_Hunting/achievement_hunting.xlsx
+++ b/Achievement_Hunting/achievement_hunting.xlsx
@@ -526,7 +526,7 @@
         <v>250</v>
       </c>
       <c r="E3" t="n">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="F3" t="n">
         <v>190</v>
@@ -548,10 +548,10 @@
         <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>5845</v>
+        <v>5828</v>
       </c>
       <c r="E4" t="n">
-        <v>6401</v>
+        <v>6367</v>
       </c>
       <c r="F4" t="n">
         <v>2560</v>
@@ -576,7 +576,7 @@
         <v>249</v>
       </c>
       <c r="E5" t="n">
-        <v>5119</v>
+        <v>5074</v>
       </c>
       <c r="F5" t="n">
         <v>205</v>
@@ -598,10 +598,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E6" t="n">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="F6" t="n">
         <v>960</v>
@@ -623,10 +623,10 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E7" t="n">
-        <v>3927</v>
+        <v>3905</v>
       </c>
       <c r="F7" t="n">
         <v>350</v>
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>4261</v>
+        <v>4232</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -676,7 +676,7 @@
         <v>203</v>
       </c>
       <c r="E9" t="n">
-        <v>2821</v>
+        <v>2830</v>
       </c>
       <c r="F9" t="n">
         <v>120</v>
@@ -876,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>5155</v>
+        <v>5152</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -923,10 +923,10 @@
         <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E19" t="n">
-        <v>1179</v>
+        <v>1192</v>
       </c>
       <c r="F19" t="n">
         <v>300</v>
@@ -1201,7 +1201,7 @@
         <v>96</v>
       </c>
       <c r="E30" t="n">
-        <v>3657</v>
+        <v>3665</v>
       </c>
       <c r="F30" t="n">
         <v>65</v>
@@ -1273,10 +1273,10 @@
         <v>33</v>
       </c>
       <c r="D33" t="n">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="E33" t="n">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="F33" t="n">
         <v>1360</v>
@@ -1323,10 +1323,10 @@
         <v>44</v>
       </c>
       <c r="D35" t="n">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E35" t="n">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="F35" t="n">
         <v>1165</v>
@@ -1348,10 +1348,10 @@
         <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E36" t="n">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="F36" t="n">
         <v>215</v>
@@ -1501,7 +1501,7 @@
         <v>262</v>
       </c>
       <c r="E42" t="n">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="F42" t="n">
         <v>200</v>
@@ -1573,10 +1573,10 @@
         <v>51</v>
       </c>
       <c r="D45" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E45" t="n">
-        <v>7782</v>
+        <v>7755</v>
       </c>
       <c r="F45" t="n">
         <v>205</v>
@@ -1926,7 +1926,7 @@
         <v>924</v>
       </c>
       <c r="E59" t="n">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="F59" t="n">
         <v>395</v>
@@ -1951,7 +1951,7 @@
         <v>105</v>
       </c>
       <c r="E60" t="n">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="F60" t="n">
         <v>60</v>
@@ -2051,7 +2051,7 @@
         <v>27</v>
       </c>
       <c r="E64" t="n">
-        <v>7481</v>
+        <v>7455</v>
       </c>
       <c r="F64" t="n">
         <v>20</v>
@@ -2126,7 +2126,7 @@
         <v>123</v>
       </c>
       <c r="E67" t="n">
-        <v>8665</v>
+        <v>8655</v>
       </c>
       <c r="F67" t="n">
         <v>60</v>
@@ -2248,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="D72" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E72" t="n">
-        <v>4570</v>
+        <v>4573</v>
       </c>
       <c r="F72" t="n">
         <v>130</v>
@@ -2426,7 +2426,7 @@
         <v>247</v>
       </c>
       <c r="E79" t="n">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="F79" t="n">
         <v>175</v>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="F82" t="n">
         <v>10</v>
@@ -2776,7 +2776,7 @@
         <v>914</v>
       </c>
       <c r="E93" t="n">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="F93" t="n">
         <v>450</v>
@@ -2851,7 +2851,7 @@
         <v>2157</v>
       </c>
       <c r="E96" t="n">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="F96" t="n">
         <v>1210</v>
@@ -3101,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="E106" t="n">
-        <v>5844</v>
+        <v>12494</v>
       </c>
       <c r="F106" t="n">
         <v>30</v>
@@ -3201,7 +3201,7 @@
         <v>32</v>
       </c>
       <c r="E110" t="n">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="F110" t="n">
         <v>30</v>
@@ -3276,7 +3276,7 @@
         <v>21</v>
       </c>
       <c r="E113" t="n">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="F113" t="n">
         <v>20</v>
@@ -3526,7 +3526,7 @@
         <v>486</v>
       </c>
       <c r="E123" t="n">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="F123" t="n">
         <v>315</v>
@@ -3751,7 +3751,7 @@
         <v>848</v>
       </c>
       <c r="E132" t="n">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="F132" t="n">
         <v>540</v>
@@ -3776,7 +3776,7 @@
         <v>509</v>
       </c>
       <c r="E133" t="n">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="F133" t="n">
         <v>345</v>
@@ -3901,7 +3901,7 @@
         <v>133</v>
       </c>
       <c r="E138" t="n">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="F138" t="n">
         <v>85</v>
@@ -3976,7 +3976,7 @@
         <v>1253</v>
       </c>
       <c r="E141" t="n">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="F141" t="n">
         <v>860</v>
@@ -3998,10 +3998,10 @@
         <v>50</v>
       </c>
       <c r="D142" t="n">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E142" t="n">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F142" t="n">
         <v>785</v>
@@ -4423,10 +4423,10 @@
         <v>18</v>
       </c>
       <c r="D159" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E159" t="n">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="F159" t="n">
         <v>475</v>
@@ -4551,7 +4551,7 @@
         <v>244</v>
       </c>
       <c r="E164" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F164" t="n">
         <v>155</v>
@@ -4676,7 +4676,7 @@
         <v>340</v>
       </c>
       <c r="E169" t="n">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="F169" t="n">
         <v>250</v>
@@ -4726,7 +4726,7 @@
         <v>406</v>
       </c>
       <c r="E171" t="n">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="F171" t="n">
         <v>265</v>
@@ -4876,7 +4876,7 @@
         <v>872</v>
       </c>
       <c r="E177" t="n">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="F177" t="n">
         <v>520</v>
@@ -4926,7 +4926,7 @@
         <v>695</v>
       </c>
       <c r="E179" t="n">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F179" t="n">
         <v>540</v>
@@ -4973,10 +4973,10 @@
         <v>50</v>
       </c>
       <c r="D181" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E181" t="n">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="F181" t="n">
         <v>615</v>
@@ -5201,7 +5201,7 @@
         <v>635</v>
       </c>
       <c r="E190" t="n">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="F190" t="n">
         <v>320</v>
@@ -5301,7 +5301,7 @@
         <v>455</v>
       </c>
       <c r="E194" t="n">
-        <v>4685</v>
+        <v>4689</v>
       </c>
       <c r="F194" t="n">
         <v>300</v>
@@ -5376,7 +5376,7 @@
         <v>928</v>
       </c>
       <c r="E197" t="n">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F197" t="n">
         <v>700</v>
@@ -5751,7 +5751,7 @@
         <v>946</v>
       </c>
       <c r="E212" t="n">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="F212" t="n">
         <v>685</v>
@@ -5976,7 +5976,7 @@
         <v>76</v>
       </c>
       <c r="E221" t="n">
-        <v>4224</v>
+        <v>4229</v>
       </c>
       <c r="F221" t="n">
         <v>45</v>
@@ -6026,7 +6026,7 @@
         <v>1505</v>
       </c>
       <c r="E223" t="n">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="F223" t="n">
         <v>660</v>
@@ -6151,7 +6151,7 @@
         <v>1285</v>
       </c>
       <c r="E228" t="n">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="F228" t="n">
         <v>640</v>
@@ -6426,7 +6426,7 @@
         <v>173</v>
       </c>
       <c r="E239" t="n">
-        <v>4127</v>
+        <v>4130</v>
       </c>
       <c r="F239" t="n">
         <v>115</v>
@@ -6451,7 +6451,7 @@
         <v>857</v>
       </c>
       <c r="E240" t="n">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F240" t="n">
         <v>560</v>
